--- a/PROMPTS_RAPPORT_COMPLET_ENRICHIS.xlsx
+++ b/PROMPTS_RAPPORT_COMPLET_ENRICHIS.xlsx
@@ -17,16 +17,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="1">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -37,7 +34,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -45,21 +42,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -434,47 +422,47 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" t="inlineStr">
         <is>
           <t>Ordre</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" t="inlineStr">
         <is>
           <t>Type_Rapport</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" t="inlineStr">
         <is>
           <t>Section</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>Nom_Poste</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>Texte_Positionnement_Personnalise</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>Temperature</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>Donnees_Injectees</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>Prompt_Complete</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>Reponse_Attendue</t>
         </is>
@@ -507,121 +495,157 @@
         <is>
           <t xml:space="preserve">SYNTHÈSE DES GRANDS AGRÉGATS FINANCIERS :
 SECTION DE FONCTIONNEMENT :
-- Produits de fonctionnement : 1863 k€ (1778 €/hab. vs 944 €/hab. strate)
-  • Impôts locaux : 551 k€ - Part : 32.28% (strate : 42.52%)
-  • DGF : 474 k€ - Part : 27.78% (strate : 17.22%)
-- Charges de fonctionnement : 1407 k€ (1342 €/hab. vs 774 €/hab. strate)
-  • Charges de personnel : 553 k€ - Part : 45.1% (strate : 44.61%)
-  • Achats et charges externes : 419 k€ - Part : 34.14% (strate : 34.62%)
-- Résultat de fonctionnement : 456 k€ (436 €/hab. vs 171 €/hab. strate)
+- Produits de fonctionnement : 1234 k€ (1120 €/hab. vs 944 €/hab. strate)
+  • Impôts locaux : 632 k€ - Part : 51.17% (strate : 42.52%)
+  • DGF : 157 k€ - Part : 12.71% (strate : 17.22%)
+- Charges de fonctionnement : 1063 k€ (965 €/hab. vs 774 €/hab. strate)
+  • Charges de personnel : 490 k€ - Part : 46.14% (strate : 44.61%)
+  • Achats et charges externes : 426 k€ - Part : 40.11% (strate : 34.62%)
+- Résultat de fonctionnement : 171 k€ (155 €/hab. vs 171 €/hab. strate)
 AUTOFINANCEMENT :
-- CAF brute : 479 k€ (457 €/hab. vs 182 €/hab. strate) - Taux : 28.07% (strate : 19.83%)
-- CAF nette : 296 k€ (283 €/hab. vs 109 €/hab. strate) - Taux : 17.38% (strate : 11.88%)
+- CAF brute : 172 k€ (156 €/hab. vs 182 €/hab. strate) - Taux : 13.94% (strate : 19.83%)
+- CAF nette : 79 k€ (72 €/hab. vs 109 €/hab. strate) - Taux : 6.42% (strate : 11.88%)
 INVESTISSEMENT :
-- Dépenses d'équipement : 662 k€ (632 €/hab. vs 389 €/hab. strate)
+- Dépenses d'équipement : 59 k€ (53 €/hab. vs 389 €/hab. strate)
 - Emprunts contractés : 0 k€
 ENDETTEMENT :
-- Encours de dette : 1074 k€ (1025 €/hab. vs 560 €/hab. strate) - Ratio d'endettement (Dette/Produits CAF) : 62.97% (strate : 60.88%)
-- Capacité de désendettement (Dette/CAF brute) : 2.2 années (seuil prudentiel : 12 ans)
+- Encours de dette : 1144 k€ (1038 €/hab. vs 560 €/hab. strate)
+- Capacité de désendettement (encours / CAF brute) : 6.7 années.
+  Cette donnée s'exprime exclusivement en années.
+  Seuil d’alerte usuel : &gt; 12 ans ; zone critique : &gt; 15 ans.
 RATIOS FINANCIERS CLÉS :
-- Taux d'épargne brute (CAF brute/Produits CAF) : 28.1%
-- Taux d'épargne nette (CAF nette/Produits CAF) : 17.4%
-- Part charges de personnel / Charges CAF : 45.1% (strate : 44.61%)
-- Ratio d'effort d'équipement (Dépenses équip./Produits CAF) : 38.8%
-- Ratio d'autonomie fiscale (Impôts locaux/Produits CAF) : 32.3%
-- Taux de couverture de l'investissement par la CAF nette : 44.7%
+- Taux d'épargne brute (CAF brute/RRF) : 13.9%
+- Taux d'épargne nette (CAF nette/RRF) : 6.4%
+- Coefficient de mobilisation de la CAF (Remboursement dette/CAF brute) : 54.1%
+- Part charges de personnel / DRF : 46.1% (strate : 44.61%)
+- Ratio d'effort d'équipement (Dépenses équip./RFF) : 4.8%
+- Ratio d'autonomie fiscale (Impôts locaux/RFF) : 51.2%
+- Taux de couverture des dépenses d'équipement par la CAF nette : 133.9%
 SITUATION NETTE :
-- Fonds de roulement : 274 k€ (positif) (261 €/hab. vs 557 €/hab. strate)
+- Fonds de roulement : 250 k€ (négatif) (-227 €/hab. vs 557 €/hab. strate)
 </t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Tu es un analyste financier de la DGFiP (M14/M57).
+          <t xml:space="preserve">Tu es un analyste financier de la DGFiP (M57).
 Tu produis une analyse équivalente à une note DDFIP ou à une analyse transmise au préfet.
 Tu n'es PAS un commentateur généraliste.
 Tu es soumis à une doctrine comptable STRICTE.
 Toute erreur conceptuelle invalide l'analyse.
 L'ESSENTIEL DE LA SYNTHÈSE GLOBALE :
-La synthèse financière globale permet d’apprécier l’ensemble des équilibres budgétaires de la collectivité.
-Elle couvre la section de fonctionnement, la capacité d’autofinancement brute et nette, la section d’investissement, l’endettement et le fonds de roulement.
-L’analyse met en évidence les articulations comptables entre ces agrégats et repose exclusivement sur la doctrine comptable M14/M57, en utilisant les ratios financiers comme indicateurs de cohérence et de stabilité.
-RATIOS ET SEUILS DE RÉFÉRENCE :
-- Capacité de désendettement : &lt; 12 ans (seuil prudentiel)
-- Taux d’épargne nette : &gt; 10% (seuil prudentiel)
+Le diagnostic consiste à évaluer la robustesse de la structure financière au 31 décembre. Il s'agit de vérifier si l'exploitation (fonctionnement) génère suffisamment de ressources pour honorer les obligations financières et sécuriser le patrimoine sans mettre en péril la liquidité.
+LOGIQUE D'ARTICULATION (PHOTO À L'INSTANT T) :
+1. Équilibre d'exploitation : Vérifier que les recettes réelles de fonctionnement (RRF) couvrent non seulement les dépenses réelles de fonctionnement (DRF), mais dégagent un excédent suffisant (CAF brute) pour assurer le service de la dette passée.
+2. Couverture de la dette : L'annuité en capital doit être intégralement couverte par l'épargne de l'année. Une CAF nette positive est le gage qu'aucun 'emprunt toxique' (emprunter pour rembourser du capital) n'est nécessaire.
+3. Soutenabilité du stock : Le ratio de désendettement est ici interprété comme un indice de vulnérabilité. Plus il est proche de 12 ans, moins la collectivité dispose de capacité à absorber un futur choc de recettes ou de dépenses.
+4. Sécurité du Bilan : Le FDR doit permettre de couvrir le besoin en fonds de roulement (BFR) pour éviter les ruptures de liquidité en cours d'année. Un FDR positif mais nettement inférieur à la moyenne de la strate (écart &gt; -30%) constitue un point de vigilance, surtout s'il est combiné à un encours de dette par habitant supérieur à la strate.
+DISTINCTIONS DOCTRINALES IMPÉRATIVES :
+- Résultat de fonctionnement = produits de fonctionnement (réels + ordre) – charges de fonctionnement (réels + ordre). C'est un résultat comptable de la SEULE section de fonctionnement.
+- Résultat comptable global = résultat de fonctionnement + résultat d'investissement. Ne jamais confondre les deux.
+- RRF (Recettes Réelles de Fonctionnement) = produits de fonctionnement HORS opérations d'ordre. C'est le dénominateur du taux d'épargne brute.
+- Total des produits de fonctionnement = RRF + opérations d'ordre. Ce montant est supérieur ou égal aux RRF.
+RATIOS ET SEUILS PRUDENTIELS :
+- Capacité de désendettement (Encours / CAF brute) : &gt; 12 ans (Alerte), &gt; 15 ans (Zone critique). En pratique, une capacité inférieur à 10 ans est généralement considéré comme confortable par les analystes financiers.
+- Taux d'épargne brute (CAF brute / RRF) : &gt; 15% (Confort). Un taux &lt; 8% est généralement considéré par les analystes financiers comme un signe d'incapacité probable à renouveler le patrimoine (seuil usuel, non réglementaire).
+- Taux de rigidité de la dette (Remboursement du capital / CAF brute) : Mesure quelle part de l'épargne brute est absorbée par le service de la dette en capital avant de pouvoir investir. Plus ce ratio est élevé, moins la collectivité dispose de ressources propres pour financer ses équipements.
 DONNÉES À ANALYSER :
 SYNTHÈSE DES GRANDS AGRÉGATS FINANCIERS :
 SECTION DE FONCTIONNEMENT :
-- Produits de fonctionnement : 1863 k€ (1778 €/hab. vs 944 €/hab. strate)
-  • Impôts locaux : 551 k€ - Part : 32.28% (strate : 42.52%)
-  • DGF : 474 k€ - Part : 27.78% (strate : 17.22%)
-- Charges de fonctionnement : 1407 k€ (1342 €/hab. vs 774 €/hab. strate)
-  • Charges de personnel : 553 k€ - Part : 45.1% (strate : 44.61%)
-  • Achats et charges externes : 419 k€ - Part : 34.14% (strate : 34.62%)
-- Résultat de fonctionnement : 456 k€ (436 €/hab. vs 171 €/hab. strate)
+- Produits de fonctionnement : 1234 k€ (1120 €/hab. vs 944 €/hab. strate)
+  • Impôts locaux : 632 k€ - Part : 51.17% (strate : 42.52%)
+  • DGF : 157 k€ - Part : 12.71% (strate : 17.22%)
+- Charges de fonctionnement : 1063 k€ (965 €/hab. vs 774 €/hab. strate)
+  • Charges de personnel : 490 k€ - Part : 46.14% (strate : 44.61%)
+  • Achats et charges externes : 426 k€ - Part : 40.11% (strate : 34.62%)
+- Résultat de fonctionnement : 171 k€ (155 €/hab. vs 171 €/hab. strate)
 AUTOFINANCEMENT :
-- CAF brute : 479 k€ (457 €/hab. vs 182 €/hab. strate) - Taux : 28.07% (strate : 19.83%)
-- CAF nette : 296 k€ (283 €/hab. vs 109 €/hab. strate) - Taux : 17.38% (strate : 11.88%)
+- CAF brute : 172 k€ (156 €/hab. vs 182 €/hab. strate) - Taux : 13.94% (strate : 19.83%)
+- CAF nette : 79 k€ (72 €/hab. vs 109 €/hab. strate) - Taux : 6.42% (strate : 11.88%)
 INVESTISSEMENT :
-- Dépenses d'équipement : 662 k€ (632 €/hab. vs 389 €/hab. strate)
+- Dépenses d'équipement : 59 k€ (53 €/hab. vs 389 €/hab. strate)
 - Emprunts contractés : 0 k€
 ENDETTEMENT :
-- Encours de dette : 1074 k€ (1025 €/hab. vs 560 €/hab. strate) - Ratio d'endettement (Dette/Produits CAF) : 62.97% (strate : 60.88%)
-- Capacité de désendettement (Dette/CAF brute) : 2.2 années (seuil prudentiel : 12 ans)
+- Encours de dette : 1144 k€ (1038 €/hab. vs 560 €/hab. strate)
+- Capacité de désendettement (encours / CAF brute) : 6.7 années.
+  Cette donnée s'exprime exclusivement en années.
+  Seuil d’alerte usuel : &gt; 12 ans ; zone critique : &gt; 15 ans.
 RATIOS FINANCIERS CLÉS :
-- Taux d'épargne brute (CAF brute/Produits CAF) : 28.1%
-- Taux d'épargne nette (CAF nette/Produits CAF) : 17.4%
-- Part charges de personnel / Charges CAF : 45.1% (strate : 44.61%)
-- Ratio d'effort d'équipement (Dépenses équip./Produits CAF) : 38.8%
-- Ratio d'autonomie fiscale (Impôts locaux/Produits CAF) : 32.3%
-- Taux de couverture de l'investissement par la CAF nette : 44.7%
+- Taux d'épargne brute (CAF brute/RRF) : 13.9%
+- Taux d'épargne nette (CAF nette/RRF) : 6.4%
+- Coefficient de mobilisation de la CAF (Remboursement dette/CAF brute) : 54.1%
+- Part charges de personnel / DRF : 46.1% (strate : 44.61%)
+- Ratio d'effort d'équipement (Dépenses équip./RFF) : 4.8%
+- Ratio d'autonomie fiscale (Impôts locaux/RFF) : 51.2%
+- Taux de couverture des dépenses d'équipement par la CAF nette : 133.9%
 SITUATION NETTE :
-- Fonds de roulement : 274 k€ (positif) (261 €/hab. vs 557 €/hab. strate)
+- Fonds de roulement : 250 k€ (négatif) (-227 €/hab. vs 557 €/hab. strate)
 CONTEXTE FINANCIER GLOBAL DE LA COMMUNE :
-Commune: CHAMPAGNAC
+Commune: ROSOY
 Exercice: 2024
-Population: 1048 habitants
+Population: 1102 habitants
 Strate démographique: 500 à 2000 habitants
 ÉQUILIBRES FINANCIERS:
-- Résultat de fonctionnement: 456 k€
-- CAF brute: 479 k€
-- CAF nette: 296 k€
-- Encours de dette: 1074 k€
-- Dépenses d'équipement: 662 k€
-- Fonds de roulement: 274 k€ (positif)
+- Résultat de fonctionnement: 171 k€
+- CAF brute: 172 k€
+- CAF nette: 79 k€
+- Encours de dette: 1144 k€
+- Dépenses d'équipement: 59 k€
+- Fonds de roulement: 250 k€ (négatif)
 RATIOS CLÉS:
-- Taux d'épargne brute: 28.1%
-- Part des charges de personnel: 45.1%
-- Capacité de désendettement: 2.2 années
-- Seuil prudentiel de capacité de désendettement: 12 ans
+- Taux d'épargne brute (CAF brute / RRF): 13.9% (seuil de confort: &gt; 15% ; seuil d'alerte usuel: &lt; 8%)
+- Part des charges de personnel dans les DRF: 46.1%
+- Capacité de désendettement (encours / CAF brute): 6.7 années (alerte: &gt; 12 ans ; zone critique: &gt; 15 ans)
 CONSIGNES D’ANALYSE – SYNTHÈSE FINANCIÈRE GLOBALE :
 Rédiger une synthèse financière globale concise, mettant en évidence les articulations comptables entre les principaux agrégats financiers de la commune.
 La synthèse ne doit pas dépasser 400 mots et se limiter à l’essentiel.
-Elle doit :
-- présenter l’équilibre général de la section de fonctionnement,
-- indiquer la capacité d’autofinancement (CAF brute et CAF nette),
-- décrire le financement de l’investissement sur l’exercice,
-- détailler les niveaux d’endettement et leur évolution.
+DIRECTIVES DE RÉDACTION IMPÉRATIVES :
+- DÉBUT : Commencer obligatoirement par la formulation : "Le résultat comptable de la commune de [NOM_COMMUNE] présente un [excédent/déficit] de [VALEUR] k€."
+- DISTINCTION RÉSULTAT : Si les données permettent d'isoler le résultat de fonctionnement du résultat d'investissement, les distinguer explicitement. Sinon, préciser qu'il s'agit du résultat global (fonctionnement + investissement).
+- POSITIONNEMENT : Analyser les montants par rapport à la moyenne de la strate (données disponibles) plutôt que par rapport au passé.
+- VOCABULAIRE : Ne jamais utiliser le mot "évolution" ou "variation" (puisque nous analysons un exercice unique), mais utiliser "niveau", "poids", "positionnement" ou "part".
+- TERMINOLOGIE : Utiliser exclusivement "recettes réelles de fonctionnement" (RRF) et "dépenses réelles de fonctionnement" (DRF). Ne jamais écrire "produits de capacité d'autofinancement", "produits CAF", ou "charges CAF".
+CONTENU :
+- Présenter l'équilibre du résultat comptable (RRF vs DRF).
+- Indiquer la capacité d'autofinancement (CAF brute et CAF nette), avec le taux d'épargne brute. Si la CAF brute et le résultat de fonctionnement sont quasi identiques (écart &lt; 5 k€), signaler que les charges d'ordre nettes sont négligeables et interroger la politique d'amortissement.
+- Décrire le financement de l'équipement sur l'exercice :
+  • Si le taux de couverture (CAF nette / dépenses d'équipement) est ≥ 100% : indiquer que l'investissement est intégralement autofinancé.
+  • Si le taux de couverture est &lt; 100% : indiquer la part financée par la CAF nette et préciser que le solde provient d'autres ressources (subventions, fonds de roulement, résultats antérieurs reportés), SANS qualifier l'investissement d'"autofinancé".
+  • Préciser si un emprunt a été contracté ou non.
+- Détailler le niveau d'endettement et la capacité de désendettement.
+- Qualifier le fonds de roulement :
+  • FDR positif ET proche de la strate (écart &lt; -30%) → facteur favorable.
+  • FDR positif MAIS nettement inférieur à la strate (écart &gt; -30%) → point de vigilance, à croiser avec le niveau d'encours de dette par habitant.
+  • FDR négatif → facteur défavorable.
+STRUCTURE :
+Paragraphes courts. Identifier les articulations comptables entre :
+- fonctionnement, autofinancement, investissement et dette.
 Structurer le propos en paragraphes courts et hiérarchisés.
 Ne pas répéter les analyses détaillées par poste.
-Identifier les articulations comptables entre :
-- fonctionnement, autofinancement, investissement et dette.
 STYLE ET RIGUEUR :
-- Ton neutre, institutionnel, factuel et analytique ("technocratique" au sens noble : précis et rigoureux).
+- Ton neutre, institutionnel, factuel et analytique.
 - Utiliser le conditionnel uniquement pour toute interprétation non explicitement portée par les chiffres.
-- Prioriser l’affirmation lorsque les constats sont objectivement établis.
-- Éviter les répétitions inutiles entre postes : si l’écart est négligeable (&lt;5%), le mentionner très brièvement.
+- Prioriser l'affirmation lorsque les constats sont objectivement établis.
+- Éviter les répétitions inutiles entre postes : si l'écart est négligeable (&lt; 5%), le mentionner très brièvement.
 - Aucun commentaire politique, conjoncturel ou recommandation.
 - Pas de jugement de gestion.
-- Vocabulaire strictement M14/M57, phrases concises et précises, sans effet de style ni jargon excessif.
+- Vocabulaire strictement M57, phrases concises et précises.
 INTERDICTIONS STRICTES :
-❌ Ne pas suggérer que la dette finance des charges de fonctionnement
-❌ Ne pas expliquer une CAF brute par la fiscalité seule (la CAF brute dépend aussi des charges)
-❌ Ne pas utiliser un ton alarmiste
-❌ Ne pas recommander d'action
-❌ Ne pas juger la gestion
-❌ Ne pas écrire "5-6 phrases" ou un nombre de phrases dans les titres
-❌ Ne pas utiliser de vocabulaire managérial ou stratégique (“pilotage”, “optimisation”, “levier d’action”)
+❌ Ne pas suggérer que la dette finance des charges de fonctionnement.
+❌ Ne pas expliquer une CAF brute par les recettes seules (la CAF brute résulte du solde produits réels – charges réelles, y compris charges financières).
+❌ Ne pas utiliser un ton alarmiste.
+❌ Ne pas qualifier de 'neutre' un poste dont l'écart avec la strate dépasse -50 % sans justification explicite.
+❌ Ne pas recommander d'action ni juger la gestion.
+❌ Ne pas parler de produits de capacité d’autofinancement mais de Recettes Réelles de Fonctionnement.
+❌ Ne pas écrire un nombre de phrases dans les titres de section.
+❌ Ne pas utiliser de vocabulaire managérial (« pilotage », « optimisation », « levier d'action », « marge de manœuvre », « marge de sécurité », « marge de manoeuvre »).
+❌ Ne pas extrapoler de tendance temporelle (« stabilité », « progression », « dégradation ») sans comparaison chiffrée avec l'exercice précédent.
+❌ Ne pas qualifier un investissement d'« autofinancé » sauf si le taux de couverture (CAF nette / dépenses d'équipement) est ≥ 100%.
+❌ Ne pas inventer de chiffres. S'appuyer exclusivement sur les données transmises. Si une donnée manque, ne pas l'évoquer.
+❌ Ne pas qualifier de 'neutre', 'favorable' ou 'compatible' un poste dont l'écart avec la strate dépasse -50% ou +80% sans justification explicite par un indicateur croisé.
+❌ Ne pas utiliser de formulations managériales conditionnelles du type 'sous réserve de la maîtrise de...', 'sous réserve d'un pilotage de...', 'à condition de maintenir...'. Se limiter au constat factuel.
+❌ Ne pas confondre le taux d'épargne brute (CAF brute / RRF) avec un ratio rapporté au résultat de fonctionnement. Le dénominateur du taux d'épargne brute est exclusivement les RRF.
+❌ Ne pas utiliser le mot "évolution" ni "variation". Utiliser exclusivement "niveau", "poids", "positionnement" ou "part".
 IMPORTANT :
 - Ne jamais inventer de chiffres
 - S’appuyer exclusivement sur les données transmises
@@ -631,12 +655,12 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>La section de fonctionnement de la commune d’Ambutrix présente un excédent de 128 k€, résultant de produits de fonctionnement de 559 k€ et de charges de 431 k€. La structure des produits est marquée par une part élevée des impôts locaux (56,5 %), supérieure à la strate, tandis que la dotation globale de fonctionnement représente une part moindre (5,4 %). Les charges de personnel constituent près de la moitié des charges de fonctionnement (48,7 %), légèrement au-dessus de la moyenne de la strate.
-La capacité d’autofinancement (CAF) brute s’établit à 139 k€, soit un taux de 25,8 %, supérieur au seuil prudentiel et à la moyenne de la strate. La CAF nette, après prise en compte des charges financières et des reprises sur amortissements, atteint 77 k€, correspondant à un taux de 14,3 %, également au-dessus du seuil de référence. Ces niveaux traduisent une capacité interne de financement positive et cohérente avec l’excédent de fonctionnement constaté.
-Les dépenses d’investissement s’élèvent à 298 k€, financées partiellement par l’autofinancement net. Le recours à l’emprunt s’élève à 63 k€, ce qui, en regard de la CAF nette, indique un autofinancement majoritaire des opérations d’équipement. Le taux de couverture de l’investissement par l’épargne brute est de 25,8 %, conforme à la capacité d’autofinancement dégagée.
-L’encours de dette atteint 912 k€, soit 1 168 €/hab., nettement supérieur à la moyenne de la strate. Toutefois, la capacité de désendettement est maîtrisée à 6,6 années, bien inférieure au seuil prudentiel de 12 ans, traduisant un endettement soutenable au regard des ressources d’autofinancement. Le fonds de roulement positif de 686 k€ assure une marge de sécurité financière et contribue à la stabilité des équilibres.
-L’articulation comptable entre fonctionnement, autofinancement, investissement et dette est cohérente. L’excédent de fonctionnement alimente la capacité d’autofinancement, qui finance majoritairement les dépenses d’équipement. Le recours modéré à l’emprunt complète ce financement sans compromettre la soutenabilité de la dette. Le fonds de roulement positif confirme la capacité de la collectivité à faire face à ses engagements à court terme.
-En conclusion, les équilibres financiers de la commune d’Ambutrix sont caractérisés par un fonctionnement excédentaire, une capacité d’autofinancement nette positive, un investissement financé principalement par l’épargne et un endettement maîtrisé, conformément aux exigences de la doctrine M14/M57.</t>
+          <t>Le résultat comptable de la commune de ROSOY présente un excédent de 171 k€. Ce résultat de fonctionnement, isolé des opérations d’investissement, traduit un équilibre entre des recettes réelles de fonctionnement (RRF) de 1 234 k€ et des dépenses réelles de fonctionnement (DRF) de 1 063 k€, soit un excédent de 171 k€. La part des impôts locaux dans les RRF est élevée (51,2 %), supérieure à la moyenne de la strate (42,5 %), tandis que la dotation globale de fonctionnement (DGF) est inférieure (12,7 % contre 17,2 %).
+La capacité d’autofinancement (CAF) brute s’établit à 172 k€, très proche du résultat de fonctionnement (écart &lt; 1 k€), ce qui indique que les charges d’ordre nettes sont négligeables. Cette situation interroge la politique d’amortissement de la collectivité. Le taux d’épargne brute, rapporté aux RRF, est de 13,9 %, inférieur au seuil de confort de la strate (19,8 %). La CAF nette s’élève à 79 k€, soit un taux d’épargne nette de 6,4 %, également inférieur à la moyenne de la strate (11,9 %).
+Les dépenses d’équipement sont limitées à 59 k€, soit 4,8 % des RRF, nettement inférieures à la moyenne de la strate (389 €/hab.). Le taux de couverture des dépenses d’équipement par la CAF nette est de 133,9 %, ce qui signifie que l’investissement est intégralement autofinancé. Aucun emprunt n’a été contracté sur l’exercice.
+L’encours de dette s’élève à 1 144 k€, soit 1 038 €/hab., nettement supérieur à la moyenne de la strate (560 €/hab.). La capacité de désendettement, calculée par le ratio encours/CAF brute, est de 6,7 années, positionnée en zone confortable, bien en deçà du seuil d’alerte fixé à 12 ans.
+Le fonds de roulement (FDR) est négatif à hauteur de 250 k€ (-227 €/hab.), alors que la moyenne de la strate est positive (557 €/hab.). Cette situation constitue un facteur défavorable, d’autant plus que l’encours de dette par habitant est élevé. Le FDR négatif pourrait limiter la capacité de la collectivité à absorber des besoins en fonds de roulement et expose à un risque de liquidité en cours d’exercice.
+En synthèse, la commune de ROSOY présente un résultat de fonctionnement excédentaire et une capacité d’autofinancement suffisante pour couvrir intégralement ses dépenses d’équipement sans recours à l’emprunt. La dette, bien que élevée par habitant, reste soutenable au regard de la capacité de désendettement. Toutefois, le fonds de roulement négatif constitue un point de vigilance quant à la sécurité du bilan et à la gestion de la trésorerie.</t>
         </is>
       </c>
     </row>
@@ -661,7 +685,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Les produits de fonctionnement représentent une ressource essentielle à la couverture des charges courantes de la commune.</t>
+          <t>Le total des produits de fonctionnement comprend toutes les recettes concernant le fonctionnement de la commune. Cela regroupe l’ensemble des opérations réelles et d’ordre, c’est-à-dire toutes les opérations qui entrainent ou pas des flux de trésorerie (encaissements ou non).</t>
         </is>
       </c>
       <c r="F3" t="n">
@@ -670,91 +694,110 @@
       <c r="G3" t="inlineStr">
         <is>
           <t xml:space="preserve">DONNÉES DU POSTE :
-- Montant : 1863 k€
-- Par habitant : 1778 €/hab.
+- Montant : 1234 k€
+- Par habitant : 1120 €/hab.
 - Moyenne de la strate : 944 €/hab.
-- Écart avec la strate (en €/hab) : +88.3%
+- Écart avec la strate (en €/hab) : +18.6%
 - Niveau : nettement supérieur à
 </t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Tu es un analyste financier de la DGFiP (M14/M57).
+          <t xml:space="preserve">Tu es un analyste financier de la DGFiP (M57).
 Tu produis une analyse équivalente à une note DDFIP ou à une analyse transmise au préfet.
 Tu n'es PAS un commentateur généraliste.
 Tu es soumis à une doctrine comptable STRICTE.
 Toute erreur conceptuelle invalide l'analyse.
 L'ESSENTIEL DU POSTE :
-Le total des produits de fonctionnement comprend l’ensemble des recettes réelles et d’ordre de la section de fonctionnement.
-Le calcul de la CAF repose uniquement sur les flux réels, indépendamment des écritures d’ordre, et constitue un indicateur de capacité d’autofinancement.
+Le total des produits de fonctionnement regroupe l'ensemble des ressources de la section, divisées en recettes réelles (fiscalité, dotations, ventes de services) et recettes d'ordre (neutralisations comptables).
+COMPOSITION DOCTRINALE :
+- Recettes réelles : Elles constituent le flux de trésorerie entrant et se décomposent en trois grands blocs : la fiscalité (impôts locaux), les dotations de l'État (DGF) et les produits des services (cantines, parkings, etc.).
+- Recettes d'ordre : Elles incluent notamment les 'travaux en régie', qui correspondent à la valorisation du travail des services techniques communaux pour des chantiers d'investissement.
+LOGIQUE D'ANALYSE :
+Le calcul de la capacité d'autofinancement (CAF) repose exclusivement sur les produits réels de fonctionnement. L'analyse doit isoler la part des recettes 'volatiles' (redevances) des recettes 'garanties' (dotations et fiscalité) pour évaluer la sécurité financière de la collectivité.
 DONNÉES À ANALYSER :
 DONNÉES DU POSTE :
-- Montant : 1863 k€
-- Par habitant : 1778 €/hab.
+- Montant : 1234 k€
+- Par habitant : 1120 €/hab.
 - Moyenne de la strate : 944 €/hab.
-- Écart avec la strate (en €/hab) : +88.3%
+- Écart avec la strate (en €/hab) : +18.6%
 - Niveau : nettement supérieur à
 CONTEXTE FINANCIER GLOBAL DE LA COMMUNE :
-Commune: CHAMPAGNAC
+Commune: ROSOY
 Exercice: 2024
-Population: 1048 habitants
+Population: 1102 habitants
 Strate démographique: 500 à 2000 habitants
 ÉQUILIBRES FINANCIERS:
-- Résultat de fonctionnement: 456 k€
-- CAF brute: 479 k€
-- CAF nette: 296 k€
-- Encours de dette: 1074 k€
-- Dépenses d'équipement: 662 k€
-- Fonds de roulement: 274 k€ (positif)
+- Résultat de fonctionnement: 171 k€
+- CAF brute: 172 k€
+- CAF nette: 79 k€
+- Encours de dette: 1144 k€
+- Dépenses d'équipement: 59 k€
+- Fonds de roulement: 250 k€ (négatif)
 RATIOS CLÉS:
-- Taux d'épargne brute: 28.1%
-- Part des charges de personnel: 45.1%
-- Capacité de désendettement: 2.2 années
-- Seuil prudentiel de capacité de désendettement: 12 ans
+- Taux d'épargne brute (CAF brute / RRF): 13.9% (seuil de confort: &gt; 15% ; seuil d'alerte usuel: &lt; 8%)
+- Part des charges de personnel dans les DRF: 46.1%
+- Capacité de désendettement (encours / CAF brute): 6.7 années (alerte: &gt; 12 ans ; zone critique: &gt; 15 ans)
    CONSIGNES D'ANALYSE :
-Rédige une note d'analyse financière experte, synthétique et doctrinalement conforme M14/M57.
+Rédige une note d'analyse financière experte, synthétique et doctrinalement conforme M57.
 Adopte le ton d'un analyste DGFiP : factuel, hiérarchisé, sans effet de style, sans commentaire politique.
 Structure impérative :
-1. POSITIONNEMENT ET POIDS DU POSTE (TEXTE FOURNI - NE PAS GÉNÉRER) :
-   Le texte suivant a déjà été rédigé pour cette section :
-   "Les produits de fonctionnement représentent une ressource essentielle à la couverture des charges courantes de la commune."
-   ⚠️ NE PAS GÉNÉRER DE TEXTE POUR CETTE SECTION - Elle est déjà fournie.
-   ⚠️ PRENDRE EN COMPTE ce contexte pour rédiger les sections suivantes.
+1. POSITIONNEMENT ET POIDS DU POSTE en une phrase :
+   PHRASE D'INSPIRATION (à utiliser comme guide pour la rédaction) :
+   "Le total des produits de fonctionnement comprend toutes les recettes concernant le fonctionnement de la commune. Cela regroupe l’ensemble des opérations réelles et d’ordre, c’est-à-dire toutes les opérations qui entrainent ou pas des flux de trésorerie (encaissements ou non)."
+   → S'inspirer de cette phrase tout en l'adaptant au contexte financier.
+   → Conserver le ton institutionnel et factuel.
 2. ANALYSE COMPARATIVE ET DIAGNOSTIC DES ÉCARTS (1 phrase + possibilité d'une 2e phrase factuelle)
    - Citer obligatoirement : montant en k€, valeur en €/habitant et écart en % par rapport à la strate
-     (utiliser strictement l’écart fourni, sans recalcul).
-   - Qualifier l’écart avec un vocabulaire varié et institutionnel
+     (utiliser strictement l'écart fourni, sans recalcul).
+   - Qualifier l'écart avec un vocabulaire varié et institutionnel
      (niveau supérieur / inférieur à la strate, écart significatif, positionnement atypique, alignement).
-   - Ajouter, le cas échéant, une phrase factuelle de mise en perspective sur l’impact du poste dans la structure ou stratégie financière de la collectivité
-     (par ex. contribution au financement des investissements, dépendance limitée aux ressources externes, levier d’autofinancement).
-   - Adapter le degré de prudence à l’ampleur de l’écart :
-     • écart faible → constat affirmé
-     • écart marqué → prudence analytique possible
-   - Ne jamais invoquer de causes politiques ou conjoncturelles non observables.
-3. CONTRIBUTION À L'ÉQUILIBRE GLOBAL (Angle spécifique) en une ou deux phrases : 
-   - Mettre en évidence la contribution de ce poste à l'équilibre budgétaire général. mais ne pas donner de chiffres supplémentaires.
+   - Ajouter, le cas échéant, une phrase factuelle de mise en perspective sur l'impact du poste
+     dans la structure financière de la collectivité
+     (par ex. contribution à la formation de l'épargne, poids dans les recettes réelles, incidence sur la solvabilité).
+   - Adapter le degré de prudence à l'ampleur de l'écart :
+     • écart faible (&lt; 10%) → constat affirmé
+     • écart marqué (&gt; 20%) → prudence analytique, conditionnel admis
+   - Ne jamais invoquer de causes politiques ou conjoncturelles non observables dans les données.
+3. CONTRIBUTION À L'ÉQUILIBRE GLOBAL (Angle spécifique) en une ou deux phrases :
+   - Situer la contribution de ce poste à l'équilibre budgétaire de l'exercice.
+   - Ne pas introduire de chiffres supplémentaires non fournis dans les données.
    - Indiquer clairement si le poste constitue :
-     • un levier,
-     • une contrainte,
+     • un facteur favorable à l'équilibre,
+     • une contrainte sur l'équilibre,
+     • un point de vigilance (si les signaux sont mixtes),
      • ou un élément neutre.
-   - REMARQUE : Si le poste représente moins de 5% du budget total, limiter l’analyse à une phrase factuelle.
+   - La qualification de la section 3 DOIT ÊTRE COHÉRENTE avec le diagnostic de la section 2.
+     Un poste dont l'écart avec la strate est défavorable ne peut pas être qualifié de "facteur favorable"
+     sans explication explicite.
+   - REMARQUE : Si le poste représente moins de 5% du budget total, limiter l'analyse à une phrase factuelle.
+   INTERDICTION : Ne pas qualifier l'évolution temporelle (stable, en hausse, en baisse) sans données de l'exercice précédent.   
+   INTERDICTION d'utiliser des pronoms démonstratifs en début de phrase ("Ce poste", "Cette évolution").
 STYLE ET RIGUEUR :
-- Ton neutre, institutionnel, factuel et analytique ("technocratique" au sens noble : précis et rigoureux).
+- Ton neutre, institutionnel, factuel et analytique.
 - Utiliser le conditionnel uniquement pour toute interprétation non explicitement portée par les chiffres.
-- Prioriser l’affirmation lorsque les constats sont objectivement établis.
-- Éviter les répétitions inutiles entre postes : si l’écart est négligeable (&lt;5%), le mentionner très brièvement.
+- Prioriser l'affirmation lorsque les constats sont objectivement établis.
+- Éviter les répétitions inutiles entre postes : si l'écart est négligeable (&lt; 5%), le mentionner très brièvement.
 - Aucun commentaire politique, conjoncturel ou recommandation.
 - Pas de jugement de gestion.
-- Vocabulaire strictement M14/M57, phrases concises et précises, sans effet de style ni jargon excessif.
+- Vocabulaire strictement M57, phrases concises et précises.
 INTERDICTIONS STRICTES :
-❌ Ne pas suggérer que la dette finance des charges de fonctionnement
-❌ Ne pas expliquer une CAF brute par la fiscalité seule (la CAF brute dépend aussi des charges)
-❌ Ne pas utiliser un ton alarmiste
-❌ Ne pas recommander d'action
-❌ Ne pas juger la gestion
-❌ Ne pas écrire "5-6 phrases" ou un nombre de phrases dans les titres
-❌ Ne pas utiliser de vocabulaire managérial ou stratégique (“pilotage”, “optimisation”, “levier d’action”)
+❌ Ne pas suggérer que la dette finance des charges de fonctionnement.
+❌ Ne pas expliquer une CAF brute par les recettes seules (la CAF brute résulte du solde produits réels – charges réelles, y compris charges financières).
+❌ Ne pas utiliser un ton alarmiste.
+❌ Ne pas qualifier de 'neutre' un poste dont l'écart avec la strate dépasse -50 % sans justification explicite.
+❌ Ne pas recommander d'action ni juger la gestion.
+❌ Ne pas parler de produits de capacité d’autofinancement mais de Recettes Réelles de Fonctionnement.
+❌ Ne pas écrire un nombre de phrases dans les titres de section.
+❌ Ne pas utiliser de vocabulaire managérial (« pilotage », « optimisation », « levier d'action », « marge de manœuvre », « marge de sécurité », « marge de manoeuvre »).
+❌ Ne pas extrapoler de tendance temporelle (« stabilité », « progression », « dégradation ») sans comparaison chiffrée avec l'exercice précédent.
+❌ Ne pas qualifier un investissement d'« autofinancé » sauf si le taux de couverture (CAF nette / dépenses d'équipement) est ≥ 100%.
+❌ Ne pas inventer de chiffres. S'appuyer exclusivement sur les données transmises. Si une donnée manque, ne pas l'évoquer.
+❌ Ne pas qualifier de 'neutre', 'favorable' ou 'compatible' un poste dont l'écart avec la strate dépasse -50% ou +80% sans justification explicite par un indicateur croisé.
+❌ Ne pas utiliser de formulations managériales conditionnelles du type 'sous réserve de la maîtrise de...', 'sous réserve d'un pilotage de...', 'à condition de maintenir...'. Se limiter au constat factuel.
+❌ Ne pas confondre le taux d'épargne brute (CAF brute / RRF) avec un ratio rapporté au résultat de fonctionnement. Le dénominateur du taux d'épargne brute est exclusivement les RRF.
+❌ Ne pas utiliser le mot "évolution" ni "variation". Utiliser exclusivement "niveau", "poids", "positionnement" ou "part".
 IMPORTANT :
 - Ne jamais inventer de chiffres
 - S’appuyer exclusivement sur les données transmises
@@ -764,12 +807,12 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>1. POSITIONNEMENT ET POIDS DU POSTE  
-Le poste des produits de fonctionnement, avec un montant de 559 k€, constitue un poste majeur des recettes réelles de la section de fonctionnement de la commune.
-2. ANALYSE COMPARATIVE ET DIAGNOSTIC DES ÉCARTS  
-Le total des produits de fonctionnement s’établit à 559 k€, soit 716 €/habitant, ce qui représente un niveau nettement inférieur de 24,2 % à la moyenne de la strate (944 €/habitant). Cet écart significatif traduit un positionnement en deçà des communes comparables, ce qui peut limiter la capacité d’autofinancement intrinsèque de la collectivité.
-3. CONTRIBUTION À L'ÉQUILIBRE GLOBAL  
-Ce poste constitue un levier essentiel à l’équilibre budgétaire de la commune, en contribuant directement à la formation de la capacité d’autofinancement, élément clé du financement des dépenses d’investissement.</t>
+          <t>1. POSITIONNEMENT ET POIDS DU POSTE
+Le total des produits de fonctionnement regroupe l’ensemble des recettes de la section de fonctionnement, incluant les recettes réelles génératrices de flux de trésorerie (fiscalité, dotations, produits des services) ainsi que les recettes d’ordre, qui correspondent à des opérations comptables sans impact direct sur la trésorerie.
+2. ANALYSE COMPARATIVE ET DIAGNOSTIC DES ÉCARTS
+Le total des produits de fonctionnement s’établit à 1 234 k€, soit 1 120 €/habitant, ce qui représente un niveau supérieur de 18,6 % à la moyenne de la strate (944 €/habitant). Ce positionnement se traduit par un écart significatif, indiquant une capacité de mobilisation des ressources de fonctionnement plus élevée que la moyenne des communes de taille comparable.
+3. CONTRIBUTION À L’ÉQUILIBRE GLOBAL
+Le niveau élevé des produits de fonctionnement constitue un facteur favorable à l’équilibre budgétaire de l’exercice, en contribuant à la formation d’une capacité d’autofinancement brute positive (172 k€) et à un résultat de fonctionnement excédentaire (171 k€).</t>
         </is>
       </c>
     </row>
@@ -792,112 +835,136 @@
           <t>Impots_locaux</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr"/>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Les impots locaux constituent un poste de recettes important. On y trouve, principalement, les produits issus de la fiscalité directe locale.</t>
+        </is>
+      </c>
       <c r="F4" t="n">
         <v>0.3</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
           <t xml:space="preserve">DONNÉES DU POSTE :
-- Montant : 551 k€
-- Par habitant : 525 €/hab.
+- Montant : 632 k€
+- Par habitant : 573 €/hab.
 - Moyenne de la strate : 391 €/hab.
-- Part dans les produits CAF : 32.3% (commune) vs 42.5% (strate) [écart : -10.2 pts]
-- Écart avec la strate (en €/hab) : +34.3%
+- Part dans les RRF : 51.2% (commune) vs 42.5% (strate) [écart : +8.6 pts]
+- Écart avec la strate (en €/hab) : +46.5%
 - Niveau : nettement supérieur à
 DÉTAIL DE LA FISCALITÉ :
-- Taxe Habitation : Taux voté 27.26% (strate: 14.13%), produit 84 k€
-- Taxe Fonciere Bati : Taux voté 45.91% (strate: 35.43%), produit 436 k€
-- Taxe Fonciere Non Bati : Taux voté 111.43% (strate: 43.97%), produit 30 k€
+- Taxe Habitation : Taux voté 23.38% (strate: 14.13%), produit 28 k€
+- Taxe Fonciere Bati : Taux voté 48.14% (strate: 35.43%), produit 671 k€
+- Taxe Fonciere Non Bati : Taux voté 48.43% (strate: 43.97%), produit 12 k€
 </t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Tu es un analyste financier de la DGFiP (M14/M57).
+          <t xml:space="preserve">Tu es un analyste financier de la DGFiP (M57).
 Tu produis une analyse équivalente à une note DDFIP ou à une analyse transmise au préfet.
 Tu n'es PAS un commentateur généraliste.
 Tu es soumis à une doctrine comptable STRICTE.
 Toute erreur conceptuelle invalide l'analyse.
 L'ESSENTIEL DU POSTE :
-Les impôts locaux constituent généralement un poste structurant des recettes réelles de fonctionnement.
-Ils regroupent principalement les produits issus de la fiscalité directe locale et économique (TH résiduelle, TFB, TFNB, CFE, CVAE, IFER, TASCOM), y compris les mécanismes de compensation et de neutralisation tels que le FNGIR, nets des reversements.
-Les bases prévisionnelles d’imposition sont notifiées chaque année par les services de la Direction Générale des Finances Publiques (DGFIP), généralement au cours du premier trimestre.
-Les collectivités votent ensuite les taux applicables à ces bases, déterminant ainsi le produit fiscal attendu.
-Depuis 2021, les bases de taxe d’habitation ne concernent plus que les résidences secondaires et les locaux vacants, la taxe d’habitation sur les résidences principales ayant été supprimée.
+Les impôts locaux constituent le principal levier d'autonomie financière de la collectivité et son poste de recettes le plus structurant.
+Ils regroupent :
+- La fiscalité directe : Taxe Foncière sur les Propriétés Bâties (TFB), Taxe Foncière sur les Propriétés Non Bâties (TFNB) et Taxe d'Habitation sur les Résidences Secondaires et locaux vacants (THRS). Note : la TH sur les résidences principales est supprimée depuis 2021.
+- La fiscalité économique : Cotisation Foncière des Entreprises (CFE), IFER et TASCOM. (Note doctrinale : Les collectivités ne perçoivent plus la CVAE depuis 2023 (LFI 2023, art. 55). L'intégralité du produit est désormais affectée à l'État. En compensation, les communes, EPCI et départements reçoivent une fraction de TVA, composée d'une part fixe (moyenne des recettes de CVAE 2020-2023) et d'une part dynamique affectée au FNAET. La suppression définitive de la CVAE côté entreprises, initialement prévue pour 2024, a été reportée à 2030 par la LFI 2025).
+- Les mécanismes de lissage : Le FNGIR (prélèvement ou reversement fixe) et les dotations de compensation fiscale nettes des reversements.
+LOGIQUE DE FORMATION DU PRODUIT :
+Le produit fiscal dépend de deux variables que l'analyse doit distinguer :
+1. L'effet 'Base' : La valeur locative cadastrale (VLC) constitue l'assiette. Elle est revalorisée chaque année par la Loi de Finances selon l'inflation (ex: +7,1% en 2023) et par l'évolution physique du territoire (constructions nouvelles).
+2. L'effet 'Taux' : Seul levier décisionnel de la collectivité. Les taux sont votés annuellement par le conseil municipal sur la base des notifications de la DGFIP (État).
 NOTION CLÉ – Valeur locative cadastrale (VLC) :
-La valeur locative cadastrale constitue l’assiette des principaux impôts locaux.
-Elle correspond au loyer annuel théorique d’un bien immobilier, déterminé à partir de références de marché anciennes (1970 pour le bâti, 1961 pour le non bâti), et revalorisé annuellement selon des coefficients légaux.
+Elle correspond au loyer annuel théorique d'un bien immobilier (références 1970 pour le bâti, 1961 pour le non bâti). Une augmentation du produit fiscal n'indique pas nécessairement une hausse de la pression fiscale décidée par la commune, mais peut résulter de la seule revalorisation forfaitaire nationale.
 DONNÉES À ANALYSER :
 DONNÉES DU POSTE :
-- Montant : 551 k€
-- Par habitant : 525 €/hab.
+- Montant : 632 k€
+- Par habitant : 573 €/hab.
 - Moyenne de la strate : 391 €/hab.
-- Part dans les produits CAF : 32.3% (commune) vs 42.5% (strate) [écart : -10.2 pts]
-- Écart avec la strate (en €/hab) : +34.3%
+- Part dans les RRF : 51.2% (commune) vs 42.5% (strate) [écart : +8.6 pts]
+- Écart avec la strate (en €/hab) : +46.5%
 - Niveau : nettement supérieur à
 DÉTAIL DE LA FISCALITÉ :
-- Taxe Habitation : Taux voté 27.26% (strate: 14.13%), produit 84 k€
-- Taxe Fonciere Bati : Taux voté 45.91% (strate: 35.43%), produit 436 k€
-- Taxe Fonciere Non Bati : Taux voté 111.43% (strate: 43.97%), produit 30 k€
+- Taxe Habitation : Taux voté 23.38% (strate: 14.13%), produit 28 k€
+- Taxe Fonciere Bati : Taux voté 48.14% (strate: 35.43%), produit 671 k€
+- Taxe Fonciere Non Bati : Taux voté 48.43% (strate: 43.97%), produit 12 k€
 CONTEXTE FINANCIER GLOBAL DE LA COMMUNE :
-Commune: CHAMPAGNAC
+Commune: ROSOY
 Exercice: 2024
-Population: 1048 habitants
+Population: 1102 habitants
 Strate démographique: 500 à 2000 habitants
 ÉQUILIBRES FINANCIERS:
-- Résultat de fonctionnement: 456 k€
-- CAF brute: 479 k€
-- CAF nette: 296 k€
-- Encours de dette: 1074 k€
-- Dépenses d'équipement: 662 k€
-- Fonds de roulement: 274 k€ (positif)
+- Résultat de fonctionnement: 171 k€
+- CAF brute: 172 k€
+- CAF nette: 79 k€
+- Encours de dette: 1144 k€
+- Dépenses d'équipement: 59 k€
+- Fonds de roulement: 250 k€ (négatif)
 RATIOS CLÉS:
-- Taux d'épargne brute: 28.1%
-- Part des charges de personnel: 45.1%
-- Capacité de désendettement: 2.2 années
-- Seuil prudentiel de capacité de désendettement: 12 ans
+- Taux d'épargne brute (CAF brute / RRF): 13.9% (seuil de confort: &gt; 15% ; seuil d'alerte usuel: &lt; 8%)
+- Part des charges de personnel dans les DRF: 46.1%
+- Capacité de désendettement (encours / CAF brute): 6.7 années (alerte: &gt; 12 ans ; zone critique: &gt; 15 ans)
    CONSIGNES D'ANALYSE :
-Rédige une note d'analyse financière experte, synthétique et doctrinalement conforme M14/M57.
+Rédige une note d'analyse financière experte, synthétique et doctrinalement conforme M57.
 Adopte le ton d'un analyste DGFiP : factuel, hiérarchisé, sans effet de style, sans commentaire politique.
 Structure impérative :
 1. POSITIONNEMENT ET POIDS DU POSTE en une phrase :
-   - Situer le poste dans la structure budgétaire de la commune
-     (poste majeur, poste secondaire, levier de financement, charge rigide, etc.).
+   PHRASE D'INSPIRATION (à utiliser comme guide pour la rédaction) :
+   "Les impots locaux constituent un poste de recettes important. On y trouve, principalement, les produits issus de la fiscalité directe locale."
+   → S'inspirer de cette phrase tout en l'adaptant au contexte financier.
+   → Conserver le ton institutionnel et factuel.
 2. ANALYSE COMPARATIVE ET DIAGNOSTIC DES ÉCARTS (1 phrase + possibilité d'une 2e phrase factuelle)
    - Citer obligatoirement : montant en k€, valeur en €/habitant et écart en % par rapport à la strate
-     (utiliser strictement l’écart fourni, sans recalcul).
-   - Qualifier l’écart avec un vocabulaire varié et institutionnel
+     (utiliser strictement l'écart fourni, sans recalcul).
+   - Qualifier l'écart avec un vocabulaire varié et institutionnel
      (niveau supérieur / inférieur à la strate, écart significatif, positionnement atypique, alignement).
-   - Ajouter, le cas échéant, une phrase factuelle de mise en perspective sur l’impact du poste dans la structure ou stratégie financière de la collectivité
-     (par ex. contribution au financement des investissements, dépendance limitée aux ressources externes, levier d’autofinancement).
-   - Adapter le degré de prudence à l’ampleur de l’écart :
-     • écart faible → constat affirmé
-     • écart marqué → prudence analytique possible
-   - Ne jamais invoquer de causes politiques ou conjoncturelles non observables.
-3. CONTRIBUTION À L'ÉQUILIBRE GLOBAL (Angle spécifique) en une ou deux phrases : 
-   - Mettre en évidence le niveau des impôts locaux par rapport à la strate. mais ne pas donner de chiffres supplémentaires.
+   - Ajouter, le cas échéant, une phrase factuelle de mise en perspective sur l'impact du poste
+     dans la structure financière de la collectivité
+     (par ex. contribution à la formation de l'épargne, poids dans les recettes réelles, incidence sur la solvabilité).
+   - Adapter le degré de prudence à l'ampleur de l'écart :
+     • écart faible (&lt; 10%) → constat affirmé
+     • écart marqué (&gt; 20%) → prudence analytique, conditionnel admis
+   - Ne jamais invoquer de causes politiques ou conjoncturelles non observables dans les données.
+3. CONTRIBUTION À L'ÉQUILIBRE GLOBAL (Angle spécifique) en une ou deux phrases :
+   - Situer le niveau des taux d'imposition communaux au regard de la moyenne de la strate.
+   - Ne pas introduire de chiffres supplémentaires non fournis dans les données.
    - Indiquer clairement si le poste constitue :
-     • un levier,
-     • une contrainte,
+     • un facteur favorable à l'équilibre,
+     • une contrainte sur l'équilibre,
+     • un point de vigilance (si les signaux sont mixtes),
      • ou un élément neutre.
-   - REMARQUE : Si le poste représente moins de 5% du budget total, limiter l’analyse à une phrase factuelle.
+   - La qualification de la section 3 DOIT ÊTRE COHÉRENTE avec le diagnostic de la section 2.
+     Un poste dont l'écart avec la strate est défavorable ne peut pas être qualifié de "facteur favorable"
+     sans explication explicite.
+   - REMARQUE : Si le poste représente moins de 5% du budget total, limiter l'analyse à une phrase factuelle.
+   INTERDICTION : Ne pas qualifier l'évolution temporelle (stable, en hausse, en baisse) sans données de l'exercice précédent.   
+   INTERDICTION d'utiliser des pronoms démonstratifs en début de phrase ("Ce poste", "Cette évolution").
 STYLE ET RIGUEUR :
-- Ton neutre, institutionnel, factuel et analytique ("technocratique" au sens noble : précis et rigoureux).
+- Ton neutre, institutionnel, factuel et analytique.
 - Utiliser le conditionnel uniquement pour toute interprétation non explicitement portée par les chiffres.
-- Prioriser l’affirmation lorsque les constats sont objectivement établis.
-- Éviter les répétitions inutiles entre postes : si l’écart est négligeable (&lt;5%), le mentionner très brièvement.
+- Prioriser l'affirmation lorsque les constats sont objectivement établis.
+- Éviter les répétitions inutiles entre postes : si l'écart est négligeable (&lt; 5%), le mentionner très brièvement.
 - Aucun commentaire politique, conjoncturel ou recommandation.
 - Pas de jugement de gestion.
-- Vocabulaire strictement M14/M57, phrases concises et précises, sans effet de style ni jargon excessif.
+- Vocabulaire strictement M57, phrases concises et précises.
 INTERDICTIONS STRICTES :
-❌ Ne pas suggérer que la dette finance des charges de fonctionnement
-❌ Ne pas expliquer une CAF brute par la fiscalité seule (la CAF brute dépend aussi des charges)
-❌ Ne pas utiliser un ton alarmiste
-❌ Ne pas recommander d'action
-❌ Ne pas juger la gestion
-❌ Ne pas écrire "5-6 phrases" ou un nombre de phrases dans les titres
-❌ Ne pas utiliser de vocabulaire managérial ou stratégique (“pilotage”, “optimisation”, “levier d’action”)
+❌ Ne pas suggérer que la dette finance des charges de fonctionnement.
+❌ Ne pas expliquer une CAF brute par les recettes seules (la CAF brute résulte du solde produits réels – charges réelles, y compris charges financières).
+❌ Ne pas utiliser un ton alarmiste.
+❌ Ne pas qualifier de 'neutre' un poste dont l'écart avec la strate dépasse -50 % sans justification explicite.
+❌ Ne pas recommander d'action ni juger la gestion.
+❌ Ne pas parler de produits de capacité d’autofinancement mais de Recettes Réelles de Fonctionnement.
+❌ Ne pas écrire un nombre de phrases dans les titres de section.
+❌ Ne pas utiliser de vocabulaire managérial (« pilotage », « optimisation », « levier d'action », « marge de manœuvre », « marge de sécurité », « marge de manoeuvre »).
+❌ Ne pas extrapoler de tendance temporelle (« stabilité », « progression », « dégradation ») sans comparaison chiffrée avec l'exercice précédent.
+❌ Ne pas qualifier un investissement d'« autofinancé » sauf si le taux de couverture (CAF nette / dépenses d'équipement) est ≥ 100%.
+❌ Ne pas inventer de chiffres. S'appuyer exclusivement sur les données transmises. Si une donnée manque, ne pas l'évoquer.
+❌ Ne pas qualifier de 'neutre', 'favorable' ou 'compatible' un poste dont l'écart avec la strate dépasse -50% ou +80% sans justification explicite par un indicateur croisé.
+❌ Ne pas utiliser de formulations managériales conditionnelles du type 'sous réserve de la maîtrise de...', 'sous réserve d'un pilotage de...', 'à condition de maintenir...'. Se limiter au constat factuel.
+❌ Ne pas confondre le taux d'épargne brute (CAF brute / RRF) avec un ratio rapporté au résultat de fonctionnement. Le dénominateur du taux d'épargne brute est exclusivement les RRF.
+❌ Ne pas utiliser le mot "évolution" ni "variation". Utiliser exclusivement "niveau", "poids", "positionnement" ou "part".
 IMPORTANT :
 - Ne jamais inventer de chiffres
 - S’appuyer exclusivement sur les données transmises
@@ -907,12 +974,13 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>1. POSITIONNEMENT ET POIDS DU POSTE  
-Les impôts locaux constituent un poste majeur des recettes réelles de fonctionnement de la commune, représentant plus de la moitié des produits de fonctionnement.
-2. ANALYSE COMPARATIVE ET DIAGNOSTIC DES ÉCARTS  
-Le produit des impôts locaux s’élève à 304 k€, soit 390 €/habitant, en alignement avec la moyenne de la strate (391 €/hab., écart de -0,3%). La part des impôts locaux dans les produits de fonctionnement est significativement supérieure à celle de la strate (56,5% contre 42,5%, soit un écart de +14 points). Cette surreprésentation traduit une dépendance plus marquée aux ressources fiscales locales dans la structure des recettes. Le taux de taxe foncière non bâtie, à 72,11%, est notablement supérieur à celui de la strate (43,97%), tandis que les taux de taxe d’habitation et de taxe foncière bâtie sont inférieurs.
-3. CONTRIBUTION À L'ÉQUILIBRE GLOBAL  
-Le niveau global des impôts locaux est conforme à la strate, ce qui confère au poste un rôle neutre dans l’équilibre financier de la commune.</t>
+          <t>**Note d’analyse financière – Impôts locaux – Commune de ROSOY – Exercice 2024**
+1. **Positionnement et poids du poste**  
+Les impôts locaux constituent un poste de recettes structurant pour la commune, principalement composé des produits issus de la fiscalité directe locale, qui représentent plus de la moitié des recettes réelles de fonctionnement.
+2. **Analyse comparative et diagnostic des écarts**  
+Le montant des impôts locaux s’élève à 632 k€, soit 573 €/habitant, ce qui représente un écart significatif de +46,5 % par rapport à la moyenne de la strate (391 €/hab.). Ce positionnement traduit un niveau nettement supérieur à celui des communes comparables. La part des impôts locaux dans les recettes réelles de fonctionnement atteint 51,2 %, soit un écart de +8,6 points par rapport à la strate (42,5 %), ce qui souligne un poids plus marqué de ce poste dans la structure financière communale.
+3. **Contribution à l’équilibre global**  
+Les taux d’imposition communaux sont supérieurs à la moyenne de la strate, avec notamment un taux de taxe foncière sur les propriétés bâties à 48,14 % contre 35,43 % en moyenne, et un taux de taxe d’habitation sur résidences secondaires à 23,38 % contre 14,13 %. Ce niveau de taux élevé constitue une contrainte sur l’équilibre financier de la commune, en cohérence avec le positionnement supérieur du produit fiscal local.</t>
         </is>
       </c>
     </row>
@@ -935,102 +1003,126 @@
           <t>DGF</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr"/>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>La dotation globale de fonctionnement (DGF) constitue le concours financier principal de l’Etat aux collectivités locales.</t>
+        </is>
+      </c>
       <c r="F5" t="n">
         <v>0.3</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
           <t xml:space="preserve">DONNÉES DU POSTE :
-- Montant : 474 k€
-- Par habitant : 452 €/hab.
+- Montant : 157 k€
+- Par habitant : 142 €/hab.
 - Moyenne de la strate : 158 €/hab.
-- Part dans les produits CAF : 27.8% (commune) vs 17.2% (strate) [écart : +10.6 pts]
-- Écart avec la strate (en €/hab) : +186.1%
-- Niveau : nettement supérieur à
+- Part dans les RRF : 12.7% (commune) vs 17.2% (strate) [écart : -4.5 pts]
+- Écart avec la strate (en €/hab) : -10.1%
+- Niveau : inférieur à
 </t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Tu es un analyste financier de la DGFiP (M14/M57).
+          <t xml:space="preserve">Tu es un analyste financier de la DGFiP (M57).
 Tu produis une analyse équivalente à une note DDFIP ou à une analyse transmise au préfet.
 Tu n'es PAS un commentateur généraliste.
 Tu es soumis à une doctrine comptable STRICTE.
 Toute erreur conceptuelle invalide l'analyse.
 L'ESSENTIEL DU POSTE :
-La dotation globale de fonctionnement (DGF) constitue l’un des principaux concours financiers de l'État aux collectivités locales.
-La DGF comprend :
-- La dotation forfaitaire des communes qui est essentiellement basée sur les critères de la population et de la superficie ;
-- Les dotations de péréquation communale, destinées à corriger les inégalités de ressources entre collectivités, parmi lesquelles :
-  • La dotation de solidarité rurale (DSR), attribuée sous conditions d’éligibilité à certaines communes rurales selon plusieurs fractions et critères réglementaires ;
-  • La dotation nationale de péréquation (DNP), visant à réduire les écarts de potentiel fiscal et financier entre communes.
+La dotation globale de fonctionnement (DGF) est le principal concours financier de l'État. C'est une recette de fonctionnement libre d'emploi (non affectée).
+COMPOSITION DOCTRINALE :
+- La Dotation forfaitaire : part historique liée à la population et à la superficie.
+- Les Dotations de péréquation : visant à corriger les disparités de ressources. Elles incluent :
+  • La DSR (Solidarité Rurale) pour les communes rurales éligibles.
+  • La DSU (Solidarité Urbaine) pour les communes urbaines.
+  • La DNP (Dotation Nationale de Péréquation) pour compenser les écarts de potentiel fiscal.
+LOGIQUE D'ANALYSE :
+La DGF est inversement proportionnelle à la richesse de la collectivité (mesurée par le potentiel financier). Une baisse de la dotation forfaitaire peut traduire une augmentation du potentiel fiscal de la commune (phénomène d'écrêtement de la dotation forfaitaire). Cette baisse peut toutefois être compensée par une hausse des dotations de péréquation (DSR, DSU, DNP) si la commune reste éligible, de sorte que l'évolution de la DGF globale doit s'analyser composante par composante.
 DONNÉES À ANALYSER :
 DONNÉES DU POSTE :
-- Montant : 474 k€
-- Par habitant : 452 €/hab.
+- Montant : 157 k€
+- Par habitant : 142 €/hab.
 - Moyenne de la strate : 158 €/hab.
-- Part dans les produits CAF : 27.8% (commune) vs 17.2% (strate) [écart : +10.6 pts]
-- Écart avec la strate (en €/hab) : +186.1%
-- Niveau : nettement supérieur à
+- Part dans les RRF : 12.7% (commune) vs 17.2% (strate) [écart : -4.5 pts]
+- Écart avec la strate (en €/hab) : -10.1%
+- Niveau : inférieur à
 CONTEXTE FINANCIER GLOBAL DE LA COMMUNE :
-Commune: CHAMPAGNAC
+Commune: ROSOY
 Exercice: 2024
-Population: 1048 habitants
+Population: 1102 habitants
 Strate démographique: 500 à 2000 habitants
 ÉQUILIBRES FINANCIERS:
-- Résultat de fonctionnement: 456 k€
-- CAF brute: 479 k€
-- CAF nette: 296 k€
-- Encours de dette: 1074 k€
-- Dépenses d'équipement: 662 k€
-- Fonds de roulement: 274 k€ (positif)
+- Résultat de fonctionnement: 171 k€
+- CAF brute: 172 k€
+- CAF nette: 79 k€
+- Encours de dette: 1144 k€
+- Dépenses d'équipement: 59 k€
+- Fonds de roulement: 250 k€ (négatif)
 RATIOS CLÉS:
-- Taux d'épargne brute: 28.1%
-- Part des charges de personnel: 45.1%
-- Capacité de désendettement: 2.2 années
-- Seuil prudentiel de capacité de désendettement: 12 ans
+- Taux d'épargne brute (CAF brute / RRF): 13.9% (seuil de confort: &gt; 15% ; seuil d'alerte usuel: &lt; 8%)
+- Part des charges de personnel dans les DRF: 46.1%
+- Capacité de désendettement (encours / CAF brute): 6.7 années (alerte: &gt; 12 ans ; zone critique: &gt; 15 ans)
    CONSIGNES D'ANALYSE :
-Rédige une note d'analyse financière experte, synthétique et doctrinalement conforme M14/M57.
+Rédige une note d'analyse financière experte, synthétique et doctrinalement conforme M57.
 Adopte le ton d'un analyste DGFiP : factuel, hiérarchisé, sans effet de style, sans commentaire politique.
 Structure impérative :
 1. POSITIONNEMENT ET POIDS DU POSTE en une phrase :
-   - Situer le poste dans la structure budgétaire de la commune
-     (poste majeur, poste secondaire, levier de financement, charge rigide, etc.).
+   PHRASE D'INSPIRATION (à utiliser comme guide pour la rédaction) :
+   "La dotation globale de fonctionnement (DGF) constitue le concours financier principal de l’Etat aux collectivités locales."
+   → S'inspirer de cette phrase tout en l'adaptant au contexte financier.
+   → Conserver le ton institutionnel et factuel.
 2. ANALYSE COMPARATIVE ET DIAGNOSTIC DES ÉCARTS (1 phrase + possibilité d'une 2e phrase factuelle)
    - Citer obligatoirement : montant en k€, valeur en €/habitant et écart en % par rapport à la strate
-     (utiliser strictement l’écart fourni, sans recalcul).
-   - Qualifier l’écart avec un vocabulaire varié et institutionnel
+     (utiliser strictement l'écart fourni, sans recalcul).
+   - Qualifier l'écart avec un vocabulaire varié et institutionnel
      (niveau supérieur / inférieur à la strate, écart significatif, positionnement atypique, alignement).
-   - Ajouter, le cas échéant, une phrase factuelle de mise en perspective sur l’impact du poste dans la structure ou stratégie financière de la collectivité
-     (par ex. contribution au financement des investissements, dépendance limitée aux ressources externes, levier d’autofinancement).
-   - Adapter le degré de prudence à l’ampleur de l’écart :
-     • écart faible → constat affirmé
-     • écart marqué → prudence analytique possible
-   - Ne jamais invoquer de causes politiques ou conjoncturelles non observables.
-3. CONTRIBUTION À L'ÉQUILIBRE GLOBAL (Angle spécifique) en une ou deux phrases : 
-   - Mettre en évidence le montant des dotations de l'État par habitant et leur variation. mais ne pas donner de chiffres supplémentaires.
+   - Ajouter, le cas échéant, une phrase factuelle de mise en perspective sur l'impact du poste
+     dans la structure financière de la collectivité
+     (par ex. contribution à la formation de l'épargne, poids dans les recettes réelles, incidence sur la solvabilité).
+   - Adapter le degré de prudence à l'ampleur de l'écart :
+     • écart faible (&lt; 10%) → constat affirmé
+     • écart marqué (&gt; 20%) → prudence analytique, conditionnel admis
+   - Ne jamais invoquer de causes politiques ou conjoncturelles non observables dans les données.
+3. CONTRIBUTION À L'ÉQUILIBRE GLOBAL (Angle spécifique) en une ou deux phrases :
+   - Situer le montant de la dotation globale de fonctionnement par habitant au regard de la strate et évaluer le poids de la DGF dans les recettes réelles de fonctionnement.
+   - Ne pas introduire de chiffres supplémentaires non fournis dans les données.
    - Indiquer clairement si le poste constitue :
-     • un levier,
-     • une contrainte,
+     • un facteur favorable à l'équilibre,
+     • une contrainte sur l'équilibre,
+     • un point de vigilance (si les signaux sont mixtes),
      • ou un élément neutre.
-   - REMARQUE : Si le poste représente moins de 5% du budget total, limiter l’analyse à une phrase factuelle.
+   - La qualification de la section 3 DOIT ÊTRE COHÉRENTE avec le diagnostic de la section 2.
+     Un poste dont l'écart avec la strate est défavorable ne peut pas être qualifié de "facteur favorable"
+     sans explication explicite.
+   - REMARQUE : Si le poste représente moins de 5% du budget total, limiter l'analyse à une phrase factuelle.
+   INTERDICTION : Ne pas qualifier l'évolution temporelle (stable, en hausse, en baisse) sans données de l'exercice précédent.   
+   INTERDICTION d'utiliser des pronoms démonstratifs en début de phrase ("Ce poste", "Cette évolution").
 STYLE ET RIGUEUR :
-- Ton neutre, institutionnel, factuel et analytique ("technocratique" au sens noble : précis et rigoureux).
+- Ton neutre, institutionnel, factuel et analytique.
 - Utiliser le conditionnel uniquement pour toute interprétation non explicitement portée par les chiffres.
-- Prioriser l’affirmation lorsque les constats sont objectivement établis.
-- Éviter les répétitions inutiles entre postes : si l’écart est négligeable (&lt;5%), le mentionner très brièvement.
+- Prioriser l'affirmation lorsque les constats sont objectivement établis.
+- Éviter les répétitions inutiles entre postes : si l'écart est négligeable (&lt; 5%), le mentionner très brièvement.
 - Aucun commentaire politique, conjoncturel ou recommandation.
 - Pas de jugement de gestion.
-- Vocabulaire strictement M14/M57, phrases concises et précises, sans effet de style ni jargon excessif.
+- Vocabulaire strictement M57, phrases concises et précises.
 INTERDICTIONS STRICTES :
-❌ Ne pas suggérer que la dette finance des charges de fonctionnement
-❌ Ne pas expliquer une CAF brute par la fiscalité seule (la CAF brute dépend aussi des charges)
-❌ Ne pas utiliser un ton alarmiste
-❌ Ne pas recommander d'action
-❌ Ne pas juger la gestion
-❌ Ne pas écrire "5-6 phrases" ou un nombre de phrases dans les titres
-❌ Ne pas utiliser de vocabulaire managérial ou stratégique (“pilotage”, “optimisation”, “levier d’action”)
+❌ Ne pas suggérer que la dette finance des charges de fonctionnement.
+❌ Ne pas expliquer une CAF brute par les recettes seules (la CAF brute résulte du solde produits réels – charges réelles, y compris charges financières).
+❌ Ne pas utiliser un ton alarmiste.
+❌ Ne pas qualifier de 'neutre' un poste dont l'écart avec la strate dépasse -50 % sans justification explicite.
+❌ Ne pas recommander d'action ni juger la gestion.
+❌ Ne pas parler de produits de capacité d’autofinancement mais de Recettes Réelles de Fonctionnement.
+❌ Ne pas écrire un nombre de phrases dans les titres de section.
+❌ Ne pas utiliser de vocabulaire managérial (« pilotage », « optimisation », « levier d'action », « marge de manœuvre », « marge de sécurité », « marge de manoeuvre »).
+❌ Ne pas extrapoler de tendance temporelle (« stabilité », « progression », « dégradation ») sans comparaison chiffrée avec l'exercice précédent.
+❌ Ne pas qualifier un investissement d'« autofinancé » sauf si le taux de couverture (CAF nette / dépenses d'équipement) est ≥ 100%.
+❌ Ne pas inventer de chiffres. S'appuyer exclusivement sur les données transmises. Si une donnée manque, ne pas l'évoquer.
+❌ Ne pas qualifier de 'neutre', 'favorable' ou 'compatible' un poste dont l'écart avec la strate dépasse -50% ou +80% sans justification explicite par un indicateur croisé.
+❌ Ne pas utiliser de formulations managériales conditionnelles du type 'sous réserve de la maîtrise de...', 'sous réserve d'un pilotage de...', 'à condition de maintenir...'. Se limiter au constat factuel.
+❌ Ne pas confondre le taux d'épargne brute (CAF brute / RRF) avec un ratio rapporté au résultat de fonctionnement. Le dénominateur du taux d'épargne brute est exclusivement les RRF.
+❌ Ne pas utiliser le mot "évolution" ni "variation". Utiliser exclusivement "niveau", "poids", "positionnement" ou "part".
 IMPORTANT :
 - Ne jamais inventer de chiffres
 - S’appuyer exclusivement sur les données transmises
@@ -1040,12 +1132,12 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>1. POSITIONNEMENT ET POIDS DU POSTE  
-La dotation globale de fonctionnement (DGF) constitue un poste secondaire dans la structure des produits de la commune, représentant 5,4 % des produits de fonctionnement, ce qui traduit une dépendance limitée aux concours financiers de l’État.
-2. ANALYSE COMPARATIVE ET DIAGNOSTIC DES ÉCARTS  
-Le montant de la DGF s’élève à 29 k€, soit 37 €/habitant, ce qui correspond à un niveau nettement inférieur à la moyenne de la strate (158 €/habitant), avec un écart de -76,6 %. Cette sous-dotation relative se traduit également par une part dans les produits de fonctionnement inférieure de 11,9 points par rapport à la moyenne de la strate (5,4 % contre 17,2 %). Ce positionnement atypique pourrait limiter la capacité de la commune à mobiliser les ressources issues de la péréquation.
-3. CONTRIBUTION À L’ÉQUILIBRE GLOBAL  
-Avec un montant par habitant inférieur à la moyenne de la strate, la DGF constitue un élément contraignant dans la structure des ressources de la commune, sans constituer un levier significatif de financement des dépenses courantes ou d’investissement.</t>
+          <t>1. POSITIONNEMENT ET POIDS DU POSTE
+La dotation globale de fonctionnement (DGF) constitue le principal concours financier de l’État aux collectivités locales, représentant une recette de fonctionnement libre d’emploi essentielle au financement des charges courantes de la commune de Rosoy.
+2. ANALYSE COMPARATIVE ET DIAGNOSTIC DES ÉCARTS
+La DGF versée à Rosoy s’établit à 157 k€, soit 142 €/habitant, ce qui représente un niveau inférieur de 10,1 % à la moyenne de la strate démographique (158 €/habitant). Ce positionnement traduit un écart modéré à la baisse par rapport aux communes de taille comparable. La part de la DGF dans les recettes réelles de fonctionnement (RRF) de la commune est de 12,7 %, inférieure de 4,5 points à la moyenne de la strate (17,2 %), ce qui indique un poids relatif moindre de ce concours dans la structure financière locale.
+3. CONTRIBUTION À L’ÉQUILIBRE GLOBAL
+Le montant de la DGF par habitant, inférieur à la moyenne de la strate, et sa part réduite dans les recettes réelles de fonctionnement traduisent une contrainte relative sur l’équilibre financier de la commune. Cette dotation, bien que significative, contribue de manière limitée à la formation de l’épargne et au financement des charges courantes.</t>
         </is>
       </c>
     </row>
@@ -1068,97 +1160,122 @@
           <t>Charges_de_fonctionnement</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr"/>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Le total des charges de fonctionnement comprend toutes les dépenses concernant le fonctionnement de la commune. Cela regroupe l’ensemble des opérations réelles et d’ordre, c’est-à-dire toutes les opérations qui entrainent ou pas des flux de trésorerie (décaissements ou non).</t>
+        </is>
+      </c>
       <c r="F6" t="n">
         <v>0.3</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
           <t xml:space="preserve">DONNÉES DU POSTE :
-- Montant : 1407 k€
-- Par habitant : 1342 €/hab.
+- Montant : 1063 k€
+- Par habitant : 965 €/hab.
 - Moyenne de la strate : 774 €/hab.
-- Écart avec la strate (en €/hab) : +73.4%
+- Écart avec la strate (en €/hab) : +24.7%
 - Niveau : nettement supérieur à
 </t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Tu es un analyste financier de la DGFiP (M14/M57).
+          <t xml:space="preserve">Tu es un analyste financier de la DGFiP (M57).
 Tu produis une analyse équivalente à une note DDFIP ou à une analyse transmise au préfet.
 Tu n'es PAS un commentateur généraliste.
 Tu es soumis à une doctrine comptable STRICTE.
 Toute erreur conceptuelle invalide l'analyse.
 L'ESSENTIEL DU POSTE :
-Les charges de fonctionnement regroupent l’ensemble des dépenses inscrites en section de fonctionnement, incluant les charges réelles et les charges d’ordre.
-Les charges réelles participent à la formation du résultat de fonctionnement, tandis que les charges d’ordre constituent des écritures comptables sans incidence sur les flux financiers.
-Le calcul de la capacité d’autofinancement repose exclusivement sur les charges réelles de fonctionnement, à l’exclusion des écritures d’ordre.
+Les charges de fonctionnement regroupent l'ensemble des dépenses nécessaires à la gestion courante de la collectivité. Elles se divisent en charges réelles (sorties de trésorerie) et charges d'ordre (amortissements et provisions).
+COMPOSITION DOCTRINALE :
+- Charges réelles : Elles incluent principalement les charges à caractère général (achats, fluides, contrats), les charges de personnel, et les charges financières (intérêts de la dette).
+- Charges d'ordre : Écritures comptables destinées à constater l'usure du patrimoine (amortissements). Elles n'ont pas d'incidence sur la trésorerie mais impactent le résultat comptable.
+INTERDICTIONS STRICTES : ne pas jamais utiliser le terme "marge de manœuvre"
+LOGIQUE D'ANALYSE :
+Le calcul de la capacité d'autofinancement (CAF) repose exclusivement sur les charges réelles de fonctionnement. Une attention particulière est portée à la maîtrise des charges réelles pour préserver l'épargne de la collectivité face à l'inflation (notamment l'énergie et les contrats de prestation).
 DONNÉES À ANALYSER :
 DONNÉES DU POSTE :
-- Montant : 1407 k€
-- Par habitant : 1342 €/hab.
+- Montant : 1063 k€
+- Par habitant : 965 €/hab.
 - Moyenne de la strate : 774 €/hab.
-- Écart avec la strate (en €/hab) : +73.4%
+- Écart avec la strate (en €/hab) : +24.7%
 - Niveau : nettement supérieur à
 CONTEXTE FINANCIER GLOBAL DE LA COMMUNE :
-Commune: CHAMPAGNAC
+Commune: ROSOY
 Exercice: 2024
-Population: 1048 habitants
+Population: 1102 habitants
 Strate démographique: 500 à 2000 habitants
 ÉQUILIBRES FINANCIERS:
-- Résultat de fonctionnement: 456 k€
-- CAF brute: 479 k€
-- CAF nette: 296 k€
-- Encours de dette: 1074 k€
-- Dépenses d'équipement: 662 k€
-- Fonds de roulement: 274 k€ (positif)
+- Résultat de fonctionnement: 171 k€
+- CAF brute: 172 k€
+- CAF nette: 79 k€
+- Encours de dette: 1144 k€
+- Dépenses d'équipement: 59 k€
+- Fonds de roulement: 250 k€ (négatif)
 RATIOS CLÉS:
-- Taux d'épargne brute: 28.1%
-- Part des charges de personnel: 45.1%
-- Capacité de désendettement: 2.2 années
-- Seuil prudentiel de capacité de désendettement: 12 ans
+- Taux d'épargne brute (CAF brute / RRF): 13.9% (seuil de confort: &gt; 15% ; seuil d'alerte usuel: &lt; 8%)
+- Part des charges de personnel dans les DRF: 46.1%
+- Capacité de désendettement (encours / CAF brute): 6.7 années (alerte: &gt; 12 ans ; zone critique: &gt; 15 ans)
    CONSIGNES D'ANALYSE :
-Rédige une note d'analyse financière experte, synthétique et doctrinalement conforme M14/M57.
+Rédige une note d'analyse financière experte, synthétique et doctrinalement conforme M57.
 Adopte le ton d'un analyste DGFiP : factuel, hiérarchisé, sans effet de style, sans commentaire politique.
 Structure impérative :
 1. POSITIONNEMENT ET POIDS DU POSTE en une phrase :
-   - Situer le poste dans la structure budgétaire de la commune
-     (poste majeur, poste secondaire, levier de financement, charge rigide, etc.).
+   PHRASE D'INSPIRATION (à utiliser comme guide pour la rédaction) :
+   "Le total des charges de fonctionnement comprend toutes les dépenses concernant le fonctionnement de la commune. Cela regroupe l’ensemble des opérations réelles et d’ordre, c’est-à-dire toutes les opérations qui entrainent ou pas des flux de trésorerie (décaissements ou non)."
+   → S'inspirer de cette phrase tout en l'adaptant au contexte financier.
+   → Conserver le ton institutionnel et factuel.
 2. ANALYSE COMPARATIVE ET DIAGNOSTIC DES ÉCARTS (1 phrase + possibilité d'une 2e phrase factuelle)
    - Citer obligatoirement : montant en k€, valeur en €/habitant et écart en % par rapport à la strate
-     (utiliser strictement l’écart fourni, sans recalcul).
-   - Qualifier l’écart avec un vocabulaire varié et institutionnel
+     (utiliser strictement l'écart fourni, sans recalcul).
+   - Qualifier l'écart avec un vocabulaire varié et institutionnel
      (niveau supérieur / inférieur à la strate, écart significatif, positionnement atypique, alignement).
-   - Ajouter, le cas échéant, une phrase factuelle de mise en perspective sur l’impact du poste dans la structure ou stratégie financière de la collectivité
-     (par ex. contribution au financement des investissements, dépendance limitée aux ressources externes, levier d’autofinancement).
-   - Adapter le degré de prudence à l’ampleur de l’écart :
-     • écart faible → constat affirmé
-     • écart marqué → prudence analytique possible
-   - Ne jamais invoquer de causes politiques ou conjoncturelles non observables.
-3. CONTRIBUTION À L'ÉQUILIBRE GLOBAL (Angle spécifique) en une ou deux phrases : 
-   - Mettre en évidence la contribution de ce poste à l'équilibre budgétaire général. mais ne pas donner de chiffres supplémentaires.
+   - Ajouter, le cas échéant, une phrase factuelle de mise en perspective sur l'impact du poste
+     dans la structure financière de la collectivité
+     (par ex. contribution à la formation de l'épargne, poids dans les recettes réelles, incidence sur la solvabilité).
+   - Adapter le degré de prudence à l'ampleur de l'écart :
+     • écart faible (&lt; 10%) → constat affirmé
+     • écart marqué (&gt; 20%) → prudence analytique, conditionnel admis
+   - Ne jamais invoquer de causes politiques ou conjoncturelles non observables dans les données.
+3. CONTRIBUTION À L'ÉQUILIBRE GLOBAL (Angle spécifique) en une ou deux phrases :
+   - Évaluer le poids structurel des charges réelles de fonctionnement et leur incidence sur la formation de l'épargne brute.
+   - Ne pas introduire de chiffres supplémentaires non fournis dans les données.
    - Indiquer clairement si le poste constitue :
-     • un levier,
-     • une contrainte,
+     • un facteur favorable à l'équilibre,
+     • une contrainte sur l'équilibre,
+     • un point de vigilance (si les signaux sont mixtes),
      • ou un élément neutre.
-   - REMARQUE : Si le poste représente moins de 5% du budget total, limiter l’analyse à une phrase factuelle.
+   - La qualification de la section 3 DOIT ÊTRE COHÉRENTE avec le diagnostic de la section 2.
+     Un poste dont l'écart avec la strate est défavorable ne peut pas être qualifié de "facteur favorable"
+     sans explication explicite.
+   - REMARQUE : Si le poste représente moins de 5% du budget total, limiter l'analyse à une phrase factuelle.
+   INTERDICTION : Ne pas qualifier l'évolution temporelle (stable, en hausse, en baisse) sans données de l'exercice précédent.   
+   INTERDICTION d'utiliser des pronoms démonstratifs en début de phrase ("Ce poste", "Cette évolution").
 STYLE ET RIGUEUR :
-- Ton neutre, institutionnel, factuel et analytique ("technocratique" au sens noble : précis et rigoureux).
+- Ton neutre, institutionnel, factuel et analytique.
 - Utiliser le conditionnel uniquement pour toute interprétation non explicitement portée par les chiffres.
-- Prioriser l’affirmation lorsque les constats sont objectivement établis.
-- Éviter les répétitions inutiles entre postes : si l’écart est négligeable (&lt;5%), le mentionner très brièvement.
+- Prioriser l'affirmation lorsque les constats sont objectivement établis.
+- Éviter les répétitions inutiles entre postes : si l'écart est négligeable (&lt; 5%), le mentionner très brièvement.
 - Aucun commentaire politique, conjoncturel ou recommandation.
 - Pas de jugement de gestion.
-- Vocabulaire strictement M14/M57, phrases concises et précises, sans effet de style ni jargon excessif.
+- Vocabulaire strictement M57, phrases concises et précises.
 INTERDICTIONS STRICTES :
-❌ Ne pas suggérer que la dette finance des charges de fonctionnement
-❌ Ne pas expliquer une CAF brute par la fiscalité seule (la CAF brute dépend aussi des charges)
-❌ Ne pas utiliser un ton alarmiste
-❌ Ne pas recommander d'action
-❌ Ne pas juger la gestion
-❌ Ne pas écrire "5-6 phrases" ou un nombre de phrases dans les titres
-❌ Ne pas utiliser de vocabulaire managérial ou stratégique (“pilotage”, “optimisation”, “levier d’action”)
+❌ Ne pas suggérer que la dette finance des charges de fonctionnement.
+❌ Ne pas expliquer une CAF brute par les recettes seules (la CAF brute résulte du solde produits réels – charges réelles, y compris charges financières).
+❌ Ne pas utiliser un ton alarmiste.
+❌ Ne pas qualifier de 'neutre' un poste dont l'écart avec la strate dépasse -50 % sans justification explicite.
+❌ Ne pas recommander d'action ni juger la gestion.
+❌ Ne pas parler de produits de capacité d’autofinancement mais de Recettes Réelles de Fonctionnement.
+❌ Ne pas écrire un nombre de phrases dans les titres de section.
+❌ Ne pas utiliser de vocabulaire managérial (« pilotage », « optimisation », « levier d'action », « marge de manœuvre », « marge de sécurité », « marge de manoeuvre »).
+❌ Ne pas extrapoler de tendance temporelle (« stabilité », « progression », « dégradation ») sans comparaison chiffrée avec l'exercice précédent.
+❌ Ne pas qualifier un investissement d'« autofinancé » sauf si le taux de couverture (CAF nette / dépenses d'équipement) est ≥ 100%.
+❌ Ne pas inventer de chiffres. S'appuyer exclusivement sur les données transmises. Si une donnée manque, ne pas l'évoquer.
+❌ Ne pas qualifier de 'neutre', 'favorable' ou 'compatible' un poste dont l'écart avec la strate dépasse -50% ou +80% sans justification explicite par un indicateur croisé.
+❌ Ne pas utiliser de formulations managériales conditionnelles du type 'sous réserve de la maîtrise de...', 'sous réserve d'un pilotage de...', 'à condition de maintenir...'. Se limiter au constat factuel.
+❌ Ne pas confondre le taux d'épargne brute (CAF brute / RRF) avec un ratio rapporté au résultat de fonctionnement. Le dénominateur du taux d'épargne brute est exclusivement les RRF.
+❌ Ne pas utiliser le mot "évolution" ni "variation". Utiliser exclusivement "niveau", "poids", "positionnement" ou "part".
 IMPORTANT :
 - Ne jamais inventer de chiffres
 - S’appuyer exclusivement sur les données transmises
@@ -1168,12 +1285,12 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>1. POSITIONNEMENT ET POIDS DU POSTE  
-Les charges de fonctionnement, à hauteur de 431 k€, constituent un poste majeur de la section de fonctionnement, intégrant des charges réelles impactant directement le résultat et la capacité d’autofinancement.
-2. ANALYSE COMPARATIVE ET DIAGNOSTIC DES ÉCARTS  
-Le montant des charges réelles de fonctionnement s’élève à 431 k€, soit 552 €/habitant, ce qui représente un niveau nettement inférieur de 28,7 % par rapport à la moyenne de la strate (774 €/habitant). Cet écart significatif traduit un positionnement financier atypique, avec des charges de fonctionnement maîtrisées en comparaison aux communes de taille comparable.
-3. CONTRIBUTION À L’ÉQUILIBRE GLOBAL  
-Ce niveau de charges de fonctionnement, inférieur à la moyenne de la strate, constitue un levier favorable à la capacité d’autofinancement et contribue positivement à l’équilibre budgétaire de la commune.</t>
+          <t>**1. Positionnement et poids du poste**  
+Les charges de fonctionnement regroupent l’ensemble des dépenses nécessaires à la gestion courante de la commune, incluant les charges réelles, qui entraînent des sorties de trésorerie, et les charges d’ordre, telles que les amortissements, qui impactent le résultat comptable sans flux de trésorerie.
+**2. Analyse comparative et diagnostic des écarts**  
+Les charges de fonctionnement s’élèvent à 1 063 k€, soit 965 €/habitant, ce qui représente un niveau nettement supérieur à la moyenne de la strate (774 €/habitant), avec un écart significatif de +24,7 %. Ce positionnement atypique traduit un poids élevé des charges réelles dans la structure financière de la collectivité.
+**3. Contribution à l’équilibre global**  
+Le niveau élevé des charges réelles de fonctionnement constitue une contrainte sur la formation de l’épargne brute, comme en témoigne un taux d’épargne brute de 13,9 %, inférieur au seuil de confort de 15 %. Cette situation limite la capacité de la commune à dégager une épargne suffisante pour financer ses investissements et réduire son endettement.</t>
         </is>
       </c>
     </row>
@@ -1196,99 +1313,130 @@
           <t>Charges_de_personnel</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr"/>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Les charges de personnel constituent la principale dépense de fonctionnement. On y trouve, principalement, les rémunérations des agents et les charges sociales patronales associées.</t>
+        </is>
+      </c>
       <c r="F7" t="n">
         <v>0.3</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
           <t xml:space="preserve">DONNÉES DU POSTE :
-- Montant : 553 k€
-- Par habitant : 528 €/hab.
+- Montant : 490 k€
+- Par habitant : 445 €/hab.
 - Moyenne de la strate : 329 €/hab.
-- Part dans les charges CAF : 45.1% (commune) vs 44.6% (strate) [écart : +0.5 pts]
-- Écart avec la strate (en €/hab) : +60.5%
+- Part dans les DRF : 46.1% (commune) vs 44.6% (strate) [écart : +1.5 pts]
+- Écart avec la strate (en €/hab) : +35.3%
 - Niveau : nettement supérieur à
 </t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Tu es un analyste financier de la DGFiP (M14/M57).
+          <t xml:space="preserve">Tu es un analyste financier de la DGFiP (M57).
 Tu produis une analyse équivalente à une note DDFIP ou à une analyse transmise au préfet.
 Tu n'es PAS un commentateur généraliste.
 Tu es soumis à une doctrine comptable STRICTE.
 Toute erreur conceptuelle invalide l'analyse.
 L'ESSENTIEL DU POSTE :
-Les charges de personnel constituent généralement un poste structurant des dépenses réelles de fonctionnement.
-Elles regroupent principalement les rémunérations des agents et les charges sociales patronales associées, ainsi que les dépenses liées à la mise à disposition de personnel.
-Par leur nature, ces charges présentent un caractère majoritairement rigide à court terme et influencent directement l’équilibre de la section de fonctionnement et la capacité d’autofinancement.
+Les charges de personnel constituent le premier poste de dépenses réelles de fonctionnement. Elles regroupent les rémunérations (traitement de base, indemnités), les charges sociales patronales et les dépenses liées aux personnels mis à disposition.
+FACTEURS D'ÉVOLUTION (LOGIQUE DOCTRINALE) :
+- Le GVT positif (Glissement Vieillesse Technicité) : Hausse mécanique liée à l'avancement d'échelon et d'ancienneté des agents à effectifs constants.
+- Le GVT négatif (effet de noria) : Baisse mécanique liée au remplacement de départs en retraite (agents en haut de grille) par des recrutements en bas de grille. L'analyse doit porter sur le solde net du GVT (positif – négatif) pour évaluer la dynamique réelle de la masse salariale à effectifs constants.
+- Mesures réglementaires nationales : Revalorisations du point d'indice (ex: 2022/2023) ou du SMIC, qui s'imposent à la collectivité.
+- Rigidité structurelle : Ce poste est peu modulable à court terme et impacte directement la capacité d'autofinancement (CAF).
+ANALYSE :
+L'analyse doit distinguer les hausses liées à une politique de recrutement volontariste des hausses subies liées aux décisions de l'État, à la pyramide des âges et au solde net du GVT.
 DONNÉES À ANALYSER :
 DONNÉES DU POSTE :
-- Montant : 553 k€
-- Par habitant : 528 €/hab.
+- Montant : 490 k€
+- Par habitant : 445 €/hab.
 - Moyenne de la strate : 329 €/hab.
-- Part dans les charges CAF : 45.1% (commune) vs 44.6% (strate) [écart : +0.5 pts]
-- Écart avec la strate (en €/hab) : +60.5%
+- Part dans les DRF : 46.1% (commune) vs 44.6% (strate) [écart : +1.5 pts]
+- Écart avec la strate (en €/hab) : +35.3%
 - Niveau : nettement supérieur à
 CONTEXTE FINANCIER GLOBAL DE LA COMMUNE :
-Commune: CHAMPAGNAC
+Commune: ROSOY
 Exercice: 2024
-Population: 1048 habitants
+Population: 1102 habitants
 Strate démographique: 500 à 2000 habitants
 ÉQUILIBRES FINANCIERS:
-- Résultat de fonctionnement: 456 k€
-- CAF brute: 479 k€
-- CAF nette: 296 k€
-- Encours de dette: 1074 k€
-- Dépenses d'équipement: 662 k€
-- Fonds de roulement: 274 k€ (positif)
+- Résultat de fonctionnement: 171 k€
+- CAF brute: 172 k€
+- CAF nette: 79 k€
+- Encours de dette: 1144 k€
+- Dépenses d'équipement: 59 k€
+- Fonds de roulement: 250 k€ (négatif)
 RATIOS CLÉS:
-- Taux d'épargne brute: 28.1%
-- Part des charges de personnel: 45.1%
-- Capacité de désendettement: 2.2 années
-- Seuil prudentiel de capacité de désendettement: 12 ans
+- Taux d'épargne brute (CAF brute / RRF): 13.9% (seuil de confort: &gt; 15% ; seuil d'alerte usuel: &lt; 8%)
+- Part des charges de personnel dans les DRF: 46.1%
+- Capacité de désendettement (encours / CAF brute): 6.7 années (alerte: &gt; 12 ans ; zone critique: &gt; 15 ans)
    CONSIGNES D'ANALYSE :
-Rédige une note d'analyse financière experte, synthétique et doctrinalement conforme M14/M57.
+Rédige une note d'analyse financière experte, synthétique et doctrinalement conforme M57.
 Adopte le ton d'un analyste DGFiP : factuel, hiérarchisé, sans effet de style, sans commentaire politique.
 Structure impérative :
 1. POSITIONNEMENT ET POIDS DU POSTE en une phrase :
-   - Situer le poste dans la structure budgétaire de la commune
-     (poste majeur, poste secondaire, levier de financement, charge rigide, etc.).
+   PHRASE D'INSPIRATION (à utiliser comme guide pour la rédaction) :
+   "Les charges de personnel constituent la principale dépense de fonctionnement. On y trouve, principalement, les rémunérations des agents et les charges sociales patronales associées."
+   → S'inspirer de cette phrase tout en l'adaptant au contexte financier.
+   → Conserver le ton institutionnel et factuel.
 2. ANALYSE COMPARATIVE ET DIAGNOSTIC DES ÉCARTS (1 phrase + possibilité d'une 2e phrase factuelle)
    - Citer obligatoirement : montant en k€, valeur en €/habitant et écart en % par rapport à la strate
-     (utiliser strictement l’écart fourni, sans recalcul).
-   - Qualifier l’écart avec un vocabulaire varié et institutionnel
+     (utiliser strictement l'écart fourni, sans recalcul).
+   - Qualifier l'écart avec un vocabulaire varié et institutionnel
      (niveau supérieur / inférieur à la strate, écart significatif, positionnement atypique, alignement).
-   - Ajouter, le cas échéant, une phrase factuelle de mise en perspective sur l’impact du poste dans la structure ou stratégie financière de la collectivité
-     (par ex. contribution au financement des investissements, dépendance limitée aux ressources externes, levier d’autofinancement).
-   - Adapter le degré de prudence à l’ampleur de l’écart :
-     • écart faible → constat affirmé
-     • écart marqué → prudence analytique possible
-   - Ne jamais invoquer de causes politiques ou conjoncturelles non observables.
-3. CONTRIBUTION À L'ÉQUILIBRE GLOBAL (Angle spécifique) en une ou deux phrases : 
-   - Mettre en évidence le niveau des charges de personnel par habitant et leur évolution. mais ne pas donner de chiffres supplémentaires.
+   - Ajouter, le cas échéant, une phrase factuelle de mise en perspective sur l'impact du poste
+     dans la structure financière de la collectivité
+     (par ex. contribution à la formation de l'épargne, poids dans les recettes réelles, incidence sur la solvabilité).
+   - Adapter le degré de prudence à l'ampleur de l'écart :
+     • écart faible (&lt; 10%) → constat affirmé
+     • écart marqué (&gt; 20%) → prudence analytique, conditionnel admis
+   - Ne jamais invoquer de causes politiques ou conjoncturelles non observables dans les données.
+3. CONTRIBUTION À L'ÉQUILIBRE GLOBAL (Angle spécifique) en une ou deux phrases :
+   - Évaluer le poids des charges de personnel par habitant et leur part dans les dépenses réelles de fonctionnement.
+            - DISTINGUER obligatoirement deux situations :
+                • Si l'écart en €/hab est élevé MAIS que le ratio de structure (part dans les DRF) est proche de la strate (écart &lt; 3 points) : l'écart traduit un effet de VOLUME global (le budget par habitant est élevé sur tous les postes), pas une surreprésentation spécifique du personnel. Le qualifier explicitement.
+                • Si l'écart en €/hab est faible MAIS que le ratio de structure est significativement supérieur à la strate (écart &gt; 3 points) : le personnel est spécifiquement surreprésenté dans la structure des charges malgré un budget global modéré. Le qualifier explicitement comme effet de STRUCTURE.
+                • Si les deux écarts sont élevés : cumul effet volume + structure, à distinguer.
+            - Conclure explicitement sur la nature de l'écart (volume, structure, ou les deux).
+   - Ne pas introduire de chiffres supplémentaires non fournis dans les données.
    - Indiquer clairement si le poste constitue :
-     • un levier,
-     • une contrainte,
+     • un facteur favorable à l'équilibre,
+     • une contrainte sur l'équilibre,
+     • un point de vigilance (si les signaux sont mixtes),
      • ou un élément neutre.
-   - REMARQUE : Si le poste représente moins de 5% du budget total, limiter l’analyse à une phrase factuelle.
+   - La qualification de la section 3 DOIT ÊTRE COHÉRENTE avec le diagnostic de la section 2.
+     Un poste dont l'écart avec la strate est défavorable ne peut pas être qualifié de "facteur favorable"
+     sans explication explicite.
+   - REMARQUE : Si le poste représente moins de 5% du budget total, limiter l'analyse à une phrase factuelle.
+   INTERDICTION : Ne pas qualifier l'évolution temporelle (stable, en hausse, en baisse) sans données de l'exercice précédent.   
+   INTERDICTION d'utiliser des pronoms démonstratifs en début de phrase ("Ce poste", "Cette évolution").
 STYLE ET RIGUEUR :
-- Ton neutre, institutionnel, factuel et analytique ("technocratique" au sens noble : précis et rigoureux).
+- Ton neutre, institutionnel, factuel et analytique.
 - Utiliser le conditionnel uniquement pour toute interprétation non explicitement portée par les chiffres.
-- Prioriser l’affirmation lorsque les constats sont objectivement établis.
-- Éviter les répétitions inutiles entre postes : si l’écart est négligeable (&lt;5%), le mentionner très brièvement.
+- Prioriser l'affirmation lorsque les constats sont objectivement établis.
+- Éviter les répétitions inutiles entre postes : si l'écart est négligeable (&lt; 5%), le mentionner très brièvement.
 - Aucun commentaire politique, conjoncturel ou recommandation.
 - Pas de jugement de gestion.
-- Vocabulaire strictement M14/M57, phrases concises et précises, sans effet de style ni jargon excessif.
+- Vocabulaire strictement M57, phrases concises et précises.
 INTERDICTIONS STRICTES :
-❌ Ne pas suggérer que la dette finance des charges de fonctionnement
-❌ Ne pas expliquer une CAF brute par la fiscalité seule (la CAF brute dépend aussi des charges)
-❌ Ne pas utiliser un ton alarmiste
-❌ Ne pas recommander d'action
-❌ Ne pas juger la gestion
-❌ Ne pas écrire "5-6 phrases" ou un nombre de phrases dans les titres
-❌ Ne pas utiliser de vocabulaire managérial ou stratégique (“pilotage”, “optimisation”, “levier d’action”)
+❌ Ne pas suggérer que la dette finance des charges de fonctionnement.
+❌ Ne pas expliquer une CAF brute par les recettes seules (la CAF brute résulte du solde produits réels – charges réelles, y compris charges financières).
+❌ Ne pas utiliser un ton alarmiste.
+❌ Ne pas qualifier de 'neutre' un poste dont l'écart avec la strate dépasse -50 % sans justification explicite.
+❌ Ne pas recommander d'action ni juger la gestion.
+❌ Ne pas parler de produits de capacité d’autofinancement mais de Recettes Réelles de Fonctionnement.
+❌ Ne pas écrire un nombre de phrases dans les titres de section.
+❌ Ne pas utiliser de vocabulaire managérial (« pilotage », « optimisation », « levier d'action », « marge de manœuvre », « marge de sécurité », « marge de manoeuvre »).
+❌ Ne pas extrapoler de tendance temporelle (« stabilité », « progression », « dégradation ») sans comparaison chiffrée avec l'exercice précédent.
+❌ Ne pas qualifier un investissement d'« autofinancé » sauf si le taux de couverture (CAF nette / dépenses d'équipement) est ≥ 100%.
+❌ Ne pas inventer de chiffres. S'appuyer exclusivement sur les données transmises. Si une donnée manque, ne pas l'évoquer.
+❌ Ne pas qualifier de 'neutre', 'favorable' ou 'compatible' un poste dont l'écart avec la strate dépasse -50% ou +80% sans justification explicite par un indicateur croisé.
+❌ Ne pas utiliser de formulations managériales conditionnelles du type 'sous réserve de la maîtrise de...', 'sous réserve d'un pilotage de...', 'à condition de maintenir...'. Se limiter au constat factuel.
+❌ Ne pas confondre le taux d'épargne brute (CAF brute / RRF) avec un ratio rapporté au résultat de fonctionnement. Le dénominateur du taux d'épargne brute est exclusivement les RRF.
+❌ Ne pas utiliser le mot "évolution" ni "variation". Utiliser exclusivement "niveau", "poids", "positionnement" ou "part".
 IMPORTANT :
 - Ne jamais inventer de chiffres
 - S’appuyer exclusivement sur les données transmises
@@ -1298,12 +1446,13 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>1. POSITIONNEMENT ET POIDS DU POSTE  
-Les charges de personnel constituent un poste majeur des dépenses réelles de fonctionnement, représentant près de la moitié des charges de fonctionnement de la commune.
-2. ANALYSE COMPARATIVE ET DIAGNOSTIC DES ÉCARTS  
-Le montant des charges de personnel s’élève à 195 k€, soit 249 €/habitant, ce qui correspond à un niveau inférieur de 24,3 % par rapport à la moyenne de la strate (329 €/hab.). La part des charges de personnel dans les charges de fonctionnement s’établit à 48,7 %, supérieure de 4,1 points à celle de la strate (44,6 %). Ce positionnement traduit un poids relatif plus important du poste dans la structure des charges, malgré un niveau unitaire par habitant inférieur à la moyenne.
-3. CONTRIBUTION À L'ÉQUILIBRE GLOBAL  
-Le niveau des charges de personnel par habitant, inférieur à la moyenne de la strate, constitue un élément neutre dans l’équilibre financier de la commune. Ce poste, bien que rigide, ne semble pas peser de manière excessive sur la capacité d’autofinancement.</t>
+          <t>**Note d’analyse financière – Charges de personnel – Commune de ROSOY – Exercice 2024**
+1. **Positionnement et poids du poste**  
+Les charges de personnel constituent la principale dépense de fonctionnement de la commune, regroupant les rémunérations des agents, les charges sociales patronales et les dépenses liées aux personnels mis à disposition.
+2. **Analyse comparative et diagnostic des écarts**  
+Le montant des charges de personnel s’élève à 490 k€, soit 445 €/habitant, ce qui représente un niveau significativement supérieur à la moyenne de la strate (329 €/habitant), avec un écart de +35,3%. La part des charges de personnel dans les dépenses réelles de fonctionnement (DRF) est de 46,1%, légèrement supérieure à celle de la strate (44,6%), avec un écart de +1,5 point. Ce positionnement traduit un niveau de charges de personnel élevé en valeur absolue par habitant, sans pour autant constituer une surreprésentation marquée dans la structure des charges de fonctionnement.
+3. **Contribution à l’équilibre global**  
+L’écart élevé en €/habitant, combiné à une part dans les DRF proche de la moyenne de la strate (écart &lt; 3 points), suggère un effet volume global, lié à un budget de fonctionnement par habitant globalement supérieur, plutôt qu’une surreprésentation spécifique des charges de personnel dans la structure des dépenses. Ce poste constitue une contrainte sur l’équilibre financier de la commune, compte tenu de son poids élevé et de la rigidité structurelle inhérente aux charges de personnel.</t>
         </is>
       </c>
     </row>
@@ -1326,97 +1475,120 @@
           <t>Resultat_comptable</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr"/>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Le résultat comptable est la différence entre le total des produits de fonctionnement et le total des charges de fonctionnement. Il traduit la couverture (ou non, s’il est négatif) des charges de fonctionnement (dépenses) par les produits de fonctionnement (recettes).</t>
+        </is>
+      </c>
       <c r="F8" t="n">
         <v>0.3</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
           <t xml:space="preserve">DONNÉES DU POSTE :
-- Montant : 456 k€
-- Par habitant : 436 €/hab.
+- Montant : 171 k€
+- Par habitant : 155 €/hab.
 - Moyenne de la strate : 171 €/hab.
-- Écart avec la strate (en €/hab) : +155.0%
-- Niveau : nettement supérieur à
+- Écart avec la strate (en €/hab) : -9.4%
+- Niveau : inférieur à
 </t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t xml:space="preserve">Tu es un analyste financier de la DGFiP (M14/M57).
+          <t xml:space="preserve">Tu es un analyste financier de la DGFiP (M57).
 Tu produis une analyse équivalente à une note DDFIP ou à une analyse transmise au préfet.
 Tu n'es PAS un commentateur généraliste.
 Tu es soumis à une doctrine comptable STRICTE.
 Toute erreur conceptuelle invalide l'analyse.
 L'ESSENTIEL DU POSTE :
-Le résultat comptable en section de fonctionnement correspond à la différence entre les produits de fonctionnement et les charges de fonctionnement.
-Il indique si les recettes réelles couvrent intégralement les dépenses réelles de fonctionnement.
-Ce résultat sert de référence pour le calcul de la capacité d’autofinancement et l’appréciation des grands équilibres financiers de la collectivité.
+Le résultat comptable de l'exercice en section de fonctionnement correspond à la différence entre l'ensemble des produits et des charges de la section (incluant les flux réels et les écritures d'ordre).
+DISTINCTION DOCTRINALE :
+- Résultat global : Il intègre les opérations d'ordre (comme les dotations aux amortissements), reflétant ainsi le résultat comptable "net" au sens patrimonial.
+- Équilibre réel : Si le résultat est positif, il contribue à la formation de l'excédent de fonctionnement qui sera, après affectation, utilisé pour financer la section d'investissement ou renforcer les réserves.
+Ce résultat est le point de départ de l'analyse, mais doit être retraité des écritures d'ordre pour déterminer la Capacité d'Autofinancement (CAF).
 DONNÉES À ANALYSER :
 DONNÉES DU POSTE :
-- Montant : 456 k€
-- Par habitant : 436 €/hab.
+- Montant : 171 k€
+- Par habitant : 155 €/hab.
 - Moyenne de la strate : 171 €/hab.
-- Écart avec la strate (en €/hab) : +155.0%
-- Niveau : nettement supérieur à
+- Écart avec la strate (en €/hab) : -9.4%
+- Niveau : inférieur à
 CONTEXTE FINANCIER GLOBAL DE LA COMMUNE :
-Commune: CHAMPAGNAC
+Commune: ROSOY
 Exercice: 2024
-Population: 1048 habitants
+Population: 1102 habitants
 Strate démographique: 500 à 2000 habitants
 ÉQUILIBRES FINANCIERS:
-- Résultat de fonctionnement: 456 k€
-- CAF brute: 479 k€
-- CAF nette: 296 k€
-- Encours de dette: 1074 k€
-- Dépenses d'équipement: 662 k€
-- Fonds de roulement: 274 k€ (positif)
+- Résultat de fonctionnement: 171 k€
+- CAF brute: 172 k€
+- CAF nette: 79 k€
+- Encours de dette: 1144 k€
+- Dépenses d'équipement: 59 k€
+- Fonds de roulement: 250 k€ (négatif)
 RATIOS CLÉS:
-- Taux d'épargne brute: 28.1%
-- Part des charges de personnel: 45.1%
-- Capacité de désendettement: 2.2 années
-- Seuil prudentiel de capacité de désendettement: 12 ans
+- Taux d'épargne brute (CAF brute / RRF): 13.9% (seuil de confort: &gt; 15% ; seuil d'alerte usuel: &lt; 8%)
+- Part des charges de personnel dans les DRF: 46.1%
+- Capacité de désendettement (encours / CAF brute): 6.7 années (alerte: &gt; 12 ans ; zone critique: &gt; 15 ans)
    CONSIGNES D'ANALYSE :
-Rédige une note d'analyse financière experte, synthétique et doctrinalement conforme M14/M57.
+Rédige une note d'analyse financière experte, synthétique et doctrinalement conforme M57.
 Adopte le ton d'un analyste DGFiP : factuel, hiérarchisé, sans effet de style, sans commentaire politique.
 Structure impérative :
 1. POSITIONNEMENT ET POIDS DU POSTE en une phrase :
-   - Situer le poste dans la structure budgétaire de la commune
-     (poste majeur, poste secondaire, levier de financement, charge rigide, etc.).
+   PHRASE D'INSPIRATION (à utiliser comme guide pour la rédaction) :
+   "Le résultat comptable est la différence entre le total des produits de fonctionnement et le total des charges de fonctionnement. Il traduit la couverture (ou non, s’il est négatif) des charges de fonctionnement (dépenses) par les produits de fonctionnement (recettes)."
+   → S'inspirer de cette phrase tout en l'adaptant au contexte financier.
+   → Conserver le ton institutionnel et factuel.
 2. ANALYSE COMPARATIVE ET DIAGNOSTIC DES ÉCARTS (1 phrase + possibilité d'une 2e phrase factuelle)
    - Citer obligatoirement : montant en k€, valeur en €/habitant et écart en % par rapport à la strate
-     (utiliser strictement l’écart fourni, sans recalcul).
-   - Qualifier l’écart avec un vocabulaire varié et institutionnel
+     (utiliser strictement l'écart fourni, sans recalcul).
+   - Qualifier l'écart avec un vocabulaire varié et institutionnel
      (niveau supérieur / inférieur à la strate, écart significatif, positionnement atypique, alignement).
-   - Ajouter, le cas échéant, une phrase factuelle de mise en perspective sur l’impact du poste dans la structure ou stratégie financière de la collectivité
-     (par ex. contribution au financement des investissements, dépendance limitée aux ressources externes, levier d’autofinancement).
-   - Adapter le degré de prudence à l’ampleur de l’écart :
-     • écart faible → constat affirmé
-     • écart marqué → prudence analytique possible
-   - Ne jamais invoquer de causes politiques ou conjoncturelles non observables.
-3. CONTRIBUTION À L'ÉQUILIBRE GLOBAL (Angle spécifique) en une ou deux phrases : 
-   - Mettre en évidence l’excédent ou déficit du fonctionnement et son évolution. mais ne pas donner de chiffres supplémentaires.
+   - Ajouter, le cas échéant, une phrase factuelle de mise en perspective sur l'impact du poste
+     dans la structure financière de la collectivité
+     (par ex. contribution à la formation de l'épargne, poids dans les recettes réelles, incidence sur la solvabilité).
+   - Adapter le degré de prudence à l'ampleur de l'écart :
+     • écart faible (&lt; 10%) → constat affirmé
+     • écart marqué (&gt; 20%) → prudence analytique, conditionnel admis
+   - Ne jamais invoquer de causes politiques ou conjoncturelles non observables dans les données.
+3. CONTRIBUTION À L'ÉQUILIBRE GLOBAL (Angle spécifique) en une ou deux phrases :
+   - Situer le résultat de l'exercice dans la formation de l'excédent de fonctionnement reporté.
+   - Ne pas introduire de chiffres supplémentaires non fournis dans les données.
    - Indiquer clairement si le poste constitue :
-     • un levier,
-     • une contrainte,
+     • un facteur favorable à l'équilibre,
+     • une contrainte sur l'équilibre,
+     • un point de vigilance (si les signaux sont mixtes),
      • ou un élément neutre.
-   - REMARQUE : Si le poste représente moins de 5% du budget total, limiter l’analyse à une phrase factuelle.
+   - La qualification de la section 3 DOIT ÊTRE COHÉRENTE avec le diagnostic de la section 2.
+     Un poste dont l'écart avec la strate est défavorable ne peut pas être qualifié de "facteur favorable"
+     sans explication explicite.
+   - REMARQUE : Si le poste représente moins de 5% du budget total, limiter l'analyse à une phrase factuelle.
+   INTERDICTION : Ne pas qualifier l'évolution temporelle (stable, en hausse, en baisse) sans données de l'exercice précédent.   
+   INTERDICTION d'utiliser des pronoms démonstratifs en début de phrase ("Ce poste", "Cette évolution").
 STYLE ET RIGUEUR :
-- Ton neutre, institutionnel, factuel et analytique ("technocratique" au sens noble : précis et rigoureux).
+- Ton neutre, institutionnel, factuel et analytique.
 - Utiliser le conditionnel uniquement pour toute interprétation non explicitement portée par les chiffres.
-- Prioriser l’affirmation lorsque les constats sont objectivement établis.
-- Éviter les répétitions inutiles entre postes : si l’écart est négligeable (&lt;5%), le mentionner très brièvement.
+- Prioriser l'affirmation lorsque les constats sont objectivement établis.
+- Éviter les répétitions inutiles entre postes : si l'écart est négligeable (&lt; 5%), le mentionner très brièvement.
 - Aucun commentaire politique, conjoncturel ou recommandation.
 - Pas de jugement de gestion.
-- Vocabulaire strictement M14/M57, phrases concises et précises, sans effet de style ni jargon excessif.
+- Vocabulaire strictement M57, phrases concises et précises.
 INTERDICTIONS STRICTES :
-❌ Ne pas suggérer que la dette finance des charges de fonctionnement
-❌ Ne pas expliquer une CAF brute par la fiscalité seule (la CAF brute dépend aussi des charges)
-❌ Ne pas utiliser un ton alarmiste
-❌ Ne pas recommander d'action
-❌ Ne pas juger la gestion
-❌ Ne pas écrire "5-6 phrases" ou un nombre de phrases dans les titres
-❌ Ne pas utiliser de vocabulaire managérial ou stratégique (“pilotage”, “optimisation”, “levier d’action”)
+❌ Ne pas suggérer que la dette finance des charges de fonctionnement.
+❌ Ne pas expliquer une CAF brute par les recettes seules (la CAF brute résulte du solde produits réels – charges réelles, y compris charges financières).
+❌ Ne pas utiliser un ton alarmiste.
+❌ Ne pas qualifier de 'neutre' un poste dont l'écart avec la strate dépasse -50 % sans justification explicite.
+❌ Ne pas recommander d'action ni juger la gestion.
+❌ Ne pas parler de produits de capacité d’autofinancement mais de Recettes Réelles de Fonctionnement.
+❌ Ne pas écrire un nombre de phrases dans les titres de section.
+❌ Ne pas utiliser de vocabulaire managérial (« pilotage », « optimisation », « levier d'action », « marge de manœuvre », « marge de sécurité », « marge de manoeuvre »).
+❌ Ne pas extrapoler de tendance temporelle (« stabilité », « progression », « dégradation ») sans comparaison chiffrée avec l'exercice précédent.
+❌ Ne pas qualifier un investissement d'« autofinancé » sauf si le taux de couverture (CAF nette / dépenses d'équipement) est ≥ 100%.
+❌ Ne pas inventer de chiffres. S'appuyer exclusivement sur les données transmises. Si une donnée manque, ne pas l'évoquer.
+❌ Ne pas qualifier de 'neutre', 'favorable' ou 'compatible' un poste dont l'écart avec la strate dépasse -50% ou +80% sans justification explicite par un indicateur croisé.
+❌ Ne pas utiliser de formulations managériales conditionnelles du type 'sous réserve de la maîtrise de...', 'sous réserve d'un pilotage de...', 'à condition de maintenir...'. Se limiter au constat factuel.
+❌ Ne pas confondre le taux d'épargne brute (CAF brute / RRF) avec un ratio rapporté au résultat de fonctionnement. Le dénominateur du taux d'épargne brute est exclusivement les RRF.
+❌ Ne pas utiliser le mot "évolution" ni "variation". Utiliser exclusivement "niveau", "poids", "positionnement" ou "part".
 IMPORTANT :
 - Ne jamais inventer de chiffres
 - S’appuyer exclusivement sur les données transmises
@@ -1426,12 +1598,12 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>1. POSITIONNEMENT ET POIDS DU POSTE  
-Le résultat comptable de fonctionnement, à 128 k€, constitue un poste majeur traduisant l’équilibre entre produits et charges réelles de fonctionnement, conditionnant la capacité d’autofinancement de la commune.
-2. ANALYSE COMPARATIVE ET DIAGNOSTIC DES ÉCARTS  
-Le résultat de fonctionnement s’établit à 128 k€, soit 164 €/habitant, inférieur de 4,1 % à la moyenne de la strate (171 €/habitant), ce qui traduit un positionnement légèrement en retrait par rapport aux collectivités comparables. Cet écart faible confirme un alignement global avec la moyenne de la strate, sans impact significatif sur la structure financière.
-3. CONTRIBUTION À L’ÉQUILIBRE GLOBAL  
-Le résultat de fonctionnement excédentaire contribue positivement à l’équilibre financier de la commune et constitue un levier pour le financement interne des investissements.</t>
+          <t>**1. Positionnement et poids du poste**  
+Le résultat comptable de fonctionnement, égal à 171 k€, correspond à la différence entre l’ensemble des produits et des charges de fonctionnement, incluant les opérations réelles et d’ordre, traduisant la capacité de la section de fonctionnement à couvrir ses charges par ses produits.
+**2. Analyse comparative et diagnostic des écarts**  
+Le résultat comptable s’établit à 171 k€, soit 155 €/habitant, ce qui représente un niveau inférieur de 9,4 % à la moyenne de la strate (171 €/habitant). Cet écart, modéré, indique un positionnement légèrement en retrait par rapport aux collectivités comparables de taille similaire. Ce résultat contribue néanmoins à la formation de l’épargne brute, en cohérence avec la capacité d’autofinancement brute proche (172 k€).
+**3. Contribution à l’équilibre global**  
+Le résultat comptable positif constitue un facteur favorable à l’équilibre financier de la section de fonctionnement, participant à la formation de l’excédent de fonctionnement reporté. Il permet ainsi de soutenir le financement de la section d’investissement ou le renforcement des réserves.</t>
         </is>
       </c>
     </row>
@@ -1456,7 +1628,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>La CAF brute constitue l’indicateur principal de la capacité de la commune à générer un excédent de ressources issu du fonctionnement avant remboursement du capital de la dette, servant de levier potentiel pour le financement des opérations d’investissement.</t>
+          <t>La CAF brute constitue l'indicateur principal de la capacité de la commune à générer un excédent de ressources issu du fonctionnement avant remboursement du capital de la dette, servant de levier potentiel pour le financement de la section d'investissement.</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -1465,94 +1637,114 @@
       <c r="G9" t="inlineStr">
         <is>
           <t xml:space="preserve">DONNÉES DU POSTE :
-- Montant : 479 k€
-- Par habitant : 457 €/hab.
+- Montant : 172 k€
+- Par habitant : 156 €/hab.
 - Moyenne de la strate : 182 €/hab.
-- Part dans les produits CAF : 28.1% (commune) vs 19.8% (strate) [écart : +8.2 pts]
-- Écart avec la strate (en €/hab) : +151.1%
-- Niveau : nettement supérieur à
+- Part dans les RRF : 13.9% (commune) vs 19.8% (strate) [écart : -5.9 pts]
+- Écart avec la strate (en €/hab) : -14.3%
+- Niveau : inférieur à
 </t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t xml:space="preserve">Tu es un analyste financier de la DGFiP (M14/M57).
+          <t xml:space="preserve">Tu es un analyste financier de la DGFiP (M57).
 Tu produis une analyse équivalente à une note DDFIP ou à une analyse transmise au préfet.
 Tu n'es PAS un commentateur généraliste.
 Tu es soumis à une doctrine comptable STRICTE.
 Toute erreur conceptuelle invalide l'analyse.
 L'ESSENTIEL DU POSTE :
-La capacité d’autofinancement brute (CAF brute) correspond à l’excédent des produits réels de fonctionnement sur les charges réelles de fonctionnement, avant remboursement du capital de la dette.
-Elle intègre les charges financières et n’est pas affectée par les modalités d’amortissement du capital des emprunts.
-La CAF brute constitue un indicateur de la capacité de la collectivité à mobiliser des ressources propres issues de son cycle de fonctionnement.
+L'épargne brute (ou capacité d'autofinancement - CAF) mesure l'excédent de ressources dégagé par la gestion courante de la collectivité au cours de l'exercice. Elle représente la richesse réelle disponible, après couverture des charges de fonctionnement et des intérêts de la dette, pour financer les investissements. Elle correspond à la différence entre les recettes réelles de fonctionnement et les dépenses réelles de fonctionnement.
+DÉTERMINATION DOCTRINALE :
+- Périmètre : Conformément à la doctrine M57, l'épargne brute repose exclusivement sur les opérations réelles (flux monétaires). Elle exclut les opérations d'ordre (amortissements, provisions, transferts entre sections) qui n'impactent pas la trésorerie.
+- Distinction avec l'épargne de gestion : L'épargne de gestion mesure la performance opérationnelle brute des services. L'épargne brute (CAF) est un indicateur plus complet car elle intègre le coût de la structure de financement (intérêts de la dette - chapitre 66) ainsi que le solde des produits et charges exceptionnels (chapitres 67 et 77). 
+- Neutralité de la dette : Elle est calculée avant le remboursement du capital des emprunts. Elle permet donc d'évaluer la capacité intrinsèque de la collectivité à honorer ses engagements financiers, indépendamment de la structure de son profil d'extinction de dette.
+- Ne pas écrire que la CAF brute 'contribue à la formation de l'épargne' car elle EST l'épargne brute.
+RÔLE STRATÉGIQUE :
+Pivot de l'analyse financière publique, l'épargne brute doit impérativement couvrir le remboursement annuel du capital de la dette (annuité en capital). Le solde disponible après ce remboursement (épargne nette) constitue la ressource propre prioritaire pour financer les dépenses d'équipement (investissements) et limiter le recours à l'emprunt nouveau. C'est l'indicateur central de la solvabilité de la collectivité.
 DONNÉES À ANALYSER :
 DONNÉES DU POSTE :
-- Montant : 479 k€
-- Par habitant : 457 €/hab.
+- Montant : 172 k€
+- Par habitant : 156 €/hab.
 - Moyenne de la strate : 182 €/hab.
-- Part dans les produits CAF : 28.1% (commune) vs 19.8% (strate) [écart : +8.2 pts]
-- Écart avec la strate (en €/hab) : +151.1%
-- Niveau : nettement supérieur à
+- Part dans les RRF : 13.9% (commune) vs 19.8% (strate) [écart : -5.9 pts]
+- Écart avec la strate (en €/hab) : -14.3%
+- Niveau : inférieur à
 CONTEXTE FINANCIER GLOBAL DE LA COMMUNE :
-Commune: CHAMPAGNAC
+Commune: ROSOY
 Exercice: 2024
-Population: 1048 habitants
+Population: 1102 habitants
 Strate démographique: 500 à 2000 habitants
 ÉQUILIBRES FINANCIERS:
-- Résultat de fonctionnement: 456 k€
-- CAF brute: 479 k€
-- CAF nette: 296 k€
-- Encours de dette: 1074 k€
-- Dépenses d'équipement: 662 k€
-- Fonds de roulement: 274 k€ (positif)
+- Résultat de fonctionnement: 171 k€
+- CAF brute: 172 k€
+- CAF nette: 79 k€
+- Encours de dette: 1144 k€
+- Dépenses d'équipement: 59 k€
+- Fonds de roulement: 250 k€ (négatif)
 RATIOS CLÉS:
-- Taux d'épargne brute: 28.1%
-- Part des charges de personnel: 45.1%
-- Capacité de désendettement: 2.2 années
-- Seuil prudentiel de capacité de désendettement: 12 ans
+- Taux d'épargne brute (CAF brute / RRF): 13.9% (seuil de confort: &gt; 15% ; seuil d'alerte usuel: &lt; 8%)
+- Part des charges de personnel dans les DRF: 46.1%
+- Capacité de désendettement (encours / CAF brute): 6.7 années (alerte: &gt; 12 ans ; zone critique: &gt; 15 ans)
    CONSIGNES D'ANALYSE :
-Rédige une note d'analyse financière experte, synthétique et doctrinalement conforme M14/M57.
+Rédige une note d'analyse financière experte, synthétique et doctrinalement conforme M57.
 Adopte le ton d'un analyste DGFiP : factuel, hiérarchisé, sans effet de style, sans commentaire politique.
 Structure impérative :
-1. POSITIONNEMENT ET POIDS DU POSTE (TEXTE FOURNI - NE PAS GÉNÉRER) :
-   Le texte suivant a déjà été rédigé pour cette section :
-   "La CAF brute constitue l’indicateur principal de la capacité de la commune à générer un excédent de ressources issu du fonctionnement avant remboursement du capital de la dette, servant de levier potentiel pour le financement des opérations d’investissement."
-   ⚠️ NE PAS GÉNÉRER DE TEXTE POUR CETTE SECTION - Elle est déjà fournie.
-   ⚠️ PRENDRE EN COMPTE ce contexte pour rédiger les sections suivantes.
+1. POSITIONNEMENT ET POIDS DU POSTE en une phrase :
+   PHRASE D'INSPIRATION (à utiliser comme guide pour la rédaction) :
+   "La CAF brute constitue l'indicateur principal de la capacité de la commune à générer un excédent de ressources issu du fonctionnement avant remboursement du capital de la dette, servant de levier potentiel pour le financement de la section d'investissement."
+   → S'inspirer de cette phrase tout en l'adaptant au contexte financier.
+   → Conserver le ton institutionnel et factuel.
 2. ANALYSE COMPARATIVE ET DIAGNOSTIC DES ÉCARTS (1 phrase + possibilité d'une 2e phrase factuelle)
    - Citer obligatoirement : montant en k€, valeur en €/habitant et écart en % par rapport à la strate
-     (utiliser strictement l’écart fourni, sans recalcul).
-   - Qualifier l’écart avec un vocabulaire varié et institutionnel
+     (utiliser strictement l'écart fourni, sans recalcul).
+   - Qualifier l'écart avec un vocabulaire varié et institutionnel
      (niveau supérieur / inférieur à la strate, écart significatif, positionnement atypique, alignement).
-   - Ajouter, le cas échéant, une phrase factuelle de mise en perspective sur l’impact du poste dans la structure ou stratégie financière de la collectivité
-     (par ex. contribution au financement des investissements, dépendance limitée aux ressources externes, levier d’autofinancement).
-   - Adapter le degré de prudence à l’ampleur de l’écart :
-     • écart faible → constat affirmé
-     • écart marqué → prudence analytique possible
-   - Ne jamais invoquer de causes politiques ou conjoncturelles non observables.
-3. CONTRIBUTION À L'ÉQUILIBRE GLOBAL (Angle spécifique) en une ou deux phrases : 
-   - Mettre en évidence la capacité d’autofinancement brute et sa variation d’un exercice à l’autre. mais ne pas donner de chiffres supplémentaires.
+   - Ajouter, le cas échéant, une phrase factuelle de mise en perspective sur l'impact du poste
+     dans la structure financière de la collectivité
+     (par ex. contribution à la formation de l'épargne, poids dans les recettes réelles, incidence sur la solvabilité).
+   - Adapter le degré de prudence à l'ampleur de l'écart :
+     • écart faible (&lt; 10%) → constat affirmé
+     • écart marqué (&gt; 20%) → prudence analytique, conditionnel admis
+   - Ne jamais invoquer de causes politiques ou conjoncturelles non observables dans les données.
+3. CONTRIBUTION À L'ÉQUILIBRE GLOBAL (Angle spécifique) en une ou deux phrases :
+   - Évaluer le niveau de l'épargne brute au regard du seuil de confort (taux d'épargne brute &gt; 15%) et sa capacité à couvrir le remboursement du capital de la dette.
+   - Ne pas introduire de chiffres supplémentaires non fournis dans les données.
    - Indiquer clairement si le poste constitue :
-     • un levier,
-     • une contrainte,
+     • un facteur favorable à l'équilibre,
+     • une contrainte sur l'équilibre,
+     • un point de vigilance (si les signaux sont mixtes),
      • ou un élément neutre.
-   - REMARQUE : Si le poste représente moins de 5% du budget total, limiter l’analyse à une phrase factuelle.
+   - La qualification de la section 3 DOIT ÊTRE COHÉRENTE avec le diagnostic de la section 2.
+     Un poste dont l'écart avec la strate est défavorable ne peut pas être qualifié de "facteur favorable"
+     sans explication explicite.
+   - REMARQUE : Si le poste représente moins de 5% du budget total, limiter l'analyse à une phrase factuelle.
+   INTERDICTION : Ne pas qualifier l'évolution temporelle (stable, en hausse, en baisse) sans données de l'exercice précédent.   
+   INTERDICTION d'utiliser des pronoms démonstratifs en début de phrase ("Ce poste", "Cette évolution").
 STYLE ET RIGUEUR :
-- Ton neutre, institutionnel, factuel et analytique ("technocratique" au sens noble : précis et rigoureux).
+- Ton neutre, institutionnel, factuel et analytique.
 - Utiliser le conditionnel uniquement pour toute interprétation non explicitement portée par les chiffres.
-- Prioriser l’affirmation lorsque les constats sont objectivement établis.
-- Éviter les répétitions inutiles entre postes : si l’écart est négligeable (&lt;5%), le mentionner très brièvement.
+- Prioriser l'affirmation lorsque les constats sont objectivement établis.
+- Éviter les répétitions inutiles entre postes : si l'écart est négligeable (&lt; 5%), le mentionner très brièvement.
 - Aucun commentaire politique, conjoncturel ou recommandation.
 - Pas de jugement de gestion.
-- Vocabulaire strictement M14/M57, phrases concises et précises, sans effet de style ni jargon excessif.
+- Vocabulaire strictement M57, phrases concises et précises.
 INTERDICTIONS STRICTES :
-❌ Ne pas suggérer que la dette finance des charges de fonctionnement
-❌ Ne pas expliquer une CAF brute par la fiscalité seule (la CAF brute dépend aussi des charges)
-❌ Ne pas utiliser un ton alarmiste
-❌ Ne pas recommander d'action
-❌ Ne pas juger la gestion
-❌ Ne pas écrire "5-6 phrases" ou un nombre de phrases dans les titres
-❌ Ne pas utiliser de vocabulaire managérial ou stratégique (“pilotage”, “optimisation”, “levier d’action”)
+❌ Ne pas suggérer que la dette finance des charges de fonctionnement.
+❌ Ne pas expliquer une CAF brute par les recettes seules (la CAF brute résulte du solde produits réels – charges réelles, y compris charges financières).
+❌ Ne pas utiliser un ton alarmiste.
+❌ Ne pas qualifier de 'neutre' un poste dont l'écart avec la strate dépasse -50 % sans justification explicite.
+❌ Ne pas recommander d'action ni juger la gestion.
+❌ Ne pas parler de produits de capacité d’autofinancement mais de Recettes Réelles de Fonctionnement.
+❌ Ne pas écrire un nombre de phrases dans les titres de section.
+❌ Ne pas utiliser de vocabulaire managérial (« pilotage », « optimisation », « levier d'action », « marge de manœuvre », « marge de sécurité », « marge de manoeuvre »).
+❌ Ne pas extrapoler de tendance temporelle (« stabilité », « progression », « dégradation ») sans comparaison chiffrée avec l'exercice précédent.
+❌ Ne pas qualifier un investissement d'« autofinancé » sauf si le taux de couverture (CAF nette / dépenses d'équipement) est ≥ 100%.
+❌ Ne pas inventer de chiffres. S'appuyer exclusivement sur les données transmises. Si une donnée manque, ne pas l'évoquer.
+❌ Ne pas qualifier de 'neutre', 'favorable' ou 'compatible' un poste dont l'écart avec la strate dépasse -50% ou +80% sans justification explicite par un indicateur croisé.
+❌ Ne pas utiliser de formulations managériales conditionnelles du type 'sous réserve de la maîtrise de...', 'sous réserve d'un pilotage de...', 'à condition de maintenir...'. Se limiter au constat factuel.
+❌ Ne pas confondre le taux d'épargne brute (CAF brute / RRF) avec un ratio rapporté au résultat de fonctionnement. Le dénominateur du taux d'épargne brute est exclusivement les RRF.
+❌ Ne pas utiliser le mot "évolution" ni "variation". Utiliser exclusivement "niveau", "poids", "positionnement" ou "part".
 IMPORTANT :
 - Ne jamais inventer de chiffres
 - S’appuyer exclusivement sur les données transmises
@@ -1562,12 +1754,12 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>1. POSITIONNEMENT ET POIDS DU POSTE  
-La capacité d’autofinancement brute (139 k€, soit 178 €/hab.) constitue un levier de financement important dans la structure budgétaire de la commune, représentant 25,8 % des produits réels de fonctionnement, part supérieure à la moyenne de la strate.
-2. ANALYSE COMPARATIVE ET DIAGNOSTIC DES ÉCARTS  
-La CAF brute de 139 k€ (178 €/hab.) se situe au niveau de la moyenne de la strate démographique (182 €/hab.), avec un écart modéré de -2,2 %. La part de la CAF brute dans les produits réels de fonctionnement est notablement plus élevée que celle de la strate (25,8 % contre 19,8 %, soit un écart de +6,0 points), ce qui traduit une contribution plus importante de l’excédent de fonctionnement à l’autofinancement.
-3. CONTRIBUTION À L'ÉQUILIBRE GLOBAL  
-La capacité d’autofinancement brute, stable par rapport à l’exercice précédent, constitue un levier financier pour la commune, permettant de contribuer au financement des dépenses d’équipement sans recours excessif à l’endettement.</t>
+          <t>**1. Positionnement et poids du poste**  
+La capacité d’autofinancement brute (CAF brute) traduit la capacité de la commune de Rosoy à dégager un excédent de ressources issues de la gestion courante, avant remboursement du capital de la dette, mobilisable pour le financement des investissements.
+**2. Analyse comparative et diagnostic des écarts**  
+La CAF brute s’établit à 172 k€, soit 156 €/habitant, ce qui représente un niveau inférieur de 14,3 % à la moyenne de la strate (182 €/habitant). La part de la CAF brute dans les recettes réelles de fonctionnement (RRF) est de 13,9 %, inférieure de 5,9 points à la moyenne de la strate (19,8 %). Ce positionnement traduit un écart significatif défavorable par rapport à la référence démographique, impactant la capacité intrinsèque de la collectivité à générer des ressources disponibles pour l’investissement.
+**3. Contribution à l’équilibre global**  
+Le taux d’épargne brute de 13,9 % est inférieur au seuil de confort fixé à 15 %, ce qui constitue un point de vigilance. La CAF brute couvre le remboursement du capital de la dette, mais avec une marge limitée, ce qui restreint la capacité propre de la commune à financer ses dépenses d’équipement sans recours accru à l’emprunt.</t>
         </is>
       </c>
     </row>
@@ -1592,7 +1784,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>La CAF nette représente l’autofinancement effectivement disponible pour financer les dépenses d’investissement après remboursement du capital de la dette, constituant un indicateur clé de la marge de manœuvre financière de la commune.</t>
+          <t>La CAF nette représente l'autofinancement effectivement disponible pour financer la section d'investissement après remboursement en capital de la dette, constituant un indicateur clé de la capacité financière de la commune.</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -1601,94 +1793,111 @@
       <c r="G10" t="inlineStr">
         <is>
           <t xml:space="preserve">DONNÉES DU POSTE :
-- Montant : 296 k€
-- Par habitant : 283 €/hab.
+- Montant : 79 k€
+- Par habitant : 72 €/hab.
 - Moyenne de la strate : 109 €/hab.
-- Part dans les produits CAF : 17.4% (commune) vs 11.9% (strate) [écart : +5.5 pts]
-- Écart avec la strate (en €/hab) : +159.6%
-- Niveau : nettement supérieur à
+- Part dans les RRF : 6.4% (commune) vs 11.9% (strate) [écart : -5.5 pts]
+- Écart avec la strate (en €/hab) : -33.9%
+- Niveau : nettement inférieur à
 </t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t xml:space="preserve">Tu es un analyste financier de la DGFiP (M14/M57).
+          <t xml:space="preserve">Tu es un analyste financier de la DGFiP (M57).
 Tu produis une analyse équivalente à une note DDFIP ou à une analyse transmise au préfet.
 Tu n'es PAS un commentateur généraliste.
 Tu es soumis à une doctrine comptable STRICTE.
 Toute erreur conceptuelle invalide l'analyse.
 L'ESSENTIEL DU POSTE :
-La CAF nette est obtenue en retranchant le remboursement en capital des emprunts de la CAF brute.
-Elle reflète la capacité de la collectivité à mobiliser des ressources propres après le service du capital de la dette.
-La CAF nette est un indicateur de référence pour l’analyse de l’équilibre de fonctionnement et de la capacité d’autofinancement des investissements.
+La CAF nette (ou épargne nette, terme officiel DGFIP) est obtenue en retranchant le remboursement en capital des emprunts de la CAF brute.
+Elle reflète la ressource propre réellement disponible pour financer l'équipement après avoir honoré l'intégralité du service de la dette.
+LOGIQUE DOCTRINALE :
+- Indicateur de santé : Une CAF nette positive indique que la collectivité autofinance son renouvellement de dette et dégage un surplus pour ses investissements.
+- Seuil d'alerte : Une CAF nette négative signifie que la section de fonctionnement ne couvre pas le remboursement du capital de la dette, contraignant la collectivité à financer sa dette passée par de l'emprunt nouveau ou par ses réserves (situation structurellement déséquilibrée).
 DONNÉES À ANALYSER :
 DONNÉES DU POSTE :
-- Montant : 296 k€
-- Par habitant : 283 €/hab.
+- Montant : 79 k€
+- Par habitant : 72 €/hab.
 - Moyenne de la strate : 109 €/hab.
-- Part dans les produits CAF : 17.4% (commune) vs 11.9% (strate) [écart : +5.5 pts]
-- Écart avec la strate (en €/hab) : +159.6%
-- Niveau : nettement supérieur à
+- Part dans les RRF : 6.4% (commune) vs 11.9% (strate) [écart : -5.5 pts]
+- Écart avec la strate (en €/hab) : -33.9%
+- Niveau : nettement inférieur à
 CONTEXTE FINANCIER GLOBAL DE LA COMMUNE :
-Commune: CHAMPAGNAC
+Commune: ROSOY
 Exercice: 2024
-Population: 1048 habitants
+Population: 1102 habitants
 Strate démographique: 500 à 2000 habitants
 ÉQUILIBRES FINANCIERS:
-- Résultat de fonctionnement: 456 k€
-- CAF brute: 479 k€
-- CAF nette: 296 k€
-- Encours de dette: 1074 k€
-- Dépenses d'équipement: 662 k€
-- Fonds de roulement: 274 k€ (positif)
+- Résultat de fonctionnement: 171 k€
+- CAF brute: 172 k€
+- CAF nette: 79 k€
+- Encours de dette: 1144 k€
+- Dépenses d'équipement: 59 k€
+- Fonds de roulement: 250 k€ (négatif)
 RATIOS CLÉS:
-- Taux d'épargne brute: 28.1%
-- Part des charges de personnel: 45.1%
-- Capacité de désendettement: 2.2 années
-- Seuil prudentiel de capacité de désendettement: 12 ans
+- Taux d'épargne brute (CAF brute / RRF): 13.9% (seuil de confort: &gt; 15% ; seuil d'alerte usuel: &lt; 8%)
+- Part des charges de personnel dans les DRF: 46.1%
+- Capacité de désendettement (encours / CAF brute): 6.7 années (alerte: &gt; 12 ans ; zone critique: &gt; 15 ans)
    CONSIGNES D'ANALYSE :
-Rédige une note d'analyse financière experte, synthétique et doctrinalement conforme M14/M57.
+Rédige une note d'analyse financière experte, synthétique et doctrinalement conforme M57.
 Adopte le ton d'un analyste DGFiP : factuel, hiérarchisé, sans effet de style, sans commentaire politique.
 Structure impérative :
-1. POSITIONNEMENT ET POIDS DU POSTE (TEXTE FOURNI - NE PAS GÉNÉRER) :
-   Le texte suivant a déjà été rédigé pour cette section :
-   "La CAF nette représente l’autofinancement effectivement disponible pour financer les dépenses d’investissement après remboursement du capital de la dette, constituant un indicateur clé de la marge de manœuvre financière de la commune."
-   ⚠️ NE PAS GÉNÉRER DE TEXTE POUR CETTE SECTION - Elle est déjà fournie.
-   ⚠️ PRENDRE EN COMPTE ce contexte pour rédiger les sections suivantes.
+1. POSITIONNEMENT ET POIDS DU POSTE en une phrase :
+   PHRASE D'INSPIRATION (à utiliser comme guide pour la rédaction) :
+   "La CAF nette représente l'autofinancement effectivement disponible pour financer la section d'investissement après remboursement en capital de la dette, constituant un indicateur clé de la capacité financière de la commune."
+   → S'inspirer de cette phrase tout en l'adaptant au contexte financier.
+   → Conserver le ton institutionnel et factuel.
 2. ANALYSE COMPARATIVE ET DIAGNOSTIC DES ÉCARTS (1 phrase + possibilité d'une 2e phrase factuelle)
    - Citer obligatoirement : montant en k€, valeur en €/habitant et écart en % par rapport à la strate
-     (utiliser strictement l’écart fourni, sans recalcul).
-   - Qualifier l’écart avec un vocabulaire varié et institutionnel
+     (utiliser strictement l'écart fourni, sans recalcul).
+   - Qualifier l'écart avec un vocabulaire varié et institutionnel
      (niveau supérieur / inférieur à la strate, écart significatif, positionnement atypique, alignement).
-   - Ajouter, le cas échéant, une phrase factuelle de mise en perspective sur l’impact du poste dans la structure ou stratégie financière de la collectivité
-     (par ex. contribution au financement des investissements, dépendance limitée aux ressources externes, levier d’autofinancement).
-   - Adapter le degré de prudence à l’ampleur de l’écart :
-     • écart faible → constat affirmé
-     • écart marqué → prudence analytique possible
-   - Ne jamais invoquer de causes politiques ou conjoncturelles non observables.
-3. CONTRIBUTION À L'ÉQUILIBRE GLOBAL (Angle spécifique) en une ou deux phrases : 
-   - Mettre en évidence la capacité d’autofinancement nette et sa variation d’un exercice à l’autre. mais ne pas donner de chiffres supplémentaires.
+   - Ajouter, le cas échéant, une phrase factuelle de mise en perspective sur l'impact du poste
+     dans la structure financière de la collectivité
+     (par ex. contribution à la formation de l'épargne, poids dans les recettes réelles, incidence sur la solvabilité).
+   - Adapter le degré de prudence à l'ampleur de l'écart :
+     • écart faible (&lt; 10%) → constat affirmé
+     • écart marqué (&gt; 20%) → prudence analytique, conditionnel admis
+   - Ne jamais invoquer de causes politiques ou conjoncturelles non observables dans les données.
+3. CONTRIBUTION À L'ÉQUILIBRE GLOBAL (Angle spécifique) en une ou deux phrases :
+   - Évaluer le niveau de l'épargne nette disponible pour le financement de la section d'investissement après service de la dette en capital.
+   - Ne pas introduire de chiffres supplémentaires non fournis dans les données.
    - Indiquer clairement si le poste constitue :
-     • un levier,
-     • une contrainte,
+     • un facteur favorable à l'équilibre,
+     • une contrainte sur l'équilibre,
+     • un point de vigilance (si les signaux sont mixtes),
      • ou un élément neutre.
-   - REMARQUE : Si le poste représente moins de 5% du budget total, limiter l’analyse à une phrase factuelle.
+   - La qualification de la section 3 DOIT ÊTRE COHÉRENTE avec le diagnostic de la section 2.
+     Un poste dont l'écart avec la strate est défavorable ne peut pas être qualifié de "facteur favorable"
+     sans explication explicite.
+   - REMARQUE : Si le poste représente moins de 5% du budget total, limiter l'analyse à une phrase factuelle.
+   INTERDICTION : Ne pas qualifier l'évolution temporelle (stable, en hausse, en baisse) sans données de l'exercice précédent.   
+   INTERDICTION d'utiliser des pronoms démonstratifs en début de phrase ("Ce poste", "Cette évolution").
 STYLE ET RIGUEUR :
-- Ton neutre, institutionnel, factuel et analytique ("technocratique" au sens noble : précis et rigoureux).
+- Ton neutre, institutionnel, factuel et analytique.
 - Utiliser le conditionnel uniquement pour toute interprétation non explicitement portée par les chiffres.
-- Prioriser l’affirmation lorsque les constats sont objectivement établis.
-- Éviter les répétitions inutiles entre postes : si l’écart est négligeable (&lt;5%), le mentionner très brièvement.
+- Prioriser l'affirmation lorsque les constats sont objectivement établis.
+- Éviter les répétitions inutiles entre postes : si l'écart est négligeable (&lt; 5%), le mentionner très brièvement.
 - Aucun commentaire politique, conjoncturel ou recommandation.
 - Pas de jugement de gestion.
-- Vocabulaire strictement M14/M57, phrases concises et précises, sans effet de style ni jargon excessif.
+- Vocabulaire strictement M57, phrases concises et précises.
 INTERDICTIONS STRICTES :
-❌ Ne pas suggérer que la dette finance des charges de fonctionnement
-❌ Ne pas expliquer une CAF brute par la fiscalité seule (la CAF brute dépend aussi des charges)
-❌ Ne pas utiliser un ton alarmiste
-❌ Ne pas recommander d'action
-❌ Ne pas juger la gestion
-❌ Ne pas écrire "5-6 phrases" ou un nombre de phrases dans les titres
-❌ Ne pas utiliser de vocabulaire managérial ou stratégique (“pilotage”, “optimisation”, “levier d’action”)
+❌ Ne pas suggérer que la dette finance des charges de fonctionnement.
+❌ Ne pas expliquer une CAF brute par les recettes seules (la CAF brute résulte du solde produits réels – charges réelles, y compris charges financières).
+❌ Ne pas utiliser un ton alarmiste.
+❌ Ne pas qualifier de 'neutre' un poste dont l'écart avec la strate dépasse -50 % sans justification explicite.
+❌ Ne pas recommander d'action ni juger la gestion.
+❌ Ne pas parler de produits de capacité d’autofinancement mais de Recettes Réelles de Fonctionnement.
+❌ Ne pas écrire un nombre de phrases dans les titres de section.
+❌ Ne pas utiliser de vocabulaire managérial (« pilotage », « optimisation », « levier d'action », « marge de manœuvre », « marge de sécurité », « marge de manoeuvre »).
+❌ Ne pas extrapoler de tendance temporelle (« stabilité », « progression », « dégradation ») sans comparaison chiffrée avec l'exercice précédent.
+❌ Ne pas qualifier un investissement d'« autofinancé » sauf si le taux de couverture (CAF nette / dépenses d'équipement) est ≥ 100%.
+❌ Ne pas inventer de chiffres. S'appuyer exclusivement sur les données transmises. Si une donnée manque, ne pas l'évoquer.
+❌ Ne pas qualifier de 'neutre', 'favorable' ou 'compatible' un poste dont l'écart avec la strate dépasse -50% ou +80% sans justification explicite par un indicateur croisé.
+❌ Ne pas utiliser de formulations managériales conditionnelles du type 'sous réserve de la maîtrise de...', 'sous réserve d'un pilotage de...', 'à condition de maintenir...'. Se limiter au constat factuel.
+❌ Ne pas confondre le taux d'épargne brute (CAF brute / RRF) avec un ratio rapporté au résultat de fonctionnement. Le dénominateur du taux d'épargne brute est exclusivement les RRF.
+❌ Ne pas utiliser le mot "évolution" ni "variation". Utiliser exclusivement "niveau", "poids", "positionnement" ou "part".
 IMPORTANT :
 - Ne jamais inventer de chiffres
 - S’appuyer exclusivement sur les données transmises
@@ -1698,12 +1907,12 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>1. POSITIONNEMENT ET POIDS DU POSTE  
-La capacité d’autofinancement nette, à 77 k€, constitue un levier modéré de financement des investissements, reflétant la ressource propre disponible après remboursement du capital de la dette.
-2. ANALYSE COMPARATIVE ET DIAGNOSTIC DES ÉCARTS  
-La CAF nette s’établit à 77 k€, soit 98 €/habitant, inférieure de 10,1 % à la moyenne de la strate (109 €/habitant). Ce positionnement inférieur traduit un niveau de mobilisation des ressources propres après service de la dette légèrement en retrait par rapport aux communes comparables. La part de la CAF nette dans les produits de la capacité d’autofinancement est cependant supérieure à la moyenne de la strate (14,3 % contre 11,9 %), indiquant une structure de produits favorisant relativement ce poste.
-3. CONTRIBUTION À L'ÉQUILIBRE GLOBAL  
-La CAF nette constitue un levier de financement des investissements, contribuant positivement à l’équilibre financier de la commune. Son niveau, bien que inférieur à la moyenne de la strate, permet de dégager une capacité d’autofinancement nette suffisante pour accompagner les dépenses d’équipement.</t>
+          <t>**1. Positionnement et poids du poste**  
+La capacité d’autofinancement nette, égale à la capacité d’autofinancement brute diminuée du remboursement en capital de la dette, représente la ressource propre effectivement disponible pour financer la section d’investissement après honoration du service de la dette, constituant un indicateur clé de la capacité financière de la commune.
+**2. Analyse comparative et diagnostic des écarts**  
+La capacité d’autofinancement nette s’établit à 79 k€, soit 72 €/habitant, ce qui représente un niveau nettement inférieur à la moyenne de la strate (109 €/habitant), avec un écart significatif de -33,9 %. La part de la CAF nette dans les recettes réelles de fonctionnement (6,4 %) est également inférieure de 5,5 points à celle de la strate (11,9 %). Ce positionnement traduit une capacité d’autofinancement nette plus faible que celle des collectivités comparables, ce qui limite la contribution propre de la commune au financement de ses investissements.
+**3. Contribution à l’équilibre global**  
+La capacité d’autofinancement nette positive à hauteur de 79 k€ constitue un facteur favorable à l’équilibre financier en permettant un autofinancement partiel des dépenses d’équipement après remboursement du capital de la dette. Toutefois, son niveau inférieur à la moyenne de la strate indique une marge de manœuvre plus restreinte pour financer les investissements sans recours à l’emprunt ou à l’utilisation des réserves.</t>
         </is>
       </c>
     </row>
@@ -1726,105 +1935,129 @@
           <t>Depenses_equipement</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr"/>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Les dépenses d’équipement constituent les investissements réalisés par la commune sur l’exercice, principalement dans les immobilisations corporelles et incorporelles, ainsi que les immobilisations en cours. Les dépenses d’équipement peuvent être traduites « en opération d’équipement ».</t>
+        </is>
+      </c>
       <c r="F11" t="n">
         <v>0.3</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
           <t xml:space="preserve">DONNÉES DU POSTE :
-- Montant : 662 k€
-- Par habitant : 632 €/hab.
+- Montant : 59 k€
+- Par habitant : 53 €/hab.
 - Moyenne de la strate : 389 €/hab.
-- Part dans les emplois d'investissement : 77.8% (commune) vs 80.1% (strate) [écart : -2.3 pts]
-- Écart avec la strate (en €/hab) : +62.5%
-- Niveau : nettement supérieur à
+- Part dans les emplois d'investissement : 38.7% (commune) vs 80.1% (strate) [écart : -41.4 pts]
+- Écart avec la strate (en €/hab) : -86.4%
+- Niveau : nettement inférieur à
 </t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t xml:space="preserve">Tu es un analyste financier de la DGFiP (M14/M57).
+          <t xml:space="preserve">Tu es un analyste financier de la DGFiP (M57).
 Tu produis une analyse équivalente à une note DDFIP ou à une analyse transmise au préfet.
 Tu n'es PAS un commentateur généraliste.
 Tu es soumis à une doctrine comptable STRICTE.
 Toute erreur conceptuelle invalide l'analyse.
 L'ESSENTIEL DU POSTE :
-Il s'agit des investissements réalisés sur l'exercice, par la commune.
-On y trouve :
-- Les immobilisations incorporelles (dont : frais, documents urbanisme, frais d'études, frais de recherche et développement, frais d'insertion…) ;
-- Les immobilisations corporelles (dont : terrains nus, terrains bâtis, bâtiments scolaires, autres bâtiments publics, réseaux de voirie, matériel de bureau et matériel informatique, mobilier…) ;
-- Les immobilisations en cours (dont : constructions, installations, matériel et outillage techniques…).
-RATIOS D'ANALYSE :
-- Ratio de niveau : Dépenses d'équipement / hab. (en €). Ce ratio permet de faire des comparaisons avec la moyenne de la strate ;
-- Ratio d'effort d'équipement : Dépenses d'équipement / Produits CAF. Ce ratio permet d'apprécier la part des produits CAF consacrée aux dépenses d'investissement. Mesuré en %, il est à comparer avec les moyennes dégagées de la strate ;
-- Taux de couverture de l'investissement : CAF nette / Dépenses d'équipement. Ce ratio mesure la capacité à financer l'investissement par l'autofinancement net disponible après remboursement du capital de la dette.
+Les dépenses d'équipement (ou investissements directs) mesurent l'effort de création, de renouvellement ou d'extension du patrimoine communal au cours de l'exercice. Elles se composent exclusivement de flux réels en section d'investissement.
+TYPOLOGIE M57 :
+- Immobilisations incorporelles : Dépenses immatérielles (études, documents d'urbanisme, logiciels, frais d'insertion).
+- Immobilisations corporelles : Biens concrets (terrains, bâtiments scolaires et publics, réseaux de voirie, matériel et mobilier).
+- Immobilisations en cours : Travaux engagés mais non réceptionnés à la clôture de l'exercice (comptes 23).
+RATIOS DOCTRINAUX :
+- Ratio de niveau (Dépenses d'équipement / hab.) : Mesure l'intensité physique de l'investissement par habitant, à comparer aux moyennes de strate.
+- Ratio d'effort d'équipement (Dépenses d'équipement / Recettes Réelles de Fonctionnement) : Indique quelle part de la richesse annuelle générée par le fonctionnement est convertie en investissement.
+- Taux de couverture (CAF nette / Dépenses d'équipement) : Détermine la part de l'investissement financée par l'autofinancement propre après remboursement de la dette. Un taux élevé traduit une faible dépendance à l'emprunt pour la réalisation des travaux.
 DONNÉES À ANALYSER :
 DONNÉES DU POSTE :
-- Montant : 662 k€
-- Par habitant : 632 €/hab.
+- Montant : 59 k€
+- Par habitant : 53 €/hab.
 - Moyenne de la strate : 389 €/hab.
-- Part dans les emplois d'investissement : 77.8% (commune) vs 80.1% (strate) [écart : -2.3 pts]
-- Écart avec la strate (en €/hab) : +62.5%
-- Niveau : nettement supérieur à
+- Part dans les emplois d'investissement : 38.7% (commune) vs 80.1% (strate) [écart : -41.4 pts]
+- Écart avec la strate (en €/hab) : -86.4%
+- Niveau : nettement inférieur à
 CONTEXTE FINANCIER GLOBAL DE LA COMMUNE :
-Commune: CHAMPAGNAC
+Commune: ROSOY
 Exercice: 2024
-Population: 1048 habitants
+Population: 1102 habitants
 Strate démographique: 500 à 2000 habitants
 ÉQUILIBRES FINANCIERS:
-- Résultat de fonctionnement: 456 k€
-- CAF brute: 479 k€
-- CAF nette: 296 k€
-- Encours de dette: 1074 k€
-- Dépenses d'équipement: 662 k€
-- Fonds de roulement: 274 k€ (positif)
+- Résultat de fonctionnement: 171 k€
+- CAF brute: 172 k€
+- CAF nette: 79 k€
+- Encours de dette: 1144 k€
+- Dépenses d'équipement: 59 k€
+- Fonds de roulement: 250 k€ (négatif)
 RATIOS CLÉS:
-- Taux d'épargne brute: 28.1%
-- Part des charges de personnel: 45.1%
-- Capacité de désendettement: 2.2 années
-- Seuil prudentiel de capacité de désendettement: 12 ans
+- Taux d'épargne brute (CAF brute / RRF): 13.9% (seuil de confort: &gt; 15% ; seuil d'alerte usuel: &lt; 8%)
+- Part des charges de personnel dans les DRF: 46.1%
+- Capacité de désendettement (encours / CAF brute): 6.7 années (alerte: &gt; 12 ans ; zone critique: &gt; 15 ans)
    CONSIGNES D'ANALYSE :
-Rédige une note d'analyse financière experte, synthétique et doctrinalement conforme M14/M57.
+Rédige une note d'analyse financière experte, synthétique et doctrinalement conforme M57.
 Adopte le ton d'un analyste DGFiP : factuel, hiérarchisé, sans effet de style, sans commentaire politique.
 Structure impérative :
 1. POSITIONNEMENT ET POIDS DU POSTE en une phrase :
-   - Situer le poste dans la structure budgétaire de la commune
-     (poste majeur, poste secondaire, levier de financement, charge rigide, etc.).
+   PHRASE D'INSPIRATION (à utiliser comme guide pour la rédaction) :
+   "Les dépenses d’équipement constituent les investissements réalisés par la commune sur l’exercice, principalement dans les immobilisations corporelles et incorporelles, ainsi que les immobilisations en cours. Les dépenses d’équipement peuvent être traduites « en opération d’équipement »."
+   → S'inspirer de cette phrase tout en l'adaptant au contexte financier.
+   → Conserver le ton institutionnel et factuel.
 2. ANALYSE COMPARATIVE ET DIAGNOSTIC DES ÉCARTS (1 phrase + possibilité d'une 2e phrase factuelle)
    - Citer obligatoirement : montant en k€, valeur en €/habitant et écart en % par rapport à la strate
-     (utiliser strictement l’écart fourni, sans recalcul).
-   - Qualifier l’écart avec un vocabulaire varié et institutionnel
+     (utiliser strictement l'écart fourni, sans recalcul).
+   - Qualifier l'écart avec un vocabulaire varié et institutionnel
      (niveau supérieur / inférieur à la strate, écart significatif, positionnement atypique, alignement).
-   - Ajouter, le cas échéant, une phrase factuelle de mise en perspective sur l’impact du poste dans la structure ou stratégie financière de la collectivité
-     (par ex. contribution au financement des investissements, dépendance limitée aux ressources externes, levier d’autofinancement).
-   - Adapter le degré de prudence à l’ampleur de l’écart :
-     • écart faible → constat affirmé
-     • écart marqué → prudence analytique possible
-   - Ne jamais invoquer de causes politiques ou conjoncturelles non observables.
-3. CONTRIBUTION À L'ÉQUILIBRE GLOBAL (Angle spécifique) en une ou deux phrases : 
-   - Mettre en évidence le niveau des dépenses d’équipement par habitant et leur évolution. mais ne pas donner de chiffres supplémentaires.
+   - Ajouter, le cas échéant, une phrase factuelle de mise en perspective sur l'impact du poste
+     dans la structure financière de la collectivité
+     (par ex. contribution à la formation de l'épargne, poids dans les recettes réelles, incidence sur la solvabilité).
+   - Adapter le degré de prudence à l'ampleur de l'écart :
+     • écart faible (&lt; 10%) → constat affirmé
+     • écart marqué (&gt; 20%) → prudence analytique, conditionnel admis
+   - Ne jamais invoquer de causes politiques ou conjoncturelles non observables dans les données.
+3. CONTRIBUTION À L'ÉQUILIBRE GLOBAL (Angle spécifique) en une ou deux phrases :
+   - Situer l'effort d'équipement par habitant au regard de la moyenne de la strate.
+   - Un niveau inférieur à la strate allège la pression sur le financement de l'investissement (facteur favorable à l'équilibre budgétaire à court terme), mais peut traduire un risque de sous-investissement et d'insuffisance de renouvellement du patrimoine à moyen terme.
+   - Un niveau supérieur à la strate constitue une pression sur le besoin de financement (contrainte relative), mais traduit un effort patrimonial soutenu.
+   - Ne pas confondre contrainte budgétaire (besoin de financement) et risque patrimonial (sous-investissement).
+   - Ne pas introduire de chiffres supplémentaires non fournis dans les données.
    - Indiquer clairement si le poste constitue :
-     • un levier,
-     • une contrainte,
+     • un facteur favorable à l'équilibre,
+     • une contrainte sur l'équilibre,
+     • un point de vigilance (si les signaux sont mixtes),
      • ou un élément neutre.
-   - REMARQUE : Si le poste représente moins de 5% du budget total, limiter l’analyse à une phrase factuelle.
+   - La qualification de la section 3 DOIT ÊTRE COHÉRENTE avec le diagnostic de la section 2.
+     Un poste dont l'écart avec la strate est défavorable ne peut pas être qualifié de "facteur favorable"
+     sans explication explicite.
+   - REMARQUE : Si le poste représente moins de 5% du budget total, limiter l'analyse à une phrase factuelle.
+   INTERDICTION : Ne pas qualifier l'évolution temporelle (stable, en hausse, en baisse) sans données de l'exercice précédent.   
+   INTERDICTION d'utiliser des pronoms démonstratifs en début de phrase ("Ce poste", "Cette évolution").
 STYLE ET RIGUEUR :
-- Ton neutre, institutionnel, factuel et analytique ("technocratique" au sens noble : précis et rigoureux).
+- Ton neutre, institutionnel, factuel et analytique.
 - Utiliser le conditionnel uniquement pour toute interprétation non explicitement portée par les chiffres.
-- Prioriser l’affirmation lorsque les constats sont objectivement établis.
-- Éviter les répétitions inutiles entre postes : si l’écart est négligeable (&lt;5%), le mentionner très brièvement.
+- Prioriser l'affirmation lorsque les constats sont objectivement établis.
+- Éviter les répétitions inutiles entre postes : si l'écart est négligeable (&lt; 5%), le mentionner très brièvement.
 - Aucun commentaire politique, conjoncturel ou recommandation.
 - Pas de jugement de gestion.
-- Vocabulaire strictement M14/M57, phrases concises et précises, sans effet de style ni jargon excessif.
+- Vocabulaire strictement M57, phrases concises et précises.
 INTERDICTIONS STRICTES :
-❌ Ne pas suggérer que la dette finance des charges de fonctionnement
-❌ Ne pas expliquer une CAF brute par la fiscalité seule (la CAF brute dépend aussi des charges)
-❌ Ne pas utiliser un ton alarmiste
-❌ Ne pas recommander d'action
-❌ Ne pas juger la gestion
-❌ Ne pas écrire "5-6 phrases" ou un nombre de phrases dans les titres
-❌ Ne pas utiliser de vocabulaire managérial ou stratégique (“pilotage”, “optimisation”, “levier d’action”)
+❌ Ne pas suggérer que la dette finance des charges de fonctionnement.
+❌ Ne pas expliquer une CAF brute par les recettes seules (la CAF brute résulte du solde produits réels – charges réelles, y compris charges financières).
+❌ Ne pas utiliser un ton alarmiste.
+❌ Ne pas qualifier de 'neutre' un poste dont l'écart avec la strate dépasse -50 % sans justification explicite.
+❌ Ne pas recommander d'action ni juger la gestion.
+❌ Ne pas parler de produits de capacité d’autofinancement mais de Recettes Réelles de Fonctionnement.
+❌ Ne pas écrire un nombre de phrases dans les titres de section.
+❌ Ne pas utiliser de vocabulaire managérial (« pilotage », « optimisation », « levier d'action », « marge de manœuvre », « marge de sécurité », « marge de manoeuvre »).
+❌ Ne pas extrapoler de tendance temporelle (« stabilité », « progression », « dégradation ») sans comparaison chiffrée avec l'exercice précédent.
+❌ Ne pas qualifier un investissement d'« autofinancé » sauf si le taux de couverture (CAF nette / dépenses d'équipement) est ≥ 100%.
+❌ Ne pas inventer de chiffres. S'appuyer exclusivement sur les données transmises. Si une donnée manque, ne pas l'évoquer.
+❌ Ne pas qualifier de 'neutre', 'favorable' ou 'compatible' un poste dont l'écart avec la strate dépasse -50% ou +80% sans justification explicite par un indicateur croisé.
+❌ Ne pas utiliser de formulations managériales conditionnelles du type 'sous réserve de la maîtrise de...', 'sous réserve d'un pilotage de...', 'à condition de maintenir...'. Se limiter au constat factuel.
+❌ Ne pas confondre le taux d'épargne brute (CAF brute / RRF) avec un ratio rapporté au résultat de fonctionnement. Le dénominateur du taux d'épargne brute est exclusivement les RRF.
+❌ Ne pas utiliser le mot "évolution" ni "variation". Utiliser exclusivement "niveau", "poids", "positionnement" ou "part".
 IMPORTANT :
 - Ne jamais inventer de chiffres
 - S’appuyer exclusivement sur les données transmises
@@ -1834,12 +2067,12 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>1. POSITIONNEMENT ET POIDS DU POSTE  
-Le poste des dépenses d’équipement constitue un poste majeur dans la structure des emplois d’investissement de la commune, représentant 70,0 % des emplois d’investissement, ce qui traduit une orientation significative vers le renouvellement et l’accroissement du patrimoine communal.
-2. ANALYSE COMPARATIVE ET DIAGNOSTIC DES ÉCARTS  
-Les dépenses d’équipement s’élèvent à 298 k€, soit 382 €/habitant, ce qui correspond à un niveau proche de la moyenne de la strate (389 €/habitant), avec un écart modéré de -1,8 %. La part des dépenses d’équipement dans les emplois d’investissement est inférieure à celle de la strate (70,0 % contre 80,1 %, soit un écart de -10,1 points), indiquant une moindre concentration des investissements sur les immobilisations par rapport à la moyenne des communes de même taille.
-3. CONTRIBUTION À L’ÉQUILIBRE GLOBAL  
-Le niveau des dépenses d’équipement par habitant se situe au niveau de la moyenne de la strate, ce qui confère au poste un rôle neutre dans l’équilibre financier global de la commune.</t>
+          <t>**1. Positionnement et poids du poste**  
+Les dépenses d’équipement de la commune de Rosoy en 2024, d’un montant de 59 k€, correspondent aux investissements réalisés en immobilisations corporelles, incorporelles et en cours, traduisant l’effort de création, de renouvellement ou d’extension du patrimoine communal au cours de l’exercice.
+**2. Analyse comparative et diagnostic des écarts**  
+Le montant des dépenses d’équipement s’établit à 59 k€, soit 53 €/habitant, ce qui représente un niveau nettement inférieur à la moyenne de la strate (389 €/habitant), avec un écart significatif de -86,4 %. La part des dépenses d’équipement dans les emplois d’investissement est également inférieure à celle de la strate (38,7 % contre 80,1 %, soit un écart de -41,4 points). Ce positionnement traduit un effort d’investissement sensiblement moindre que celui observé dans les communes comparables de même strate démographique.
+**3. Contribution à l’équilibre global**  
+L’effort d’équipement par habitant, très inférieur à la moyenne de la strate, allège la pression sur le besoin de financement de la commune à court terme. Toutefois, ce niveau d’investissement réduit constitue un point de vigilance quant au risque potentiel de sous-investissement et d’insuffisance de renouvellement du patrimoine communal à moyen terme.</t>
         </is>
       </c>
     </row>
@@ -1862,7 +2095,11 @@
           <t>Emprunts_contractes</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr"/>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Les emprunts contractés par la commune représentent les dettes nouvelles souscrites au cours de l'exercice, constituant un élément déterminant pour l'appréciation du niveau de l'encours de dette, des charges financières futures et du mode de financement des dépenses d'équipement.</t>
+        </is>
+      </c>
       <c r="F12" t="n">
         <v>0.3</v>
       </c>
@@ -1880,14 +2117,19 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t xml:space="preserve">Tu es un analyste financier de la DGFiP (M14/M57).
+          <t xml:space="preserve">Tu es un analyste financier de la DGFiP (M57).
 Tu produis une analyse équivalente à une note DDFIP ou à une analyse transmise au préfet.
 Tu n'es PAS un commentateur généraliste.
 Tu es soumis à une doctrine comptable STRICTE.
 Toute erreur conceptuelle invalide l'analyse.
 L'ESSENTIEL DU POSTE :
-Les emprunts contractés par la collectivité représentent les dettes nouvelles souscrites au cours de l’exercice.
-Ils constituent un élément clé pour l’appréciation de l’encours de dette et des charges financières, ainsi que pour l’analyse de la capacité de la collectivité à autofinancer ses investissements.
+Les emprunts contractés correspondent aux nouveaux flux de dette souscrits par la collectivité au cours de l'exercice. Contrairement aux recettes de fonctionnement, l'emprunt est une ressource non définitive qui génère une obligation de remboursement futur (service de la dette).
+DOCTRINE D'EMPLOI :
+- Équilibre budgétaire : L'emprunt constitue la variable d'ajustement de la section d'investissement. Il vient compléter l'autofinancement (CAF nette) et les subventions pour couvrir le besoin de financement des dépenses d'équipement.
+- Principe d'exclusion : En vertu des règles de la comptabilité publique, l'emprunt est strictement interdit pour le financement des dépenses de fonctionnement (principe de l'équilibre réel).
+- Si l'emprunt est nul ET que le FDR est négatif, qualifier la situation comme un point d'attention et non comme neutre.
+LOGIQUE D'ANALYSE :
+Le recours à l'emprunt impacte directement l'encours de dette au bilan et détermine la charge financière (intérêts) ainsi que l'annuité future. Son niveau s'apprécie au regard de la capacité de désendettement et de la stratégie de conservation du patrimoine.
 DONNÉES À ANALYSER :
 DONNÉES DU POSTE :
 - Montant : 0 k€
@@ -1897,63 +2139,80 @@
 - Écart avec la strate (en €/hab) : -100.0%
 - Niveau : nettement inférieur à
 CONTEXTE FINANCIER GLOBAL DE LA COMMUNE :
-Commune: CHAMPAGNAC
+Commune: ROSOY
 Exercice: 2024
-Population: 1048 habitants
+Population: 1102 habitants
 Strate démographique: 500 à 2000 habitants
 ÉQUILIBRES FINANCIERS:
-- Résultat de fonctionnement: 456 k€
-- CAF brute: 479 k€
-- CAF nette: 296 k€
-- Encours de dette: 1074 k€
-- Dépenses d'équipement: 662 k€
-- Fonds de roulement: 274 k€ (positif)
+- Résultat de fonctionnement: 171 k€
+- CAF brute: 172 k€
+- CAF nette: 79 k€
+- Encours de dette: 1144 k€
+- Dépenses d'équipement: 59 k€
+- Fonds de roulement: 250 k€ (négatif)
 RATIOS CLÉS:
-- Taux d'épargne brute: 28.1%
-- Part des charges de personnel: 45.1%
-- Capacité de désendettement: 2.2 années
-- Seuil prudentiel de capacité de désendettement: 12 ans
+- Taux d'épargne brute (CAF brute / RRF): 13.9% (seuil de confort: &gt; 15% ; seuil d'alerte usuel: &lt; 8%)
+- Part des charges de personnel dans les DRF: 46.1%
+- Capacité de désendettement (encours / CAF brute): 6.7 années (alerte: &gt; 12 ans ; zone critique: &gt; 15 ans)
    CONSIGNES D'ANALYSE :
-Rédige une note d'analyse financière experte, synthétique et doctrinalement conforme M14/M57.
+Rédige une note d'analyse financière experte, synthétique et doctrinalement conforme M57.
 Adopte le ton d'un analyste DGFiP : factuel, hiérarchisé, sans effet de style, sans commentaire politique.
 Structure impérative :
 1. POSITIONNEMENT ET POIDS DU POSTE en une phrase :
-   - Situer le poste dans la structure budgétaire de la commune
-     (poste majeur, poste secondaire, levier de financement, charge rigide, etc.).
+   PHRASE D'INSPIRATION (à utiliser comme guide pour la rédaction) :
+   "Les emprunts contractés par la commune représentent les dettes nouvelles souscrites au cours de l'exercice, constituant un élément déterminant pour l'appréciation du niveau de l'encours de dette, des charges financières futures et du mode de financement des dépenses d'équipement."
+   → S'inspirer de cette phrase tout en l'adaptant au contexte financier.
+   → Conserver le ton institutionnel et factuel.
 2. ANALYSE COMPARATIVE ET DIAGNOSTIC DES ÉCARTS (1 phrase + possibilité d'une 2e phrase factuelle)
    - Citer obligatoirement : montant en k€, valeur en €/habitant et écart en % par rapport à la strate
-     (utiliser strictement l’écart fourni, sans recalcul).
-   - Qualifier l’écart avec un vocabulaire varié et institutionnel
+     (utiliser strictement l'écart fourni, sans recalcul).
+   - Qualifier l'écart avec un vocabulaire varié et institutionnel
      (niveau supérieur / inférieur à la strate, écart significatif, positionnement atypique, alignement).
-   - Ajouter, le cas échéant, une phrase factuelle de mise en perspective sur l’impact du poste dans la structure ou stratégie financière de la collectivité
-     (par ex. contribution au financement des investissements, dépendance limitée aux ressources externes, levier d’autofinancement).
-   - Adapter le degré de prudence à l’ampleur de l’écart :
-     • écart faible → constat affirmé
-     • écart marqué → prudence analytique possible
-   - Ne jamais invoquer de causes politiques ou conjoncturelles non observables.
-3. CONTRIBUTION À L'ÉQUILIBRE GLOBAL (Angle spécifique) en une ou deux phrases : 
-   - Mettre en évidence la contribution de ce poste à l'équilibre budgétaire général. mais ne pas donner de chiffres supplémentaires.
+   - Ajouter, le cas échéant, une phrase factuelle de mise en perspective sur l'impact du poste
+     dans la structure financière de la collectivité
+     (par ex. contribution à la formation de l'épargne, poids dans les recettes réelles, incidence sur la solvabilité).
+   - Adapter le degré de prudence à l'ampleur de l'écart :
+     • écart faible (&lt; 10%) → constat affirmé
+     • écart marqué (&gt; 20%) → prudence analytique, conditionnel admis
+   - Ne jamais invoquer de causes politiques ou conjoncturelles non observables dans les données.
+3. CONTRIBUTION À L'ÉQUILIBRE GLOBAL (Angle spécifique) en une ou deux phrases :
+   - Situer la contribution de ce poste à l'équilibre budgétaire de l'exercice.
+   - Ne pas introduire de chiffres supplémentaires non fournis dans les données.
    - Indiquer clairement si le poste constitue :
-     • un levier,
-     • une contrainte,
+     • un facteur favorable à l'équilibre,
+     • une contrainte sur l'équilibre,
+     • un point de vigilance (si les signaux sont mixtes),
      • ou un élément neutre.
-   - REMARQUE : Si le poste représente moins de 5% du budget total, limiter l’analyse à une phrase factuelle.
+   - La qualification de la section 3 DOIT ÊTRE COHÉRENTE avec le diagnostic de la section 2.
+     Un poste dont l'écart avec la strate est défavorable ne peut pas être qualifié de "facteur favorable"
+     sans explication explicite.
+   - REMARQUE : Si le poste représente moins de 5% du budget total, limiter l'analyse à une phrase factuelle.
+   INTERDICTION : Ne pas qualifier l'évolution temporelle (stable, en hausse, en baisse) sans données de l'exercice précédent.   
+   INTERDICTION d'utiliser des pronoms démonstratifs en début de phrase ("Ce poste", "Cette évolution").
 STYLE ET RIGUEUR :
-- Ton neutre, institutionnel, factuel et analytique ("technocratique" au sens noble : précis et rigoureux).
+- Ton neutre, institutionnel, factuel et analytique.
 - Utiliser le conditionnel uniquement pour toute interprétation non explicitement portée par les chiffres.
-- Prioriser l’affirmation lorsque les constats sont objectivement établis.
-- Éviter les répétitions inutiles entre postes : si l’écart est négligeable (&lt;5%), le mentionner très brièvement.
+- Prioriser l'affirmation lorsque les constats sont objectivement établis.
+- Éviter les répétitions inutiles entre postes : si l'écart est négligeable (&lt; 5%), le mentionner très brièvement.
 - Aucun commentaire politique, conjoncturel ou recommandation.
 - Pas de jugement de gestion.
-- Vocabulaire strictement M14/M57, phrases concises et précises, sans effet de style ni jargon excessif.
+- Vocabulaire strictement M57, phrases concises et précises.
 INTERDICTIONS STRICTES :
-❌ Ne pas suggérer que la dette finance des charges de fonctionnement
-❌ Ne pas expliquer une CAF brute par la fiscalité seule (la CAF brute dépend aussi des charges)
-❌ Ne pas utiliser un ton alarmiste
-❌ Ne pas recommander d'action
-❌ Ne pas juger la gestion
-❌ Ne pas écrire "5-6 phrases" ou un nombre de phrases dans les titres
-❌ Ne pas utiliser de vocabulaire managérial ou stratégique (“pilotage”, “optimisation”, “levier d’action”)
+❌ Ne pas suggérer que la dette finance des charges de fonctionnement.
+❌ Ne pas expliquer une CAF brute par les recettes seules (la CAF brute résulte du solde produits réels – charges réelles, y compris charges financières).
+❌ Ne pas utiliser un ton alarmiste.
+❌ Ne pas qualifier de 'neutre' un poste dont l'écart avec la strate dépasse -50 % sans justification explicite.
+❌ Ne pas recommander d'action ni juger la gestion.
+❌ Ne pas parler de produits de capacité d’autofinancement mais de Recettes Réelles de Fonctionnement.
+❌ Ne pas écrire un nombre de phrases dans les titres de section.
+❌ Ne pas utiliser de vocabulaire managérial (« pilotage », « optimisation », « levier d'action », « marge de manœuvre », « marge de sécurité », « marge de manoeuvre »).
+❌ Ne pas extrapoler de tendance temporelle (« stabilité », « progression », « dégradation ») sans comparaison chiffrée avec l'exercice précédent.
+❌ Ne pas qualifier un investissement d'« autofinancé » sauf si le taux de couverture (CAF nette / dépenses d'équipement) est ≥ 100%.
+❌ Ne pas inventer de chiffres. S'appuyer exclusivement sur les données transmises. Si une donnée manque, ne pas l'évoquer.
+❌ Ne pas qualifier de 'neutre', 'favorable' ou 'compatible' un poste dont l'écart avec la strate dépasse -50% ou +80% sans justification explicite par un indicateur croisé.
+❌ Ne pas utiliser de formulations managériales conditionnelles du type 'sous réserve de la maîtrise de...', 'sous réserve d'un pilotage de...', 'à condition de maintenir...'. Se limiter au constat factuel.
+❌ Ne pas confondre le taux d'épargne brute (CAF brute / RRF) avec un ratio rapporté au résultat de fonctionnement. Le dénominateur du taux d'épargne brute est exclusivement les RRF.
+❌ Ne pas utiliser le mot "évolution" ni "variation". Utiliser exclusivement "niveau", "poids", "positionnement" ou "part".
 IMPORTANT :
 - Ne jamais inventer de chiffres
 - S’appuyer exclusivement sur les données transmises
@@ -1963,12 +2222,12 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>1. POSITIONNEMENT ET POIDS DU POSTE  
-Les emprunts contractés constituent un levier de financement important de l’investissement de la commune, représentant une part significative des ressources d’investissement.
-2. ANALYSE COMPARATIVE ET DIAGNOSTIC DES ÉCARTS  
-Le montant des emprunts s’élève à 63 k€, soit 81 €/habitant, ce qui est nettement supérieur à la moyenne de la strate (59 €/habitant), avec un écart de +37,3 %. La part des emprunts dans les ressources d’investissement est également élevée à 22,3 %, contre 13,1 % dans la strate, soit un écart de +9,3 points. Ce positionnement traduit une dépendance plus marquée aux ressources d’emprunt pour le financement des dépenses d’équipement.
-3. CONTRIBUTION À L’ÉQUILIBRE GLOBAL  
-Le recours aux emprunts constitue un levier de financement des investissements sans générer de contrainte immédiate sur l’équilibre de fonctionnement, compte tenu notamment de la capacité d’autofinancement positive et d’un encours de dette maîtrisé.</t>
+          <t>**1. Positionnement et poids du poste**  
+Les emprunts contractés par la commune de Rosoy en 2024 s’élèvent à 0 k€, représentant l’absence de dettes nouvelles souscrites au cours de l’exercice, ce qui conditionne directement l’évolution de l’encours de dette, les charges financières futures et le mode de financement des dépenses d’équipement.
+**2. Analyse comparative et diagnostic des écarts**  
+Le montant des emprunts est nul (0 k€), soit 0 €/habitant, ce qui constitue un écart significatif de -100 % par rapport à la moyenne de la strate (59 €/habitant). Ce positionnement est nettement inférieur à celui observé dans les collectivités comparables de même taille. La part des emprunts dans les ressources d’investissement est également nulle (0,0 %), contre 13,1 % en moyenne dans la strate, traduisant un recours à l’endettement très inférieur à la moyenne pour le financement des dépenses d’équipement.
+**3. Contribution à l’équilibre global**  
+L’absence de recours à l’emprunt en 2024 limite la formation de ressources nouvelles pour financer les dépenses d’équipement, ce qui, dans un contexte de fonds de roulement négatif, constitue un point de vigilance quant à la capacité de la commune à couvrir ses besoins d’investissement. Cette situation ne constitue ni un facteur favorable ni une contrainte directe sur l’équilibre budgétaire de l’exercice, mais appelle à une attention particulière sur la gestion du financement des investissements.</t>
         </is>
       </c>
     </row>
@@ -1991,7 +2250,11 @@
           <t>Subventions_recues</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr"/>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Les subventions reçues constituent une ressource d'investissement non remboursable, dont le niveau conditionne le reste à charge de la collectivité sur ses opérations d'équipement.</t>
+        </is>
+      </c>
       <c r="F13" t="n">
         <v>0.3</v>
       </c>
@@ -1999,91 +2262,115 @@
         <is>
           <t xml:space="preserve">DONNÉES DU POSTE :
 - Montant : 8 k€
-- Par habitant : 8 €/hab.
+- Par habitant : 7 €/hab.
 - Moyenne de la strate : 121 €/hab.
-- Part dans les ressources d'investissement : 0.7% (commune) vs 26.9% (strate) [écart : -26.2 pts]
-- Écart avec la strate (en €/hab) : -93.4%
+- Part dans les ressources d'investissement : 3.2% (commune) vs 26.9% (strate) [écart : -23.7 pts]
+- Écart avec la strate (en €/hab) : -94.2%
 - Niveau : nettement inférieur à
 </t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t xml:space="preserve">Tu es un analyste financier de la DGFiP (M14/M57).
+          <t xml:space="preserve">Tu es un analyste financier de la DGFiP (M57).
 Tu produis une analyse équivalente à une note DDFIP ou à une analyse transmise au préfet.
 Tu n'es PAS un commentateur généraliste.
 Tu es soumis à une doctrine comptable STRICTE.
 Toute erreur conceptuelle invalide l'analyse.
 L'ESSENTIEL DU POSTE :
-Les subventions reçues représentent les dotations d’investissement attribuées à la collectivité pour le financement d’opérations déterminées.
-Elles peuvent provenir de l’Union européenne, de l’État ou de collectivités territoriales.
-Ce poste constitue un indicateur du recours de la collectivité aux financements externes pour ses dépenses d’équipement, distinct des recettes de fonctionnement.
+Les subventions reçues constituent des ressources d'équipement non remboursables, affectées au financement d'opérations d'investissement spécifiques. Elles proviennent principalement de l'État (DETR, DSIL), de l'Union européenne, ou d'autres collectivités territoriales (Département, Région).
+   - Les subventions d'investissement n'ont aucun lien avec la formation de l'épargne (concept de fonctionnement). Qualifier leur contribution exclusivement au regard du financement de la section d'investissement.
+   - Un niveau de subventions nettement inférieur à la strate (écart &gt; -50%) augmente le reste à charge de la collectivité et constitue un facteur défavorable au financement de l'investissement, jamais un élément 'neutre'.
+   - Ne pas spéculer sur les causes (absence de demande, inéligibilité) sans donnée factuelle.
+COMPOSITION DOCTRINALE :
+- Subventions d'équipement : Concours financiers directs liés à la réalisation d'immobilisations.
+- FCTVA (Fonds de Compensation de la TVA) : Recette d'investissement automatique versée par l'État pour compenser la TVA acquittée sur les dépenses d'équipement.
+- Taxe d'aménagement : Ressource liée aux autorisations d'urbanisme, affectée par nature au financement des équipements publics.
+LOGIQUE DE FINANCEMENT :
+Ces recettes permettent de réduire le "reste à charge" de la collectivité sur ses projets d'équipement. Le taux de subventionnement (Subventions + FCTVA / Dépenses d'équipement) mesure le degré d'accompagnement extérieur dans la réalisation du patrimoine communal et conditionne le recours à l'emprunt.
 DONNÉES À ANALYSER :
 DONNÉES DU POSTE :
 - Montant : 8 k€
-- Par habitant : 8 €/hab.
+- Par habitant : 7 €/hab.
 - Moyenne de la strate : 121 €/hab.
-- Part dans les ressources d'investissement : 0.7% (commune) vs 26.9% (strate) [écart : -26.2 pts]
-- Écart avec la strate (en €/hab) : -93.4%
+- Part dans les ressources d'investissement : 3.2% (commune) vs 26.9% (strate) [écart : -23.7 pts]
+- Écart avec la strate (en €/hab) : -94.2%
 - Niveau : nettement inférieur à
 CONTEXTE FINANCIER GLOBAL DE LA COMMUNE :
-Commune: CHAMPAGNAC
+Commune: ROSOY
 Exercice: 2024
-Population: 1048 habitants
+Population: 1102 habitants
 Strate démographique: 500 à 2000 habitants
 ÉQUILIBRES FINANCIERS:
-- Résultat de fonctionnement: 456 k€
-- CAF brute: 479 k€
-- CAF nette: 296 k€
-- Encours de dette: 1074 k€
-- Dépenses d'équipement: 662 k€
-- Fonds de roulement: 274 k€ (positif)
+- Résultat de fonctionnement: 171 k€
+- CAF brute: 172 k€
+- CAF nette: 79 k€
+- Encours de dette: 1144 k€
+- Dépenses d'équipement: 59 k€
+- Fonds de roulement: 250 k€ (négatif)
 RATIOS CLÉS:
-- Taux d'épargne brute: 28.1%
-- Part des charges de personnel: 45.1%
-- Capacité de désendettement: 2.2 années
-- Seuil prudentiel de capacité de désendettement: 12 ans
+- Taux d'épargne brute (CAF brute / RRF): 13.9% (seuil de confort: &gt; 15% ; seuil d'alerte usuel: &lt; 8%)
+- Part des charges de personnel dans les DRF: 46.1%
+- Capacité de désendettement (encours / CAF brute): 6.7 années (alerte: &gt; 12 ans ; zone critique: &gt; 15 ans)
    CONSIGNES D'ANALYSE :
-Rédige une note d'analyse financière experte, synthétique et doctrinalement conforme M14/M57.
+Rédige une note d'analyse financière experte, synthétique et doctrinalement conforme M57.
 Adopte le ton d'un analyste DGFiP : factuel, hiérarchisé, sans effet de style, sans commentaire politique.
 Structure impérative :
 1. POSITIONNEMENT ET POIDS DU POSTE en une phrase :
-   - Situer le poste dans la structure budgétaire de la commune
-     (poste majeur, poste secondaire, levier de financement, charge rigide, etc.).
+   PHRASE D'INSPIRATION (à utiliser comme guide pour la rédaction) :
+   "Les subventions reçues constituent une ressource d'investissement non remboursable, dont le niveau conditionne le reste à charge de la collectivité sur ses opérations d'équipement."
+   → S'inspirer de cette phrase tout en l'adaptant au contexte financier.
+   → Conserver le ton institutionnel et factuel.
 2. ANALYSE COMPARATIVE ET DIAGNOSTIC DES ÉCARTS (1 phrase + possibilité d'une 2e phrase factuelle)
    - Citer obligatoirement : montant en k€, valeur en €/habitant et écart en % par rapport à la strate
-     (utiliser strictement l’écart fourni, sans recalcul).
-   - Qualifier l’écart avec un vocabulaire varié et institutionnel
+     (utiliser strictement l'écart fourni, sans recalcul).
+   - Qualifier l'écart avec un vocabulaire varié et institutionnel
      (niveau supérieur / inférieur à la strate, écart significatif, positionnement atypique, alignement).
-   - Ajouter, le cas échéant, une phrase factuelle de mise en perspective sur l’impact du poste dans la structure ou stratégie financière de la collectivité
-     (par ex. contribution au financement des investissements, dépendance limitée aux ressources externes, levier d’autofinancement).
-   - Adapter le degré de prudence à l’ampleur de l’écart :
-     • écart faible → constat affirmé
-     • écart marqué → prudence analytique possible
-   - Ne jamais invoquer de causes politiques ou conjoncturelles non observables.
-3. CONTRIBUTION À L'ÉQUILIBRE GLOBAL (Angle spécifique) en une ou deux phrases : 
-   - Mettre en évidence la contribution de ce poste à l'équilibre budgétaire général. mais ne pas donner de chiffres supplémentaires.
+   - Ajouter, le cas échéant, une phrase factuelle de mise en perspective sur l'impact du poste
+     dans la structure financière de la collectivité
+     (par ex. contribution à la formation de l'épargne, poids dans les recettes réelles, incidence sur la solvabilité).
+   - Adapter le degré de prudence à l'ampleur de l'écart :
+     • écart faible (&lt; 10%) → constat affirmé
+     • écart marqué (&gt; 20%) → prudence analytique, conditionnel admis
+   - Ne jamais invoquer de causes politiques ou conjoncturelles non observables dans les données.
+3. CONTRIBUTION À L'ÉQUILIBRE GLOBAL (Angle spécifique) en une ou deux phrases :
+   - Situer le taux de financement externe des dépenses d'équipement (subventions + FCTVA / dépenses d'équipement). Croiser systématiquement avec le niveau effectif d'emprunt de l'exercice. Ne pas spéculer sur un recours futur à l'emprunt si l'exercice courant ne le confirme pas.
+   - Ne pas introduire de chiffres supplémentaires non fournis dans les données.
    - Indiquer clairement si le poste constitue :
-     • un levier,
-     • une contrainte,
+     • un facteur favorable à l'équilibre,
+     • une contrainte sur l'équilibre,
+     • un point de vigilance (si les signaux sont mixtes),
      • ou un élément neutre.
-   - REMARQUE : Si le poste représente moins de 5% du budget total, limiter l’analyse à une phrase factuelle.
+   - La qualification de la section 3 DOIT ÊTRE COHÉRENTE avec le diagnostic de la section 2.
+     Un poste dont l'écart avec la strate est défavorable ne peut pas être qualifié de "facteur favorable"
+     sans explication explicite.
+   - REMARQUE : Si le poste représente moins de 5% du budget total, limiter l'analyse à une phrase factuelle.
+   INTERDICTION : Ne pas qualifier l'évolution temporelle (stable, en hausse, en baisse) sans données de l'exercice précédent.   
+   INTERDICTION d'utiliser des pronoms démonstratifs en début de phrase ("Ce poste", "Cette évolution").
 STYLE ET RIGUEUR :
-- Ton neutre, institutionnel, factuel et analytique ("technocratique" au sens noble : précis et rigoureux).
+- Ton neutre, institutionnel, factuel et analytique.
 - Utiliser le conditionnel uniquement pour toute interprétation non explicitement portée par les chiffres.
-- Prioriser l’affirmation lorsque les constats sont objectivement établis.
-- Éviter les répétitions inutiles entre postes : si l’écart est négligeable (&lt;5%), le mentionner très brièvement.
+- Prioriser l'affirmation lorsque les constats sont objectivement établis.
+- Éviter les répétitions inutiles entre postes : si l'écart est négligeable (&lt; 5%), le mentionner très brièvement.
 - Aucun commentaire politique, conjoncturel ou recommandation.
 - Pas de jugement de gestion.
-- Vocabulaire strictement M14/M57, phrases concises et précises, sans effet de style ni jargon excessif.
+- Vocabulaire strictement M57, phrases concises et précises.
 INTERDICTIONS STRICTES :
-❌ Ne pas suggérer que la dette finance des charges de fonctionnement
-❌ Ne pas expliquer une CAF brute par la fiscalité seule (la CAF brute dépend aussi des charges)
-❌ Ne pas utiliser un ton alarmiste
-❌ Ne pas recommander d'action
-❌ Ne pas juger la gestion
-❌ Ne pas écrire "5-6 phrases" ou un nombre de phrases dans les titres
-❌ Ne pas utiliser de vocabulaire managérial ou stratégique (“pilotage”, “optimisation”, “levier d’action”)
+❌ Ne pas suggérer que la dette finance des charges de fonctionnement.
+❌ Ne pas expliquer une CAF brute par les recettes seules (la CAF brute résulte du solde produits réels – charges réelles, y compris charges financières).
+❌ Ne pas utiliser un ton alarmiste.
+❌ Ne pas qualifier de 'neutre' un poste dont l'écart avec la strate dépasse -50 % sans justification explicite.
+❌ Ne pas recommander d'action ni juger la gestion.
+❌ Ne pas parler de produits de capacité d’autofinancement mais de Recettes Réelles de Fonctionnement.
+❌ Ne pas écrire un nombre de phrases dans les titres de section.
+❌ Ne pas utiliser de vocabulaire managérial (« pilotage », « optimisation », « levier d'action », « marge de manœuvre », « marge de sécurité », « marge de manoeuvre »).
+❌ Ne pas extrapoler de tendance temporelle (« stabilité », « progression », « dégradation ») sans comparaison chiffrée avec l'exercice précédent.
+❌ Ne pas qualifier un investissement d'« autofinancé » sauf si le taux de couverture (CAF nette / dépenses d'équipement) est ≥ 100%.
+❌ Ne pas inventer de chiffres. S'appuyer exclusivement sur les données transmises. Si une donnée manque, ne pas l'évoquer.
+❌ Ne pas qualifier de 'neutre', 'favorable' ou 'compatible' un poste dont l'écart avec la strate dépasse -50% ou +80% sans justification explicite par un indicateur croisé.
+❌ Ne pas utiliser de formulations managériales conditionnelles du type 'sous réserve de la maîtrise de...', 'sous réserve d'un pilotage de...', 'à condition de maintenir...'. Se limiter au constat factuel.
+❌ Ne pas confondre le taux d'épargne brute (CAF brute / RRF) avec un ratio rapporté au résultat de fonctionnement. Le dénominateur du taux d'épargne brute est exclusivement les RRF.
+❌ Ne pas utiliser le mot "évolution" ni "variation". Utiliser exclusivement "niveau", "poids", "positionnement" ou "part".
 IMPORTANT :
 - Ne jamais inventer de chiffres
 - S’appuyer exclusivement sur les données transmises
@@ -2093,12 +2380,12 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>1. POSITIONNEMENT ET POIDS DU POSTE  
-Les subventions reçues constituent un poste secondaire dans la structure des ressources d’investissement de la commune, représentant une source de financement externe limitée pour les dépenses d’équipement.
-2. ANALYSE COMPARATIVE ET DIAGNOSTIC DES ÉCARTS  
-Le montant des subventions s’élève à 49 k€, soit 63 €/habitant, ce qui correspond à un niveau nettement inférieur à la moyenne de la strate (121 €/habitant), avec un écart de -47,9%. La part des subventions dans les ressources d’investissement est de 17,3%, inférieure de 9,6 points à celle de la strate (26,9%). Cette position traduit une dépendance moindre aux financements externes pour les opérations d’investissement par rapport aux collectivités comparables.
-3. CONTRIBUTION À L'ÉQUILIBRE GLOBAL  
-Ce poste constitue un élément neutre dans l’équilibre budgétaire global de la commune, son poids limité ne constituant ni un levier significatif ni une contrainte pour le financement des investissements.</t>
+          <t>**1. Positionnement et poids du poste**  
+Les subventions d’investissement reçues constituent une ressource non remboursable affectée au financement des opérations d’équipement, dont le niveau conditionne le reste à charge de la collectivité sur ses dépenses d’investissement.
+**2. Analyse comparative et diagnostic des écarts**  
+Le montant des subventions d’équipement s’élève à 8 k€, soit 7 €/habitant, ce qui représente un niveau nettement inférieur à la moyenne de la strate (121 €/habitant), avec un écart de -94,2%. La part des subventions dans les ressources d’investissement de la commune est de 3,2%, contre 26,9% en moyenne dans la strate, soit un écart marqué de -23,7 points. Ce positionnement atypique traduit une contribution extérieure très faible au financement des immobilisations communales.
+**3. Contribution à l’équilibre global**  
+Le taux de financement externe des dépenses d’équipement, mesuré par le ratio (subventions + FCTVA) / dépenses d’équipement, est faible, ce qui accroît le reste à charge de la collectivité. En l’absence d’un recours à l’emprunt sur l’exercice, ce poste constitue une contrainte sur l’équilibre financier de la section d’investissement.</t>
         </is>
       </c>
     </row>
@@ -2121,105 +2408,132 @@
           <t>Encours_dette</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr"/>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>L’encours de dette constitue un poste majeur du passif financier de la commune, représentant un levier important de financement des investissements.</t>
+        </is>
+      </c>
       <c r="F14" t="n">
         <v>0.3</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
           <t xml:space="preserve">DONNÉES DU POSTE :
-- Montant : 1074 k€
-- Par habitant : 1025 €/hab.
+- Montant : 1144 k€
+- Par habitant : 1038 €/hab.
 - Moyenne de la strate : 560 €/hab.
-- Part dans les produits CAF : 63.0% (commune) vs 60.9% (strate) [écart : +2.1 pts]
-- Écart avec la strate (en €/hab) : +83.0%
+- Part dans les RRF : 92.7% (commune) vs 60.9% (strate) [écart : +31.8 pts]
+- Écart avec la strate (en €/hab) : +85.4%
 - Niveau : nettement supérieur à
 </t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t xml:space="preserve">Tu es un analyste financier de la DGFiP (M14/M57).
+          <t xml:space="preserve">Tu es un analyste financier de la DGFiP (M57).
 Tu produis une analyse équivalente à une note DDFIP ou à une analyse transmise au préfet.
 Tu n'es PAS un commentateur généraliste.
 Tu es soumis à une doctrine comptable STRICTE.
 Toute erreur conceptuelle invalide l'analyse.
 L'ESSENTIEL DU POSTE :
-L'encours de dette représente le stock des emprunts en capital restant dû au 31 décembre de l'exercice, pour l'ensemble des dettes contractées par la collectivité.
-Il reflète le montant que la collectivité doit rembourser à ses prêteurs, qu'il s'agisse d'établissements financiers, de l'État ou d'autres organismes.
-L'encours de dette prend en compte :
-1. Les emprunts nouveaux souscrits au cours de l'exercice ;
-2. Les remboursements effectués sur les emprunts existants au cours de l'exercice.
-RATIOS D'ANALYSE :
-- Encours total de la dette / hab. (en €) : Il permet de faire des comparaisons avec la moyenne de la strate.
-- Ratio d'endettement (Encours de dette / Produits CAF) : Il mesure le "poids de la dette" par rapport aux ressources de fonctionnement de la commune. Si le ratio est supérieur à 100%, cela signifie que l'encours de la dette représente plus d'une année de produits CAF.
-- Capacité de désendettement (Encours de dette / CAF brute) : Il s'agit d'un indicateur qui permet de mesurer la capacité d'une commune à rembourser sa dette. Il se mesure en nombre d'années. Le seuil prudentiel est fixé à 12 ans. Pour apprécier le niveau d'endettement, il faut pouvoir mesurer en combien d'années une commune peut amortir la totalité de sa dette en supposant qu'elle y consacre son entière CAF brute.
+L'encours de dette représente le stock de capital restant dû au 31 décembre. Il correspond à la dette financière de long terme contractée pour financer l'investissement.
+Il reflète l'exigibilité future des remboursements envers les prêteurs (établissements bancaires, État, ou organismes spécialisés).
+DÉTERMINATION DU STOCK :
+L'encours de fin d'exercice résulte de l'encours au 1er janvier, majoré des nouveaux emprunts mobilisés (tirages) et minoré des remboursements de capital effectués (amortissements financiers) durant l'année.
+CROISEMENT DOCTRINAL :
+- Un encours par habitant nettement supérieur à la strate, combiné à un fonds de roulement nettement inférieur à la strate, traduit un profil de commune ayant investi fortement à crédit en consommant ses réserves. Ce croisement doit être explicité s'il est constaté.
+RATIOS DOCTRINAUX (SOLVABILITÉ ET STRUCTURE) :
+- Encours de la dette par habitant (en €) : Indicateur de comparaison avec la moyenne de la strate pour mesurer la pression de l'endettement par administré.
+- Poids de la dette par rapport aux recettes réelles de fonctionnement : Mesure la part du stock de dette dans les ressources annuelles de gestion (en nombre d’années, non en pourcentage).
+- Capacité de désendettement (Encours de dette / CAF brute) : Exprimée en années. Mesure le temps nécessaire pour rembourser l'intégralité du stock de dette en y consacrant toute l'épargne brute annuelle.
+Seuils de référence : &gt; 12 ans = alerte ; &gt; 15 ans = zone critique ; &lt; 10 ans = confortable.
 DONNÉES À ANALYSER :
 DONNÉES DU POSTE :
-- Montant : 1074 k€
-- Par habitant : 1025 €/hab.
+- Montant : 1144 k€
+- Par habitant : 1038 €/hab.
 - Moyenne de la strate : 560 €/hab.
-- Part dans les produits CAF : 63.0% (commune) vs 60.9% (strate) [écart : +2.1 pts]
-- Écart avec la strate (en €/hab) : +83.0%
+- Part dans les RRF : 92.7% (commune) vs 60.9% (strate) [écart : +31.8 pts]
+- Écart avec la strate (en €/hab) : +85.4%
 - Niveau : nettement supérieur à
 CONTEXTE FINANCIER GLOBAL DE LA COMMUNE :
-Commune: CHAMPAGNAC
+Commune: ROSOY
 Exercice: 2024
-Population: 1048 habitants
+Population: 1102 habitants
 Strate démographique: 500 à 2000 habitants
 ÉQUILIBRES FINANCIERS:
-- Résultat de fonctionnement: 456 k€
-- CAF brute: 479 k€
-- CAF nette: 296 k€
-- Encours de dette: 1074 k€
-- Dépenses d'équipement: 662 k€
-- Fonds de roulement: 274 k€ (positif)
+- Résultat de fonctionnement: 171 k€
+- CAF brute: 172 k€
+- CAF nette: 79 k€
+- Encours de dette: 1144 k€
+- Dépenses d'équipement: 59 k€
+- Fonds de roulement: 250 k€ (négatif)
 RATIOS CLÉS:
-- Taux d'épargne brute: 28.1%
-- Part des charges de personnel: 45.1%
-- Capacité de désendettement: 2.2 années
-- Seuil prudentiel de capacité de désendettement: 12 ans
+- Taux d'épargne brute (CAF brute / RRF): 13.9% (seuil de confort: &gt; 15% ; seuil d'alerte usuel: &lt; 8%)
+- Part des charges de personnel dans les DRF: 46.1%
+- Capacité de désendettement (encours / CAF brute): 6.7 années (alerte: &gt; 12 ans ; zone critique: &gt; 15 ans)
    CONSIGNES D'ANALYSE :
-Rédige une note d'analyse financière experte, synthétique et doctrinalement conforme M14/M57.
+Rédige une note d'analyse financière experte, synthétique et doctrinalement conforme M57.
 Adopte le ton d'un analyste DGFiP : factuel, hiérarchisé, sans effet de style, sans commentaire politique.
 Structure impérative :
 1. POSITIONNEMENT ET POIDS DU POSTE en une phrase :
-   - Situer le poste dans la structure budgétaire de la commune
-     (poste majeur, poste secondaire, levier de financement, charge rigide, etc.).
+   PHRASE D'INSPIRATION (à utiliser comme guide pour la rédaction) :
+   "L’encours de dette constitue un poste majeur du passif financier de la commune, représentant un levier important de financement des investissements."
+   → S'inspirer de cette phrase tout en l'adaptant au contexte financier.
+   → Conserver le ton institutionnel et factuel.
 2. ANALYSE COMPARATIVE ET DIAGNOSTIC DES ÉCARTS (1 phrase + possibilité d'une 2e phrase factuelle)
    - Citer obligatoirement : montant en k€, valeur en €/habitant et écart en % par rapport à la strate
-     (utiliser strictement l’écart fourni, sans recalcul).
-   - Qualifier l’écart avec un vocabulaire varié et institutionnel
+     (utiliser strictement l'écart fourni, sans recalcul).
+   - Qualifier l'écart avec un vocabulaire varié et institutionnel
      (niveau supérieur / inférieur à la strate, écart significatif, positionnement atypique, alignement).
-   - Ajouter, le cas échéant, une phrase factuelle de mise en perspective sur l’impact du poste dans la structure ou stratégie financière de la collectivité
-     (par ex. contribution au financement des investissements, dépendance limitée aux ressources externes, levier d’autofinancement).
-   - Adapter le degré de prudence à l’ampleur de l’écart :
-     • écart faible → constat affirmé
-     • écart marqué → prudence analytique possible
-   - Ne jamais invoquer de causes politiques ou conjoncturelles non observables.
-3. CONTRIBUTION À L'ÉQUILIBRE GLOBAL (Angle spécifique) en une ou deux phrases : 
-   - Mettre en évidence le niveau et la variation de l’encours de dette par habitant. mais ne pas donner de chiffres supplémentaires.
+   - Ajouter, le cas échéant, une phrase factuelle de mise en perspective sur l'impact du poste
+     dans la structure financière de la collectivité
+     (par ex. contribution à la formation de l'épargne, poids dans les recettes réelles, incidence sur la solvabilité).
+   - Adapter le degré de prudence à l'ampleur de l'écart :
+     • écart faible (&lt; 10%) → constat affirmé
+     • écart marqué (&gt; 20%) → prudence analytique, conditionnel admis
+   - Ne jamais invoquer de causes politiques ou conjoncturelles non observables dans les données.
+3. CONTRIBUTION À L'ÉQUILIBRE GLOBAL (Angle spécifique) en une ou deux phrases :
+   - Évaluer le niveau d'endettement par habitant et la capacité de désendettement au regard des seuils de référence (alerte : &gt; 12 ans ; zone critique : &gt; 15 ans).
+   - Croiser systématiquement le ratio encours/RRF avec le taux d'épargne brute :
+     • Si encours/RRF &gt; 80% ET taux d'épargne brute &lt; 15% : qualifier de point d'attention, même si la capacité de désendettement reste sous le seuil d'alerte.
+     • Si encours/RRF &gt; 80% ET taux d'épargne brute &gt; 15% : la capacité d'épargne compense le poids de la dette, qualifier de facteur neutre à favorable.
+   - Ne pas qualifier un encours de 'compatible avec l'équilibre financier' sans justifier par au moins un indicateur croisé.
+   - Ne pas introduire de chiffres supplémentaires non fournis dans les données.
    - Indiquer clairement si le poste constitue :
-     • un levier,
-     • une contrainte,
+     • un facteur favorable à l'équilibre,
+     • une contrainte sur l'équilibre,
+     • un point de vigilance (si les signaux sont mixtes),
      • ou un élément neutre.
-   - REMARQUE : Si le poste représente moins de 5% du budget total, limiter l’analyse à une phrase factuelle.
+   - La qualification de la section 3 DOIT ÊTRE COHÉRENTE avec le diagnostic de la section 2.
+     Un poste dont l'écart avec la strate est défavorable ne peut pas être qualifié de "facteur favorable"
+     sans explication explicite.
+   - REMARQUE : Si le poste représente moins de 5% du budget total, limiter l'analyse à une phrase factuelle.
+   INTERDICTION : Ne pas qualifier l'évolution temporelle (stable, en hausse, en baisse) sans données de l'exercice précédent.   
+   INTERDICTION d'utiliser des pronoms démonstratifs en début de phrase ("Ce poste", "Cette évolution").
 STYLE ET RIGUEUR :
-- Ton neutre, institutionnel, factuel et analytique ("technocratique" au sens noble : précis et rigoureux).
+- Ton neutre, institutionnel, factuel et analytique.
 - Utiliser le conditionnel uniquement pour toute interprétation non explicitement portée par les chiffres.
-- Prioriser l’affirmation lorsque les constats sont objectivement établis.
-- Éviter les répétitions inutiles entre postes : si l’écart est négligeable (&lt;5%), le mentionner très brièvement.
+- Prioriser l'affirmation lorsque les constats sont objectivement établis.
+- Éviter les répétitions inutiles entre postes : si l'écart est négligeable (&lt; 5%), le mentionner très brièvement.
 - Aucun commentaire politique, conjoncturel ou recommandation.
 - Pas de jugement de gestion.
-- Vocabulaire strictement M14/M57, phrases concises et précises, sans effet de style ni jargon excessif.
+- Vocabulaire strictement M57, phrases concises et précises.
 INTERDICTIONS STRICTES :
-❌ Ne pas suggérer que la dette finance des charges de fonctionnement
-❌ Ne pas expliquer une CAF brute par la fiscalité seule (la CAF brute dépend aussi des charges)
-❌ Ne pas utiliser un ton alarmiste
-❌ Ne pas recommander d'action
-❌ Ne pas juger la gestion
-❌ Ne pas écrire "5-6 phrases" ou un nombre de phrases dans les titres
-❌ Ne pas utiliser de vocabulaire managérial ou stratégique (“pilotage”, “optimisation”, “levier d’action”)
+❌ Ne pas suggérer que la dette finance des charges de fonctionnement.
+❌ Ne pas expliquer une CAF brute par les recettes seules (la CAF brute résulte du solde produits réels – charges réelles, y compris charges financières).
+❌ Ne pas utiliser un ton alarmiste.
+❌ Ne pas qualifier de 'neutre' un poste dont l'écart avec la strate dépasse -50 % sans justification explicite.
+❌ Ne pas recommander d'action ni juger la gestion.
+❌ Ne pas parler de produits de capacité d’autofinancement mais de Recettes Réelles de Fonctionnement.
+❌ Ne pas écrire un nombre de phrases dans les titres de section.
+❌ Ne pas utiliser de vocabulaire managérial (« pilotage », « optimisation », « levier d'action », « marge de manœuvre », « marge de sécurité », « marge de manoeuvre »).
+❌ Ne pas extrapoler de tendance temporelle (« stabilité », « progression », « dégradation ») sans comparaison chiffrée avec l'exercice précédent.
+❌ Ne pas qualifier un investissement d'« autofinancé » sauf si le taux de couverture (CAF nette / dépenses d'équipement) est ≥ 100%.
+❌ Ne pas inventer de chiffres. S'appuyer exclusivement sur les données transmises. Si une donnée manque, ne pas l'évoquer.
+❌ Ne pas qualifier de 'neutre', 'favorable' ou 'compatible' un poste dont l'écart avec la strate dépasse -50% ou +80% sans justification explicite par un indicateur croisé.
+❌ Ne pas utiliser de formulations managériales conditionnelles du type 'sous réserve de la maîtrise de...', 'sous réserve d'un pilotage de...', 'à condition de maintenir...'. Se limiter au constat factuel.
+❌ Ne pas confondre le taux d'épargne brute (CAF brute / RRF) avec un ratio rapporté au résultat de fonctionnement. Le dénominateur du taux d'épargne brute est exclusivement les RRF.
+❌ Ne pas utiliser le mot "évolution" ni "variation". Utiliser exclusivement "niveau", "poids", "positionnement" ou "part".
 IMPORTANT :
 - Ne jamais inventer de chiffres
 - S’appuyer exclusivement sur les données transmises
@@ -2229,12 +2543,12 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>1. POSITIONNEMENT ET POIDS DU POSTE  
-L’encours de dette constitue un poste majeur du passif financier de la commune, représentant un engagement significatif en capital restant dû au 31 décembre, impactant directement la capacité d’autofinancement future.
-2. ANALYSE COMPARATIVE ET DIAGNOSTIC DES ÉCARTS  
-L’encours de dette s’élève à 912 k€, soit 1 168 €/habitant, ce qui représente un niveau nettement supérieur à la moyenne de la strate (560 €/hab.), avec un écart de +108,6 %. La part de l’encours dans les produits de la CAF atteint 169,2 %, contre 60,9 % dans la strate, soit un écart significatif de +108,3 points. Ce positionnement traduit une charge d’endettement élevée par rapport à la richesse de fonctionnement de la commune.
-3. CONTRIBUTION À L’ÉQUILIBRE GLOBAL  
-Le niveau élevé de l’encours de dette par habitant constitue une contrainte financière pour la commune, bien que la capacité de désendettement de 6,6 années reste inférieure au seuil prudentiel de 12 ans, indiquant une capacité théorique à amortir la dette dans un horizon moyen.</t>
+          <t>**1. POSITIONNEMENT ET POIDS DU POSTE**  
+L’encours de dette de la commune de Rosoy constitue un poste significatif du passif financier, représentant un levier important de financement des investissements à long terme.
+**2. ANALYSE COMPARATIVE ET DIAGNOSTIC DES ÉCARTS**  
+L’encours de dette s’élève à 1 144 k€, soit 1 038 €/habitant, ce qui représente un niveau nettement supérieur à la moyenne de la strate (560 €/hab.), avec un écart marqué de +85,4 %. La part de la dette dans les recettes réelles de fonctionnement atteint 92,7 %, dépassant significativement la moyenne de la strate (60,9 %) avec un écart de +31,8 points. Ce positionnement atypique traduit une pression financière élevée liée à l’endettement, impactant la structure financière de la collectivité.
+**3. CONTRIBUTION À L’ÉQUILIBRE GLOBAL**  
+Le niveau d’endettement par habitant est élevé, mais la capacité de désendettement, à 6,7 années, reste inférieure au seuil d’alerte fixé à 12 ans. Toutefois, le poids de la dette dans les recettes réelles de fonctionnement, supérieur à 80 %, combiné à un taux d’épargne brute de 13,9 % inférieur au seuil de confort de 15 %, constitue un point de vigilance pour l’équilibre financier de la commune. Le poste d’encours de dette représente ainsi un facteur de contrainte sur l’équilibre financier.</t>
         </is>
       </c>
     </row>
@@ -2257,98 +2571,123 @@
           <t>Fonds_roulement</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr"/>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Le fonds de roulement constitue un poste majeur dans la structure financière de la commune, traduisant la capacité cumulée à couvrir le besoin en fonds de roulement et la trésorerie.</t>
+        </is>
+      </c>
       <c r="F15" t="n">
         <v>0.3</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
           <t xml:space="preserve">DONNÉES DU POSTE :
-- Montant : 274 k€
-- Par habitant : 261 €/hab.
+- Montant : -250 k€
+- Par habitant : -227 €/hab.
 - Moyenne de la strate : 557 €/hab.
-- Écart avec la strate (en €/hab) : -53.1%
+- Écart avec la strate (en €/hab) : -140.8%
 - Niveau : nettement inférieur à
 </t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t xml:space="preserve">Tu es un analyste financier de la DGFiP (M14/M57).
+          <t xml:space="preserve">Tu es un analyste financier de la DGFiP (M57).
 Tu produis une analyse équivalente à une note DDFIP ou à une analyse transmise au préfet.
 Tu n'es PAS un commentateur généraliste.
 Tu es soumis à une doctrine comptable STRICTE.
 Toute erreur conceptuelle invalide l'analyse.
 L'ESSENTIEL DU POSTE :
-Le fonds de roulement représente le cumul des excédents et déficits de fonctionnement et d’investissement arrêtés au 31 décembre de chaque exercice.
-Il permet de mesurer la capacité de la collectivité à couvrir son besoin en fonds de roulement (BFR), la trésorerie étant calculée comme la différence entre le FDR et le BFR.
-La variation du FDR d’un exercice à l’autre correspond à l’écart comptable entre les ressources et les dépenses d’investissement, incluant les emprunts contractés et les résultats cumulés.
-Le fonds de roulement peut être positif ou négatif. Un FDR positif reflète un cumul excédentaire des résultats de fonctionnement et d’investissement, tandis qu’un FDR négatif reflète un cumul déficitaire.
+Le fonds de roulement net global (FRNG) représente l'excédent des ressources stables (capitaux propres, emprunts à long terme, subventions d'investissement) sur les emplois stables (immobilisations et actifs de long terme). Il constitue la réserve de sécurité financière de la collectivité.
+MÉCANIQUE FINANCIÈRE :
+- Équilibre de bilan : Le fonds de roulement permet de couvrir le besoin en fonds de roulement (BFR) lié aux décalages de trésorerie entre les encaissements et les décaissements.
+- Besoin en fonds de roulement (BFR) : En comptabilité publique locale, le BFR correspond à la différence entre les créances à court terme (restes à recouvrer, charges constatées d'avance) et les dettes à court terme (restes à payer, produits constatés d'avance). Un BFR positif signifie que la collectivité doit avancer de la trésorerie en attendant les encaissements.
+- Calcul de la liquidité : La trésorerie nette est le solde disponible après couverture du BFR (Trésorerie = FDR - BFR).
+INTERPRÉTATION DOCTRINALE :
+- FDR Positif : La collectivité dispose de ressources pérennes suffisantes pour financer ses investissements et dégager un excédent de liquidité, mais s'il est nettement inférieur à la moyenne de la strate (écart &gt; -30%) doit être qualifié de 'point de vigilance' et non de 'facteur favorable'.
+- FDR Négatif : Les emplois de long terme sont financés par des ressources de court terme, ce qui caractérise une situation de fragilité financière et un recours potentiel aux lignes de trésorerie.
 DONNÉES À ANALYSER :
 DONNÉES DU POSTE :
-- Montant : 274 k€
-- Par habitant : 261 €/hab.
+- Montant : -250 k€
+- Par habitant : -227 €/hab.
 - Moyenne de la strate : 557 €/hab.
-- Écart avec la strate (en €/hab) : -53.1%
+- Écart avec la strate (en €/hab) : -140.8%
 - Niveau : nettement inférieur à
 CONTEXTE FINANCIER GLOBAL DE LA COMMUNE :
-Commune: CHAMPAGNAC
+Commune: ROSOY
 Exercice: 2024
-Population: 1048 habitants
+Population: 1102 habitants
 Strate démographique: 500 à 2000 habitants
 ÉQUILIBRES FINANCIERS:
-- Résultat de fonctionnement: 456 k€
-- CAF brute: 479 k€
-- CAF nette: 296 k€
-- Encours de dette: 1074 k€
-- Dépenses d'équipement: 662 k€
-- Fonds de roulement: 274 k€ (positif)
+- Résultat de fonctionnement: 171 k€
+- CAF brute: 172 k€
+- CAF nette: 79 k€
+- Encours de dette: 1144 k€
+- Dépenses d'équipement: 59 k€
+- Fonds de roulement: 250 k€ (négatif)
 RATIOS CLÉS:
-- Taux d'épargne brute: 28.1%
-- Part des charges de personnel: 45.1%
-- Capacité de désendettement: 2.2 années
-- Seuil prudentiel de capacité de désendettement: 12 ans
+- Taux d'épargne brute (CAF brute / RRF): 13.9% (seuil de confort: &gt; 15% ; seuil d'alerte usuel: &lt; 8%)
+- Part des charges de personnel dans les DRF: 46.1%
+- Capacité de désendettement (encours / CAF brute): 6.7 années (alerte: &gt; 12 ans ; zone critique: &gt; 15 ans)
    CONSIGNES D'ANALYSE :
-Rédige une note d'analyse financière experte, synthétique et doctrinalement conforme M14/M57.
+Rédige une note d'analyse financière experte, synthétique et doctrinalement conforme M57.
 Adopte le ton d'un analyste DGFiP : factuel, hiérarchisé, sans effet de style, sans commentaire politique.
 Structure impérative :
 1. POSITIONNEMENT ET POIDS DU POSTE en une phrase :
-   - Situer le poste dans la structure budgétaire de la commune
-     (poste majeur, poste secondaire, levier de financement, charge rigide, etc.).
+   PHRASE D'INSPIRATION (à utiliser comme guide pour la rédaction) :
+   "Le fonds de roulement constitue un poste majeur dans la structure financière de la commune, traduisant la capacité cumulée à couvrir le besoin en fonds de roulement et la trésorerie."
+   → S'inspirer de cette phrase tout en l'adaptant au contexte financier.
+   → Conserver le ton institutionnel et factuel.
 2. ANALYSE COMPARATIVE ET DIAGNOSTIC DES ÉCARTS (1 phrase + possibilité d'une 2e phrase factuelle)
    - Citer obligatoirement : montant en k€, valeur en €/habitant et écart en % par rapport à la strate
-     (utiliser strictement l’écart fourni, sans recalcul).
-   - Qualifier l’écart avec un vocabulaire varié et institutionnel
+     (utiliser strictement l'écart fourni, sans recalcul).
+   - Qualifier l'écart avec un vocabulaire varié et institutionnel
      (niveau supérieur / inférieur à la strate, écart significatif, positionnement atypique, alignement).
-   - Ajouter, le cas échéant, une phrase factuelle de mise en perspective sur l’impact du poste dans la structure ou stratégie financière de la collectivité
-     (par ex. contribution au financement des investissements, dépendance limitée aux ressources externes, levier d’autofinancement).
-   - Adapter le degré de prudence à l’ampleur de l’écart :
-     • écart faible → constat affirmé
-     • écart marqué → prudence analytique possible
-   - Ne jamais invoquer de causes politiques ou conjoncturelles non observables.
-3. CONTRIBUTION À L'ÉQUILIBRE GLOBAL (Angle spécifique) en une ou deux phrases : 
-   - Mettre en évidence le niveau et la variation du fonds de roulement. mais ne pas donner de chiffres supplémentaires.
+   - Ajouter, le cas échéant, une phrase factuelle de mise en perspective sur l'impact du poste
+     dans la structure financière de la collectivité
+     (par ex. contribution à la formation de l'épargne, poids dans les recettes réelles, incidence sur la solvabilité).
+   - Adapter le degré de prudence à l'ampleur de l'écart :
+     • écart faible (&lt; 10%) → constat affirmé
+     • écart marqué (&gt; 20%) → prudence analytique, conditionnel admis
+   - Ne jamais invoquer de causes politiques ou conjoncturelles non observables dans les données.
+3. CONTRIBUTION À L'ÉQUILIBRE GLOBAL (Angle spécifique) en une ou deux phrases :
+   - Situer le niveau du fonds de roulement et sa capacité à couvrir le besoin en fonds de roulement pour sécuriser la trésorerie.
+   - Ne pas introduire de chiffres supplémentaires non fournis dans les données.
    - Indiquer clairement si le poste constitue :
-     • un levier,
-     • une contrainte,
+     • un facteur favorable à l'équilibre,
+     • une contrainte sur l'équilibre,
+     • un point de vigilance (si les signaux sont mixtes),
      • ou un élément neutre.
-   - REMARQUE : Si le poste représente moins de 5% du budget total, limiter l’analyse à une phrase factuelle.
+   - La qualification de la section 3 DOIT ÊTRE COHÉRENTE avec le diagnostic de la section 2.
+     Un poste dont l'écart avec la strate est défavorable ne peut pas être qualifié de "facteur favorable"
+     sans explication explicite.
+   - REMARQUE : Si le poste représente moins de 5% du budget total, limiter l'analyse à une phrase factuelle.
+   INTERDICTION : Ne pas qualifier l'évolution temporelle (stable, en hausse, en baisse) sans données de l'exercice précédent.   
+   INTERDICTION d'utiliser des pronoms démonstratifs en début de phrase ("Ce poste", "Cette évolution").
 STYLE ET RIGUEUR :
-- Ton neutre, institutionnel, factuel et analytique ("technocratique" au sens noble : précis et rigoureux).
+- Ton neutre, institutionnel, factuel et analytique.
 - Utiliser le conditionnel uniquement pour toute interprétation non explicitement portée par les chiffres.
-- Prioriser l’affirmation lorsque les constats sont objectivement établis.
-- Éviter les répétitions inutiles entre postes : si l’écart est négligeable (&lt;5%), le mentionner très brièvement.
+- Prioriser l'affirmation lorsque les constats sont objectivement établis.
+- Éviter les répétitions inutiles entre postes : si l'écart est négligeable (&lt; 5%), le mentionner très brièvement.
 - Aucun commentaire politique, conjoncturel ou recommandation.
 - Pas de jugement de gestion.
-- Vocabulaire strictement M14/M57, phrases concises et précises, sans effet de style ni jargon excessif.
+- Vocabulaire strictement M57, phrases concises et précises.
 INTERDICTIONS STRICTES :
-❌ Ne pas suggérer que la dette finance des charges de fonctionnement
-❌ Ne pas expliquer une CAF brute par la fiscalité seule (la CAF brute dépend aussi des charges)
-❌ Ne pas utiliser un ton alarmiste
-❌ Ne pas recommander d'action
-❌ Ne pas juger la gestion
-❌ Ne pas écrire "5-6 phrases" ou un nombre de phrases dans les titres
-❌ Ne pas utiliser de vocabulaire managérial ou stratégique (“pilotage”, “optimisation”, “levier d’action”)
+❌ Ne pas suggérer que la dette finance des charges de fonctionnement.
+❌ Ne pas expliquer une CAF brute par les recettes seules (la CAF brute résulte du solde produits réels – charges réelles, y compris charges financières).
+❌ Ne pas utiliser un ton alarmiste.
+❌ Ne pas qualifier de 'neutre' un poste dont l'écart avec la strate dépasse -50 % sans justification explicite.
+❌ Ne pas recommander d'action ni juger la gestion.
+❌ Ne pas parler de produits de capacité d’autofinancement mais de Recettes Réelles de Fonctionnement.
+❌ Ne pas écrire un nombre de phrases dans les titres de section.
+❌ Ne pas utiliser de vocabulaire managérial (« pilotage », « optimisation », « levier d'action », « marge de manœuvre », « marge de sécurité », « marge de manoeuvre »).
+❌ Ne pas extrapoler de tendance temporelle (« stabilité », « progression », « dégradation ») sans comparaison chiffrée avec l'exercice précédent.
+❌ Ne pas qualifier un investissement d'« autofinancé » sauf si le taux de couverture (CAF nette / dépenses d'équipement) est ≥ 100%.
+❌ Ne pas inventer de chiffres. S'appuyer exclusivement sur les données transmises. Si une donnée manque, ne pas l'évoquer.
+❌ Ne pas qualifier de 'neutre', 'favorable' ou 'compatible' un poste dont l'écart avec la strate dépasse -50% ou +80% sans justification explicite par un indicateur croisé.
+❌ Ne pas utiliser de formulations managériales conditionnelles du type 'sous réserve de la maîtrise de...', 'sous réserve d'un pilotage de...', 'à condition de maintenir...'. Se limiter au constat factuel.
+❌ Ne pas confondre le taux d'épargne brute (CAF brute / RRF) avec un ratio rapporté au résultat de fonctionnement. Le dénominateur du taux d'épargne brute est exclusivement les RRF.
+❌ Ne pas utiliser le mot "évolution" ni "variation". Utiliser exclusivement "niveau", "poids", "positionnement" ou "part".
 IMPORTANT :
 - Ne jamais inventer de chiffres
 - S’appuyer exclusivement sur les données transmises
@@ -2358,12 +2697,12 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>1. POSITIONNEMENT ET POIDS DU POSTE  
-Le fonds de roulement constitue un poste majeur dans la structure financière de la commune, traduisant la capacité cumulée à financer le besoin en fonds de roulement et à sécuriser la trésorerie.
-2. ANALYSE COMPARATIVE ET DIAGNOSTIC DES ÉCARTS  
-Le fonds de roulement s’élève à 686 k€, soit 879 €/habitant, ce qui représente un niveau nettement supérieur à la moyenne de la strate (557 €/hab.), avec un écart significatif de +57,8 %. Ce positionnement reflète un cumul excédentaire des résultats de fonctionnement et d’investissement, traduisant une capacité d’autofinancement interne relativement élevée par rapport aux collectivités comparables.
-3. CONTRIBUTION À L'ÉQUILIBRE GLOBAL  
-Le fonds de roulement positif, à un niveau élevé, constitue un levier financier pour la commune, assurant une couverture confortable du besoin en fonds de roulement et contribuant à la stabilité de la trésorerie.</t>
+          <t>**1. Positionnement et poids du poste**  
+Le fonds de roulement net global constitue un indicateur clé de la structure financière de la commune, traduisant la capacité des ressources stables à couvrir les emplois stables et à financer le besoin en fonds de roulement ainsi que la trésorerie.
+**2. Analyse comparative et diagnostic des écarts**  
+Le fonds de roulement net global s’établit à -250 k€, soit -227 €/habitant, ce qui représente un écart de -140,8 % par rapport à la moyenne de la strate (557 €/habitant). Ce positionnement est nettement inférieur à la moyenne des communes de taille comparable, traduisant une situation atypique. Cette insuffisance du fonds de roulement impacte la capacité de la collectivité à mobiliser des ressources stables pour financer ses immobilisations et couvrir ses besoins de trésorerie.
+**3. Contribution à l’équilibre global**  
+Le fonds de roulement négatif indique que les emplois stables sont financés par des ressources à court terme, ce qui constitue une contrainte sur l’équilibre financier de la commune. Cette configuration peut entraîner un recours accru aux lignes de trésorerie pour pallier les décalages de trésorerie liés au besoin en fonds de roulement.</t>
         </is>
       </c>
     </row>
